--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -236,7 +236,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +263,14 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -750,133 +758,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,14 +915,14 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1245,7 +1253,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M6" sqref="M6:N105"/>
+      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1259,8 +1267,8 @@
     <col min="8" max="8" width="23.0833333333333" style="6" customWidth="1"/>
     <col min="9" max="9" width="15.875" style="5" customWidth="1"/>
     <col min="10" max="12" width="12.125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="16.375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="13" style="5" customWidth="1"/>
+    <col min="13" max="13" width="17.875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="16.625" style="3" customWidth="1"/>
     <col min="15" max="15" width="13.75" style="1" customWidth="1"/>
     <col min="16" max="16" width="15.5" style="1" customWidth="1"/>
     <col min="17" max="17" width="13.375" style="1" customWidth="1"/>
@@ -1277,8 +1285,8 @@
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="5"/>
@@ -1290,8 +1298,8 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:17">
       <c r="A3" s="5"/>
@@ -1326,19 +1334,19 @@
       <c r="L3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="15" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1375,19 +1383,19 @@
       <c r="L4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1424,19 +1432,19 @@
       <c r="L5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="14" t="s">
+      <c r="O5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="14" t="s">
+      <c r="Q5" s="15" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1471,8 +1479,12 @@
       <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
+      <c r="M6" s="16">
+        <v>960000</v>
+      </c>
+      <c r="N6" s="16">
+        <v>960000</v>
+      </c>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
@@ -1506,8 +1518,12 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
+      <c r="M7" s="17">
+        <v>1120000</v>
+      </c>
+      <c r="N7" s="17">
+        <v>1120000</v>
+      </c>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -1541,8 +1557,12 @@
       <c r="L8" s="4">
         <v>0</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="M8" s="16">
+        <v>1280000</v>
+      </c>
+      <c r="N8" s="16">
+        <v>1280000</v>
+      </c>
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1576,8 +1596,12 @@
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
+      <c r="M9" s="18">
+        <v>1440000</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1440000</v>
+      </c>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -1611,8 +1635,12 @@
       <c r="L10" s="4">
         <v>0</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="M10" s="16">
+        <v>1620000</v>
+      </c>
+      <c r="N10" s="16">
+        <v>1620000</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -1646,8 +1674,12 @@
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
+      <c r="M11" s="18">
+        <v>1800000</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1800000</v>
+      </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -1681,8 +1713,12 @@
       <c r="L12" s="4">
         <v>0</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="M12" s="16">
+        <v>2000000</v>
+      </c>
+      <c r="N12" s="16">
+        <v>2000000</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -1716,8 +1752,12 @@
       <c r="L13" s="4">
         <v>0</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
+      <c r="M13" s="18">
+        <v>2200000</v>
+      </c>
+      <c r="N13" s="18">
+        <v>2200000</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -1751,8 +1791,12 @@
       <c r="L14" s="4">
         <v>0</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="M14" s="16">
+        <v>2420000</v>
+      </c>
+      <c r="N14" s="16">
+        <v>2420000</v>
+      </c>
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -1786,8 +1830,12 @@
       <c r="L15" s="4">
         <v>0</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
+      <c r="M15" s="18">
+        <v>2640000</v>
+      </c>
+      <c r="N15" s="18">
+        <v>2640000</v>
+      </c>
       <c r="O15" s="4"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -1821,8 +1869,12 @@
       <c r="L16" s="4">
         <v>0</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="M16" s="16">
+        <v>2880000</v>
+      </c>
+      <c r="N16" s="16">
+        <v>2880000</v>
+      </c>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -1856,8 +1908,12 @@
       <c r="L17" s="4">
         <v>0</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
+      <c r="M17" s="18">
+        <v>3120000</v>
+      </c>
+      <c r="N17" s="18">
+        <v>3120000</v>
+      </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -1891,8 +1947,12 @@
       <c r="L18" s="4">
         <v>0</v>
       </c>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="M18" s="16">
+        <v>3380000</v>
+      </c>
+      <c r="N18" s="16">
+        <v>3380000</v>
+      </c>
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
@@ -1926,8 +1986,12 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
+      <c r="M19" s="18">
+        <v>3640000</v>
+      </c>
+      <c r="N19" s="18">
+        <v>3640000</v>
+      </c>
       <c r="O19" s="4"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
@@ -1961,8 +2025,12 @@
       <c r="L20" s="4">
         <v>0</v>
       </c>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
+      <c r="M20" s="16">
+        <v>3920000</v>
+      </c>
+      <c r="N20" s="16">
+        <v>3920000</v>
+      </c>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -1996,8 +2064,12 @@
       <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
+      <c r="M21" s="18">
+        <v>4200000</v>
+      </c>
+      <c r="N21" s="18">
+        <v>4200000</v>
+      </c>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -2031,8 +2103,12 @@
       <c r="L22" s="4">
         <v>0</v>
       </c>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
+      <c r="M22" s="16">
+        <v>4500000</v>
+      </c>
+      <c r="N22" s="16">
+        <v>4500000</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2066,8 +2142,12 @@
       <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="M23" s="18">
+        <v>4800000</v>
+      </c>
+      <c r="N23" s="18">
+        <v>4800000</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2101,8 +2181,12 @@
       <c r="L24" s="4">
         <v>0</v>
       </c>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
+      <c r="M24" s="16">
+        <v>5120000</v>
+      </c>
+      <c r="N24" s="16">
+        <v>5120000</v>
+      </c>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -2136,8 +2220,12 @@
       <c r="L25" s="4">
         <v>0</v>
       </c>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
+      <c r="M25" s="18">
+        <v>5440000</v>
+      </c>
+      <c r="N25" s="18">
+        <v>5440000</v>
+      </c>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -2171,8 +2259,12 @@
       <c r="L26" s="4">
         <v>0</v>
       </c>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
+      <c r="M26" s="16">
+        <v>6239000</v>
+      </c>
+      <c r="N26" s="16">
+        <v>6239000</v>
+      </c>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -2206,8 +2298,12 @@
       <c r="L27" s="4">
         <v>0</v>
       </c>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
+      <c r="M27" s="18">
+        <v>7038000</v>
+      </c>
+      <c r="N27" s="18">
+        <v>7038000</v>
+      </c>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -2241,8 +2337,12 @@
       <c r="L28" s="4">
         <v>0</v>
       </c>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
+      <c r="M28" s="16">
+        <v>7965000</v>
+      </c>
+      <c r="N28" s="16">
+        <v>7965000</v>
+      </c>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -2276,8 +2376,12 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
+      <c r="M29" s="18">
+        <v>8892000</v>
+      </c>
+      <c r="N29" s="18">
+        <v>8892000</v>
+      </c>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -2311,8 +2415,12 @@
       <c r="L30" s="4">
         <v>0</v>
       </c>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
+      <c r="M30" s="16">
+        <v>9956000</v>
+      </c>
+      <c r="N30" s="16">
+        <v>9956000</v>
+      </c>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -2347,8 +2455,12 @@
       <c r="L31" s="4">
         <v>0</v>
       </c>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="M31" s="18">
+        <v>11020000</v>
+      </c>
+      <c r="N31" s="18">
+        <v>11020000</v>
+      </c>
     </row>
     <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A32" s="3"/>
@@ -2380,8 +2492,12 @@
       <c r="L32" s="4">
         <v>0</v>
       </c>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
+      <c r="M32" s="16">
+        <v>12230000</v>
+      </c>
+      <c r="N32" s="16">
+        <v>12230000</v>
+      </c>
     </row>
     <row r="33" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A33" s="3"/>
@@ -2413,8 +2529,12 @@
       <c r="L33" s="4">
         <v>0</v>
       </c>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="M33" s="18">
+        <v>13440000</v>
+      </c>
+      <c r="N33" s="18">
+        <v>13440000</v>
+      </c>
     </row>
     <row r="34" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A34" s="3"/>
@@ -2446,8 +2566,12 @@
       <c r="L34" s="4">
         <v>0</v>
       </c>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
+      <c r="M34" s="16">
+        <v>14805000</v>
+      </c>
+      <c r="N34" s="16">
+        <v>14805000</v>
+      </c>
     </row>
     <row r="35" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A35" s="3"/>
@@ -2479,8 +2603,12 @@
       <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="M35" s="18">
+        <v>16170000</v>
+      </c>
+      <c r="N35" s="18">
+        <v>16170000</v>
+      </c>
     </row>
     <row r="36" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A36" s="3"/>
@@ -2512,8 +2640,12 @@
       <c r="L36" s="4">
         <v>0</v>
       </c>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
+      <c r="M36" s="16">
+        <v>17699000</v>
+      </c>
+      <c r="N36" s="16">
+        <v>17699000</v>
+      </c>
     </row>
     <row r="37" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A37" s="3"/>
@@ -2545,8 +2677,12 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="M37" s="18">
+        <v>19228000</v>
+      </c>
+      <c r="N37" s="18">
+        <v>19228000</v>
+      </c>
     </row>
     <row r="38" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A38" s="3"/>
@@ -2578,8 +2714,12 @@
       <c r="L38" s="4">
         <v>0</v>
       </c>
-      <c r="M38" s="17"/>
-      <c r="N38" s="17"/>
+      <c r="M38" s="16">
+        <v>20930000</v>
+      </c>
+      <c r="N38" s="16">
+        <v>20930000</v>
+      </c>
     </row>
     <row r="39" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A39" s="3"/>
@@ -2611,8 +2751,12 @@
       <c r="L39" s="4">
         <v>0</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
+      <c r="M39" s="18">
+        <v>22632000</v>
+      </c>
+      <c r="N39" s="18">
+        <v>22632000</v>
+      </c>
     </row>
     <row r="40" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A40" s="3"/>
@@ -2644,8 +2788,12 @@
       <c r="L40" s="4">
         <v>0</v>
       </c>
-      <c r="M40" s="17"/>
-      <c r="N40" s="17"/>
+      <c r="M40" s="16">
+        <v>24516000</v>
+      </c>
+      <c r="N40" s="16">
+        <v>24516000</v>
+      </c>
     </row>
     <row r="41" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A41" s="3"/>
@@ -2677,8 +2825,12 @@
       <c r="L41" s="4">
         <v>0</v>
       </c>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
+      <c r="M41" s="18">
+        <v>26400000</v>
+      </c>
+      <c r="N41" s="18">
+        <v>26400000</v>
+      </c>
     </row>
     <row r="42" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A42" s="3"/>
@@ -2710,8 +2862,12 @@
       <c r="L42" s="4">
         <v>0</v>
       </c>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
+      <c r="M42" s="16">
+        <v>28475000</v>
+      </c>
+      <c r="N42" s="16">
+        <v>28475000</v>
+      </c>
     </row>
     <row r="43" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A43" s="3"/>
@@ -2743,8 +2899,12 @@
       <c r="L43" s="4">
         <v>0</v>
       </c>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
+      <c r="M43" s="18">
+        <v>30550000</v>
+      </c>
+      <c r="N43" s="18">
+        <v>30550000</v>
+      </c>
     </row>
     <row r="44" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A44" s="3"/>
@@ -2776,8 +2936,12 @@
       <c r="L44" s="4">
         <v>0</v>
       </c>
-      <c r="M44" s="17"/>
-      <c r="N44" s="17"/>
+      <c r="M44" s="16">
+        <v>32825000</v>
+      </c>
+      <c r="N44" s="16">
+        <v>32825000</v>
+      </c>
     </row>
     <row r="45" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A45" s="3"/>
@@ -2809,8 +2973,12 @@
       <c r="L45" s="4">
         <v>0</v>
       </c>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
+      <c r="M45" s="18">
+        <v>35100000</v>
+      </c>
+      <c r="N45" s="18">
+        <v>35100000</v>
+      </c>
     </row>
     <row r="46" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A46" s="3"/>
@@ -2842,8 +3010,12 @@
       <c r="L46" s="4">
         <v>0</v>
       </c>
-      <c r="M46" s="17"/>
-      <c r="N46" s="17"/>
+      <c r="M46" s="16">
+        <v>37584000</v>
+      </c>
+      <c r="N46" s="16">
+        <v>37584000</v>
+      </c>
     </row>
     <row r="47" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A47" s="3"/>
@@ -2875,8 +3047,12 @@
       <c r="L47" s="4">
         <v>0</v>
       </c>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
+      <c r="M47" s="18">
+        <v>40068000</v>
+      </c>
+      <c r="N47" s="18">
+        <v>40068000</v>
+      </c>
     </row>
     <row r="48" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A48" s="3"/>
@@ -2908,8 +3084,12 @@
       <c r="L48" s="4">
         <v>0</v>
       </c>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
+      <c r="M48" s="16">
+        <v>42770000</v>
+      </c>
+      <c r="N48" s="16">
+        <v>42770000</v>
+      </c>
     </row>
     <row r="49" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A49" s="3"/>
@@ -2941,8 +3121,12 @@
       <c r="L49" s="4">
         <v>0</v>
       </c>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
+      <c r="M49" s="18">
+        <v>45472000</v>
+      </c>
+      <c r="N49" s="18">
+        <v>45472000</v>
+      </c>
     </row>
     <row r="50" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A50" s="3"/>
@@ -2974,8 +3158,12 @@
       <c r="L50" s="4">
         <v>0</v>
       </c>
-      <c r="M50" s="17"/>
-      <c r="N50" s="17"/>
+      <c r="M50" s="16">
+        <v>48401000</v>
+      </c>
+      <c r="N50" s="16">
+        <v>48401000</v>
+      </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
       <c r="C51" s="4">
@@ -3006,8 +3194,12 @@
       <c r="L51" s="4">
         <v>0</v>
       </c>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
+      <c r="M51" s="18">
+        <v>51330000</v>
+      </c>
+      <c r="N51" s="18">
+        <v>51330000</v>
+      </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -3041,8 +3233,12 @@
       <c r="L52" s="4">
         <v>0</v>
       </c>
-      <c r="M52" s="17"/>
-      <c r="N52" s="17"/>
+      <c r="M52" s="16">
+        <v>54495000</v>
+      </c>
+      <c r="N52" s="16">
+        <v>54495000</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -3076,8 +3272,12 @@
       <c r="L53" s="4">
         <v>0</v>
       </c>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
+      <c r="M53" s="18">
+        <v>57660000</v>
+      </c>
+      <c r="N53" s="18">
+        <v>57660000</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -3111,8 +3311,12 @@
       <c r="L54" s="4">
         <v>0</v>
       </c>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
+      <c r="M54" s="16">
+        <v>61070000</v>
+      </c>
+      <c r="N54" s="16">
+        <v>61070000</v>
+      </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -3148,8 +3352,12 @@
       <c r="L55" s="4">
         <v>0</v>
       </c>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
+      <c r="M55" s="18">
+        <v>64480000</v>
+      </c>
+      <c r="N55" s="18">
+        <v>64480000</v>
+      </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -3183,8 +3391,12 @@
       <c r="L56" s="4">
         <v>0</v>
       </c>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
+      <c r="M56" s="16">
+        <v>68144000</v>
+      </c>
+      <c r="N56" s="16">
+        <v>68144000</v>
+      </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -3218,8 +3430,12 @@
       <c r="L57" s="4">
         <v>0</v>
       </c>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
+      <c r="M57" s="18">
+        <v>71808000</v>
+      </c>
+      <c r="N57" s="18">
+        <v>71808000</v>
+      </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
@@ -3253,8 +3469,12 @@
       <c r="L58" s="4">
         <v>0</v>
       </c>
-      <c r="M58" s="17"/>
-      <c r="N58" s="17"/>
+      <c r="M58" s="16">
+        <v>75735000</v>
+      </c>
+      <c r="N58" s="16">
+        <v>75735000</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -3288,8 +3508,12 @@
       <c r="L59" s="4">
         <v>0</v>
       </c>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
+      <c r="M59" s="18">
+        <v>79662000</v>
+      </c>
+      <c r="N59" s="18">
+        <v>79662000</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
@@ -3323,8 +3547,12 @@
       <c r="L60" s="4">
         <v>0</v>
       </c>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
+      <c r="M60" s="16">
+        <v>83861000</v>
+      </c>
+      <c r="N60" s="16">
+        <v>83861000</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -3358,8 +3586,12 @@
       <c r="L61" s="4">
         <v>0</v>
       </c>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
+      <c r="M61" s="18">
+        <v>88060000</v>
+      </c>
+      <c r="N61" s="18">
+        <v>88060000</v>
+      </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
@@ -3393,8 +3625,12 @@
       <c r="L62" s="4">
         <v>0</v>
       </c>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
+      <c r="M62" s="16">
+        <v>92540000</v>
+      </c>
+      <c r="N62" s="16">
+        <v>92540000</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
@@ -3428,8 +3664,12 @@
       <c r="L63" s="4">
         <v>0</v>
       </c>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
+      <c r="M63" s="18">
+        <v>97020000</v>
+      </c>
+      <c r="N63" s="18">
+        <v>97020000</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
@@ -3463,8 +3703,12 @@
       <c r="L64" s="4">
         <v>0</v>
       </c>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
+      <c r="M64" s="16">
+        <v>101790000</v>
+      </c>
+      <c r="N64" s="16">
+        <v>101790000</v>
+      </c>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
@@ -3498,8 +3742,12 @@
       <c r="L65" s="4">
         <v>0</v>
       </c>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
+      <c r="M65" s="18">
+        <v>106560000</v>
+      </c>
+      <c r="N65" s="18">
+        <v>106560000</v>
+      </c>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
@@ -3533,8 +3781,12 @@
       <c r="L66" s="4">
         <v>0</v>
       </c>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
+      <c r="M66" s="16">
+        <v>114700000</v>
+      </c>
+      <c r="N66" s="16">
+        <v>114700000</v>
+      </c>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
@@ -3568,8 +3820,12 @@
       <c r="L67" s="4">
         <v>0</v>
       </c>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
+      <c r="M67" s="18">
+        <v>122840000</v>
+      </c>
+      <c r="N67" s="18">
+        <v>122840000</v>
+      </c>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
@@ -3603,8 +3859,12 @@
       <c r="L68" s="4">
         <v>0</v>
       </c>
-      <c r="M68" s="17"/>
-      <c r="N68" s="17"/>
+      <c r="M68" s="16">
+        <v>131596000</v>
+      </c>
+      <c r="N68" s="16">
+        <v>131596000</v>
+      </c>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
@@ -3638,8 +3898,12 @@
       <c r="L69" s="4">
         <v>0</v>
       </c>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
+      <c r="M69" s="18">
+        <v>140352000</v>
+      </c>
+      <c r="N69" s="18">
+        <v>140352000</v>
+      </c>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
@@ -3673,8 +3937,12 @@
       <c r="L70" s="4">
         <v>0</v>
       </c>
-      <c r="M70" s="17"/>
-      <c r="N70" s="17"/>
+      <c r="M70" s="16">
+        <v>149740000</v>
+      </c>
+      <c r="N70" s="16">
+        <v>149740000</v>
+      </c>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
@@ -3708,8 +3976,12 @@
       <c r="L71" s="4">
         <v>0</v>
       </c>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
+      <c r="M71" s="18">
+        <v>159130000</v>
+      </c>
+      <c r="N71" s="18">
+        <v>159130000</v>
+      </c>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
@@ -3743,9 +4015,13 @@
       <c r="L72" s="4">
         <v>0</v>
       </c>
-      <c r="M72" s="17"/>
-      <c r="N72" s="17"/>
-      <c r="O72" s="17"/>
+      <c r="M72" s="16">
+        <v>169170000</v>
+      </c>
+      <c r="N72" s="16">
+        <v>169170000</v>
+      </c>
+      <c r="O72" s="16"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
     </row>
@@ -3778,8 +4054,12 @@
       <c r="L73" s="4">
         <v>0</v>
       </c>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
+      <c r="M73" s="18">
+        <v>179216000</v>
+      </c>
+      <c r="N73" s="18">
+        <v>179216000</v>
+      </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
@@ -3813,8 +4093,12 @@
       <c r="L74" s="4">
         <v>0</v>
       </c>
-      <c r="M74" s="17"/>
-      <c r="N74" s="17"/>
+      <c r="M74" s="16">
+        <v>189928000</v>
+      </c>
+      <c r="N74" s="16">
+        <v>189928000</v>
+      </c>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
@@ -3848,8 +4132,12 @@
       <c r="L75" s="4">
         <v>0</v>
       </c>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
+      <c r="M75" s="18">
+        <v>200640000</v>
+      </c>
+      <c r="N75" s="18">
+        <v>200640000</v>
+      </c>
       <c r="O75" s="4"/>
       <c r="P75" s="4"/>
       <c r="Q75" s="4"/>
@@ -3883,8 +4171,12 @@
       <c r="L76" s="4">
         <v>0</v>
       </c>
-      <c r="M76" s="17"/>
-      <c r="N76" s="17"/>
+      <c r="M76" s="16">
+        <v>216156000</v>
+      </c>
+      <c r="N76" s="16">
+        <v>216156000</v>
+      </c>
       <c r="O76" s="4"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
@@ -3918,8 +4210,12 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="18"/>
-      <c r="N77" s="18"/>
+      <c r="M77" s="18">
+        <v>231672000</v>
+      </c>
+      <c r="N77" s="18">
+        <v>231672000</v>
+      </c>
       <c r="O77" s="4"/>
       <c r="P77" s="4"/>
       <c r="Q77" s="4"/>
@@ -3951,8 +4247,12 @@
         <v>7</v>
       </c>
       <c r="L78" s="19"/>
-      <c r="M78" s="17"/>
-      <c r="N78" s="17"/>
+      <c r="M78" s="16">
+        <v>248247000</v>
+      </c>
+      <c r="N78" s="16">
+        <v>248247000</v>
+      </c>
       <c r="O78" s="4"/>
       <c r="P78" s="4"/>
       <c r="Q78" s="4"/>
@@ -3986,8 +4286,12 @@
       <c r="L79" s="4">
         <v>10</v>
       </c>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
+      <c r="M79" s="18">
+        <v>264822000</v>
+      </c>
+      <c r="N79" s="18">
+        <v>264822000</v>
+      </c>
       <c r="O79" s="4"/>
       <c r="P79" s="4"/>
       <c r="Q79" s="4"/>
@@ -4021,8 +4325,12 @@
       <c r="L80" s="19">
         <v>12</v>
       </c>
-      <c r="M80" s="17"/>
-      <c r="N80" s="17"/>
+      <c r="M80" s="16">
+        <v>282483000</v>
+      </c>
+      <c r="N80" s="16">
+        <v>282483000</v>
+      </c>
       <c r="O80" s="4"/>
       <c r="P80" s="4"/>
       <c r="Q80" s="4"/>
@@ -4056,8 +4364,12 @@
       <c r="L81" s="4">
         <v>15</v>
       </c>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
+      <c r="M81" s="18">
+        <v>300144000</v>
+      </c>
+      <c r="N81" s="18">
+        <v>300144000</v>
+      </c>
       <c r="O81" s="4"/>
       <c r="P81" s="4"/>
       <c r="Q81" s="4"/>
@@ -4092,8 +4404,12 @@
       <c r="L82" s="19">
         <v>17</v>
       </c>
-      <c r="M82" s="17"/>
-      <c r="N82" s="17"/>
+      <c r="M82" s="16">
+        <v>318910000</v>
+      </c>
+      <c r="N82" s="16">
+        <v>318910000</v>
+      </c>
       <c r="O82" s="10"/>
       <c r="P82" s="10"/>
       <c r="Q82" s="10"/>
@@ -4127,8 +4443,12 @@
       <c r="L83" s="4">
         <v>20</v>
       </c>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
+      <c r="M83" s="18">
+        <v>337690000</v>
+      </c>
+      <c r="N83" s="18">
+        <v>337690000</v>
+      </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
@@ -4162,8 +4482,12 @@
       <c r="L84" s="19">
         <v>22</v>
       </c>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
+      <c r="M84" s="16">
+        <v>357600000</v>
+      </c>
+      <c r="N84" s="16">
+        <v>357600000</v>
+      </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
@@ -4197,8 +4521,12 @@
       <c r="L85" s="4">
         <v>25</v>
       </c>
-      <c r="M85" s="18"/>
-      <c r="N85" s="18"/>
+      <c r="M85" s="18">
+        <v>377520000</v>
+      </c>
+      <c r="N85" s="18">
+        <v>377520000</v>
+      </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="4"/>
@@ -4232,8 +4560,12 @@
       <c r="L86" s="19">
         <v>27</v>
       </c>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
+      <c r="M86" s="16">
+        <v>398600000</v>
+      </c>
+      <c r="N86" s="16">
+        <v>398600000</v>
+      </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
       <c r="Q86" s="4"/>
@@ -4267,8 +4599,12 @@
       <c r="L87" s="4">
         <v>30</v>
       </c>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
+      <c r="M87" s="18">
+        <v>419680000</v>
+      </c>
+      <c r="N87" s="18">
+        <v>419680000</v>
+      </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
@@ -4302,8 +4638,12 @@
       <c r="L88" s="19">
         <v>32</v>
       </c>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
+      <c r="M88" s="16">
+        <v>441956000</v>
+      </c>
+      <c r="N88" s="16">
+        <v>441956000</v>
+      </c>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
@@ -4337,8 +4677,12 @@
       <c r="L89" s="4">
         <v>35</v>
       </c>
-      <c r="M89" s="18"/>
-      <c r="N89" s="18"/>
+      <c r="M89" s="18">
+        <v>464232000</v>
+      </c>
+      <c r="N89" s="18">
+        <v>464232000</v>
+      </c>
       <c r="O89" s="4"/>
       <c r="P89" s="4"/>
       <c r="Q89" s="4"/>
@@ -4372,8 +4716,12 @@
       <c r="L90" s="19">
         <v>37</v>
       </c>
-      <c r="M90" s="17"/>
-      <c r="N90" s="17"/>
+      <c r="M90" s="16">
+        <v>487728000</v>
+      </c>
+      <c r="N90" s="16">
+        <v>487728000</v>
+      </c>
       <c r="O90" s="4"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="4"/>
@@ -4407,8 +4755,12 @@
       <c r="L91" s="4">
         <v>40</v>
       </c>
-      <c r="M91" s="18"/>
-      <c r="N91" s="18"/>
+      <c r="M91" s="18">
+        <v>511224000</v>
+      </c>
+      <c r="N91" s="18">
+        <v>511224000</v>
+      </c>
       <c r="O91" s="4"/>
       <c r="P91" s="4"/>
       <c r="Q91" s="4"/>
@@ -4442,8 +4794,12 @@
       <c r="L92" s="19">
         <v>42</v>
       </c>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
+      <c r="M92" s="16">
+        <v>535968000</v>
+      </c>
+      <c r="N92" s="16">
+        <v>535968000</v>
+      </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
@@ -4477,8 +4833,12 @@
       <c r="L93" s="4">
         <v>45</v>
       </c>
-      <c r="M93" s="18"/>
-      <c r="N93" s="18"/>
+      <c r="M93" s="18">
+        <v>560712000</v>
+      </c>
+      <c r="N93" s="18">
+        <v>560712000</v>
+      </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
@@ -4514,8 +4874,12 @@
       <c r="L94" s="19">
         <v>47</v>
       </c>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
+      <c r="M94" s="16">
+        <v>586731000</v>
+      </c>
+      <c r="N94" s="16">
+        <v>586731000</v>
+      </c>
       <c r="O94" s="4"/>
       <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
@@ -4549,8 +4913,12 @@
       <c r="L95" s="4">
         <v>50</v>
       </c>
-      <c r="M95" s="18"/>
-      <c r="N95" s="18"/>
+      <c r="M95" s="18">
+        <v>612750000</v>
+      </c>
+      <c r="N95" s="18">
+        <v>612750000</v>
+      </c>
       <c r="O95" s="4"/>
       <c r="P95" s="4"/>
       <c r="Q95" s="4"/>
@@ -4584,8 +4952,12 @@
       <c r="L96" s="19">
         <v>52</v>
       </c>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
+      <c r="M96" s="16">
+        <v>641183600</v>
+      </c>
+      <c r="N96" s="16">
+        <v>641183600</v>
+      </c>
       <c r="O96" s="4"/>
       <c r="P96" s="4"/>
       <c r="Q96" s="4"/>
@@ -4619,8 +4991,12 @@
       <c r="L97" s="3">
         <v>55</v>
       </c>
-      <c r="M97" s="18"/>
-      <c r="N97" s="18"/>
+      <c r="M97" s="18">
+        <v>669617200</v>
+      </c>
+      <c r="N97" s="18">
+        <v>669617200</v>
+      </c>
       <c r="O97" s="4"/>
       <c r="P97" s="4"/>
       <c r="Q97" s="4"/>
@@ -4654,8 +5030,12 @@
       <c r="L98" s="19">
         <v>57</v>
       </c>
-      <c r="M98" s="17"/>
-      <c r="N98" s="17"/>
+      <c r="M98" s="16">
+        <v>700689800</v>
+      </c>
+      <c r="N98" s="16">
+        <v>700689800</v>
+      </c>
       <c r="O98" s="4"/>
       <c r="P98" s="4"/>
       <c r="Q98" s="4"/>
@@ -4689,8 +5069,12 @@
       <c r="L99" s="3">
         <v>60</v>
       </c>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
+      <c r="M99" s="18">
+        <v>731762400</v>
+      </c>
+      <c r="N99" s="18">
+        <v>731762400</v>
+      </c>
       <c r="O99" s="4"/>
       <c r="P99" s="4"/>
       <c r="Q99" s="4"/>
@@ -4724,8 +5108,12 @@
       <c r="L100" s="19">
         <v>62</v>
       </c>
-      <c r="M100" s="17"/>
-      <c r="N100" s="17"/>
+      <c r="M100" s="16">
+        <v>765718800</v>
+      </c>
+      <c r="N100" s="16">
+        <v>765718800</v>
+      </c>
       <c r="O100" s="4"/>
       <c r="P100" s="4"/>
       <c r="Q100" s="4"/>
@@ -4759,8 +5147,12 @@
       <c r="L101" s="3">
         <v>65</v>
       </c>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
+      <c r="M101" s="18">
+        <v>799675200</v>
+      </c>
+      <c r="N101" s="18">
+        <v>799675200</v>
+      </c>
       <c r="O101" s="4"/>
       <c r="P101" s="4"/>
       <c r="Q101" s="4"/>
@@ -4794,8 +5186,12 @@
       <c r="L102" s="19">
         <v>67</v>
       </c>
-      <c r="M102" s="17"/>
-      <c r="N102" s="17"/>
+      <c r="M102" s="16">
+        <v>836783000</v>
+      </c>
+      <c r="N102" s="16">
+        <v>836783000</v>
+      </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
@@ -4829,8 +5225,12 @@
       <c r="L103" s="3">
         <v>70</v>
       </c>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
+      <c r="M103" s="18">
+        <v>873890800</v>
+      </c>
+      <c r="N103" s="18">
+        <v>873890800</v>
+      </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
@@ -4864,8 +5264,12 @@
       <c r="L104" s="19">
         <v>72</v>
       </c>
-      <c r="M104" s="17"/>
-      <c r="N104" s="17"/>
+      <c r="M104" s="16">
+        <v>914442400</v>
+      </c>
+      <c r="N104" s="16">
+        <v>914442400</v>
+      </c>
       <c r="O104" s="4"/>
       <c r="P104" s="4"/>
       <c r="Q104" s="4"/>
@@ -4899,8 +5303,12 @@
       <c r="L105" s="2">
         <v>75</v>
       </c>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
+      <c r="M105" s="18">
+        <v>954994000</v>
+      </c>
+      <c r="N105" s="18">
+        <v>954994000</v>
+      </c>
       <c r="O105" s="10"/>
       <c r="P105" s="4"/>
       <c r="Q105" s="4"/>
@@ -4913,7 +5321,7 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="1">
-    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 M5 N5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
+    <dataValidation type="custom" allowBlank="1" showErrorMessage="1" errorTitle="拒绝重复输入" error="当前输入的内容，与本区域的其他单元格内容重复。" sqref="F5 G5 H5 I5 J5 K5 L5 C3:C5 D3:D5 E3:E5 I3:I4 J3:J4 K3:K4 L3:L4 F3:H4" errorStyle="warning">
       <formula1>COUNTIF($A:$A,C3)&lt;2</formula1>
     </dataValidation>
   </dataValidations>

--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -168,6 +168,9 @@
     <t>兽人</t>
   </si>
   <si>
+    <t>1001</t>
+  </si>
+  <si>
     <t>骷髅</t>
   </si>
   <si>
@@ -236,7 +239,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +274,12 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -758,16 +767,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,119 +782,122 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -922,6 +931,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -929,6 +939,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1251,9 +1262,9 @@
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="O89" sqref="O89"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9:P105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1485,8 +1496,12 @@
       <c r="N6" s="16">
         <v>960000</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="O6" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="4">
+        <v>7</v>
+      </c>
       <c r="Q6" s="4"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1518,14 +1533,18 @@
       <c r="L7" s="4">
         <v>0</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="18">
         <v>1120000</v>
       </c>
-      <c r="N7" s="17">
+      <c r="N7" s="18">
         <v>1120000</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
+      <c r="O7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P7" s="4">
+        <v>7</v>
+      </c>
       <c r="Q7" s="10"/>
     </row>
     <row r="8" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1563,8 +1582,12 @@
       <c r="N8" s="16">
         <v>1280000</v>
       </c>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
+      <c r="O8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P8" s="4">
+        <v>7</v>
+      </c>
       <c r="Q8" s="4"/>
     </row>
     <row r="9" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1596,14 +1619,18 @@
       <c r="L9" s="4">
         <v>0</v>
       </c>
-      <c r="M9" s="18">
+      <c r="M9" s="19">
         <v>1440000</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="19">
         <v>1440000</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
+      <c r="O9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="4">
+        <v>10</v>
+      </c>
       <c r="Q9" s="4"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1641,8 +1668,12 @@
       <c r="N10" s="16">
         <v>1620000</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
+      <c r="O10" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="4">
+        <v>10</v>
+      </c>
       <c r="Q10" s="4"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1651,7 +1682,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="13">
         <v>382500</v>
@@ -1674,14 +1705,18 @@
       <c r="L11" s="4">
         <v>0</v>
       </c>
-      <c r="M11" s="18">
+      <c r="M11" s="19">
         <v>1800000</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="19">
         <v>1800000</v>
       </c>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="O11" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="4">
+        <v>10</v>
+      </c>
       <c r="Q11" s="4"/>
     </row>
     <row r="12" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1690,7 +1725,7 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="11">
         <v>460000</v>
@@ -1719,8 +1754,12 @@
       <c r="N12" s="16">
         <v>2000000</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="O12" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P12" s="4">
+        <v>10</v>
+      </c>
       <c r="Q12" s="4"/>
     </row>
     <row r="13" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1729,7 +1768,7 @@
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="13">
         <v>537500</v>
@@ -1752,14 +1791,18 @@
       <c r="L13" s="4">
         <v>0</v>
       </c>
-      <c r="M13" s="18">
+      <c r="M13" s="19">
         <v>2200000</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="19">
         <v>2200000</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="O13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="4">
+        <v>10</v>
+      </c>
       <c r="Q13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1768,7 +1811,7 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="11">
         <v>647500</v>
@@ -1797,8 +1840,12 @@
       <c r="N14" s="16">
         <v>2420000</v>
       </c>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="O14" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="4">
+        <v>10</v>
+      </c>
       <c r="Q14" s="4"/>
     </row>
     <row r="15" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1807,7 +1854,7 @@
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="13">
         <v>757500</v>
@@ -1830,14 +1877,18 @@
       <c r="L15" s="4">
         <v>0</v>
       </c>
-      <c r="M15" s="18">
+      <c r="M15" s="19">
         <v>2640000</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="19">
         <v>2640000</v>
       </c>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="O15" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="4">
+        <v>10</v>
+      </c>
       <c r="Q15" s="4"/>
     </row>
     <row r="16" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1846,7 +1897,7 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F16" s="11">
         <v>911250</v>
@@ -1875,8 +1926,12 @@
       <c r="N16" s="16">
         <v>2880000</v>
       </c>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="O16" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="4">
+        <v>10</v>
+      </c>
       <c r="Q16" s="4"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1885,7 +1940,7 @@
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F17" s="13">
         <v>1065000</v>
@@ -1908,14 +1963,18 @@
       <c r="L17" s="4">
         <v>0</v>
       </c>
-      <c r="M17" s="18">
+      <c r="M17" s="19">
         <v>3120000</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="19">
         <v>3120000</v>
       </c>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="O17" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="4">
+        <v>10</v>
+      </c>
       <c r="Q17" s="4"/>
     </row>
     <row r="18" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1924,7 +1983,7 @@
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F18" s="11">
         <v>1281250</v>
@@ -1935,7 +1994,7 @@
       <c r="H18" s="11">
         <v>128125000</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="20">
         <v>1</v>
       </c>
       <c r="J18" s="4">
@@ -1953,8 +2012,12 @@
       <c r="N18" s="16">
         <v>3380000</v>
       </c>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="O18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="4">
+        <v>10</v>
+      </c>
       <c r="Q18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -1963,7 +2026,7 @@
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F19" s="13">
         <v>1497500</v>
@@ -1986,14 +2049,18 @@
       <c r="L19" s="4">
         <v>0</v>
       </c>
-      <c r="M19" s="18">
+      <c r="M19" s="19">
         <v>3640000</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="19">
         <v>3640000</v>
       </c>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="O19" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="4">
+        <v>10</v>
+      </c>
       <c r="Q19" s="4"/>
     </row>
     <row r="20" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2002,7 +2069,7 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F20" s="11">
         <v>1802500</v>
@@ -2013,7 +2080,7 @@
       <c r="H20" s="11">
         <v>180250000</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="20">
         <v>2</v>
       </c>
       <c r="J20" s="4">
@@ -2031,8 +2098,12 @@
       <c r="N20" s="16">
         <v>3920000</v>
       </c>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
+      <c r="O20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P20" s="4">
+        <v>10</v>
+      </c>
       <c r="Q20" s="4"/>
     </row>
     <row r="21" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2041,7 +2112,7 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F21" s="13">
         <v>2107500</v>
@@ -2064,14 +2135,18 @@
       <c r="L21" s="4">
         <v>0</v>
       </c>
-      <c r="M21" s="18">
+      <c r="M21" s="19">
         <v>4200000</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="19">
         <v>4200000</v>
       </c>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
+      <c r="O21" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="4">
+        <v>10</v>
+      </c>
       <c r="Q21" s="4"/>
     </row>
     <row r="22" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2080,7 +2155,7 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F22" s="11">
         <v>2528750</v>
@@ -2091,7 +2166,7 @@
       <c r="H22" s="11">
         <v>252875000</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="20">
         <v>3</v>
       </c>
       <c r="J22" s="4">
@@ -2109,8 +2184,12 @@
       <c r="N22" s="16">
         <v>4500000</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
+      <c r="O22" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P22" s="4">
+        <v>10</v>
+      </c>
       <c r="Q22" s="4"/>
     </row>
     <row r="23" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2119,7 +2198,7 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F23" s="13">
         <v>2950000</v>
@@ -2142,14 +2221,18 @@
       <c r="L23" s="4">
         <v>0</v>
       </c>
-      <c r="M23" s="18">
+      <c r="M23" s="19">
         <v>4800000</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="19">
         <v>4800000</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="O23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P23" s="4">
+        <v>10</v>
+      </c>
       <c r="Q23" s="4"/>
     </row>
     <row r="24" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2158,7 +2241,7 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F24" s="11">
         <v>3550000</v>
@@ -2169,7 +2252,7 @@
       <c r="H24" s="11">
         <v>355000000</v>
       </c>
-      <c r="I24" s="19">
+      <c r="I24" s="20">
         <v>4</v>
       </c>
       <c r="J24" s="4">
@@ -2187,8 +2270,12 @@
       <c r="N24" s="16">
         <v>5120000</v>
       </c>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P24" s="4">
+        <v>10</v>
+      </c>
       <c r="Q24" s="4"/>
     </row>
     <row r="25" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2197,7 +2284,7 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F25" s="13">
         <v>4150000</v>
@@ -2220,14 +2307,18 @@
       <c r="L25" s="4">
         <v>0</v>
       </c>
-      <c r="M25" s="18">
+      <c r="M25" s="19">
         <v>5440000</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="19">
         <v>5440000</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="O25" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P25" s="4">
+        <v>10</v>
+      </c>
       <c r="Q25" s="4"/>
     </row>
     <row r="26" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2236,7 +2327,7 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="11">
         <v>5000000</v>
@@ -2247,7 +2338,7 @@
       <c r="H26" s="11">
         <v>500000000</v>
       </c>
-      <c r="I26" s="19">
+      <c r="I26" s="20">
         <v>5</v>
       </c>
       <c r="J26" s="4">
@@ -2265,8 +2356,12 @@
       <c r="N26" s="16">
         <v>6239000</v>
       </c>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="O26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="4">
+        <v>10</v>
+      </c>
       <c r="Q26" s="4"/>
     </row>
     <row r="27" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2275,7 +2370,7 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="13">
         <v>5850000</v>
@@ -2298,14 +2393,18 @@
       <c r="L27" s="4">
         <v>0</v>
       </c>
-      <c r="M27" s="18">
+      <c r="M27" s="19">
         <v>7038000</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="19">
         <v>7038000</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="O27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="4">
+        <v>10</v>
+      </c>
       <c r="Q27" s="4"/>
     </row>
     <row r="28" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2314,7 +2413,7 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="11">
         <v>7050000</v>
@@ -2325,7 +2424,7 @@
       <c r="H28" s="11">
         <v>705000000</v>
       </c>
-      <c r="I28" s="19">
+      <c r="I28" s="20">
         <v>6</v>
       </c>
       <c r="J28" s="4">
@@ -2343,8 +2442,12 @@
       <c r="N28" s="16">
         <v>7965000</v>
       </c>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="O28" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="4">
+        <v>10</v>
+      </c>
       <c r="Q28" s="4"/>
     </row>
     <row r="29" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2353,7 +2456,7 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="13">
         <v>8250000</v>
@@ -2376,14 +2479,18 @@
       <c r="L29" s="4">
         <v>0</v>
       </c>
-      <c r="M29" s="18">
+      <c r="M29" s="19">
         <v>8892000</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="19">
         <v>8892000</v>
       </c>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="O29" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" s="4">
+        <v>10</v>
+      </c>
       <c r="Q29" s="4"/>
     </row>
     <row r="30" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -2392,7 +2499,7 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="11">
         <v>9925000</v>
@@ -2403,7 +2510,7 @@
       <c r="H30" s="11">
         <v>992500000</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="20">
         <v>7</v>
       </c>
       <c r="J30" s="4">
@@ -2421,18 +2528,22 @@
       <c r="N30" s="16">
         <v>9956000</v>
       </c>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="O30" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P30" s="4">
+        <v>10</v>
+      </c>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+    <row r="31" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4">
         <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F31" s="13">
         <v>11600000</v>
@@ -2455,21 +2566,27 @@
       <c r="L31" s="4">
         <v>0</v>
       </c>
-      <c r="M31" s="18">
+      <c r="M31" s="19">
         <v>11020000</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="19">
         <v>11020000</v>
       </c>
-    </row>
-    <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O31" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P31" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4">
         <v>27</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F32" s="11">
         <v>13950000</v>
@@ -2480,7 +2597,7 @@
       <c r="H32" s="11">
         <v>1395000000</v>
       </c>
-      <c r="I32" s="19">
+      <c r="I32" s="20">
         <v>8</v>
       </c>
       <c r="J32" s="4">
@@ -2498,15 +2615,21 @@
       <c r="N32" s="16">
         <v>12230000</v>
       </c>
-    </row>
-    <row r="33" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O32" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P32" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="4">
         <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F33" s="13">
         <v>16300000</v>
@@ -2529,21 +2652,27 @@
       <c r="L33" s="4">
         <v>0</v>
       </c>
-      <c r="M33" s="18">
+      <c r="M33" s="19">
         <v>13440000</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="19">
         <v>13440000</v>
       </c>
-    </row>
-    <row r="34" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O33" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P33" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="4">
         <v>29</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F34" s="11">
         <v>19625000</v>
@@ -2554,7 +2683,7 @@
       <c r="H34" s="11">
         <v>1962500000</v>
       </c>
-      <c r="I34" s="19">
+      <c r="I34" s="20">
         <v>9</v>
       </c>
       <c r="J34" s="4">
@@ -2572,15 +2701,21 @@
       <c r="N34" s="16">
         <v>14805000</v>
       </c>
-    </row>
-    <row r="35" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O34" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P34" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4">
         <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F35" s="13">
         <v>22950000</v>
@@ -2603,21 +2738,27 @@
       <c r="L35" s="4">
         <v>0</v>
       </c>
-      <c r="M35" s="18">
+      <c r="M35" s="19">
         <v>16170000</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="19">
         <v>16170000</v>
       </c>
-    </row>
-    <row r="36" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O35" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P35" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="4">
         <v>31</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F36" s="11">
         <v>27612500</v>
@@ -2628,7 +2769,7 @@
       <c r="H36" s="11">
         <v>2761250000</v>
       </c>
-      <c r="I36" s="19">
+      <c r="I36" s="20">
         <v>10</v>
       </c>
       <c r="J36" s="4">
@@ -2646,15 +2787,21 @@
       <c r="N36" s="16">
         <v>17699000</v>
       </c>
-    </row>
-    <row r="37" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O36" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P36" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="4">
         <v>32</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F37" s="13">
         <v>32275000</v>
@@ -2677,21 +2824,27 @@
       <c r="L37" s="4">
         <v>0</v>
       </c>
-      <c r="M37" s="18">
+      <c r="M37" s="19">
         <v>19228000</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="19">
         <v>19228000</v>
       </c>
-    </row>
-    <row r="38" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O37" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P37" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="4">
         <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F38" s="11">
         <v>38837500</v>
@@ -2702,7 +2855,7 @@
       <c r="H38" s="11">
         <v>3883750000</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="20">
         <v>11</v>
       </c>
       <c r="J38" s="4">
@@ -2720,15 +2873,21 @@
       <c r="N38" s="16">
         <v>20930000</v>
       </c>
-    </row>
-    <row r="39" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O38" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="4">
         <v>34</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F39" s="13">
         <v>45400000</v>
@@ -2751,21 +2910,27 @@
       <c r="L39" s="4">
         <v>0</v>
       </c>
-      <c r="M39" s="18">
+      <c r="M39" s="19">
         <v>22632000</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="19">
         <v>22632000</v>
       </c>
-    </row>
-    <row r="40" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O39" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="4">
         <v>35</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F40" s="11">
         <v>54637500</v>
@@ -2776,7 +2941,7 @@
       <c r="H40" s="11">
         <v>5463750000</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="20">
         <v>12</v>
       </c>
       <c r="J40" s="4">
@@ -2794,15 +2959,21 @@
       <c r="N40" s="16">
         <v>24516000</v>
       </c>
-    </row>
-    <row r="41" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O40" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P40" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="4">
         <v>36</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F41" s="13">
         <v>63875000</v>
@@ -2825,21 +2996,27 @@
       <c r="L41" s="4">
         <v>0</v>
       </c>
-      <c r="M41" s="18">
+      <c r="M41" s="19">
         <v>26400000</v>
       </c>
-      <c r="N41" s="18">
+      <c r="N41" s="19">
         <v>26400000</v>
       </c>
-    </row>
-    <row r="42" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O41" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P41" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="4">
         <v>37</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="11">
         <v>76850000</v>
@@ -2850,7 +3027,7 @@
       <c r="H42" s="11">
         <v>7685000000</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="20">
         <v>13</v>
       </c>
       <c r="J42" s="4">
@@ -2868,15 +3045,21 @@
       <c r="N42" s="16">
         <v>28475000</v>
       </c>
-    </row>
-    <row r="43" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O42" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P42" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="4">
         <v>38</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F43" s="13">
         <v>89825000</v>
@@ -2899,21 +3082,27 @@
       <c r="L43" s="4">
         <v>0</v>
       </c>
-      <c r="M43" s="18">
+      <c r="M43" s="19">
         <v>30550000</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="19">
         <v>30550000</v>
       </c>
-    </row>
-    <row r="44" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O43" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P43" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="4">
         <v>39</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F44" s="11">
         <v>108087500</v>
@@ -2924,7 +3113,7 @@
       <c r="H44" s="11">
         <v>10808750000</v>
       </c>
-      <c r="I44" s="19">
+      <c r="I44" s="20">
         <v>14</v>
       </c>
       <c r="J44" s="4">
@@ -2942,15 +3131,21 @@
       <c r="N44" s="16">
         <v>32825000</v>
       </c>
-    </row>
-    <row r="45" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O44" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P44" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="4">
         <v>40</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F45" s="13">
         <v>126350000</v>
@@ -2973,21 +3168,27 @@
       <c r="L45" s="4">
         <v>0</v>
       </c>
-      <c r="M45" s="18">
+      <c r="M45" s="19">
         <v>35100000</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="19">
         <v>35100000</v>
       </c>
-    </row>
-    <row r="46" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O45" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P45" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="4">
         <v>41</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" s="11">
         <v>152037500</v>
@@ -2998,7 +3199,7 @@
       <c r="H46" s="11">
         <v>15203750000</v>
       </c>
-      <c r="I46" s="19">
+      <c r="I46" s="20">
         <v>15</v>
       </c>
       <c r="J46" s="4">
@@ -3016,15 +3217,21 @@
       <c r="N46" s="16">
         <v>37584000</v>
       </c>
-    </row>
-    <row r="47" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O46" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P46" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4">
         <v>42</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" s="13">
         <v>177725000</v>
@@ -3047,21 +3254,27 @@
       <c r="L47" s="4">
         <v>0</v>
       </c>
-      <c r="M47" s="18">
+      <c r="M47" s="19">
         <v>40068000</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="19">
         <v>40068000</v>
       </c>
-    </row>
-    <row r="48" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O47" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P47" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="4">
         <v>43</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" s="11">
         <v>213862500</v>
@@ -3072,7 +3285,7 @@
       <c r="H48" s="11">
         <v>21386250000</v>
       </c>
-      <c r="I48" s="19">
+      <c r="I48" s="20">
         <v>16</v>
       </c>
       <c r="J48" s="4">
@@ -3090,15 +3303,21 @@
       <c r="N48" s="16">
         <v>42770000</v>
       </c>
-    </row>
-    <row r="49" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O48" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="4">
         <v>44</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F49" s="13">
         <v>250000000</v>
@@ -3121,21 +3340,27 @@
       <c r="L49" s="4">
         <v>0</v>
       </c>
-      <c r="M49" s="18">
+      <c r="M49" s="19">
         <v>45472000</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="19">
         <v>45472000</v>
       </c>
-    </row>
-    <row r="50" s="4" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="O49" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P49" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" s="4" customFormat="1" ht="18" customHeight="1" spans="1:16">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="4">
         <v>45</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F50" s="11">
         <v>300812500</v>
@@ -3146,7 +3371,7 @@
       <c r="H50" s="11">
         <v>30081250000</v>
       </c>
-      <c r="I50" s="19">
+      <c r="I50" s="20">
         <v>17</v>
       </c>
       <c r="J50" s="4">
@@ -3163,6 +3388,12 @@
       </c>
       <c r="N50" s="16">
         <v>48401000</v>
+      </c>
+      <c r="O50" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P50" s="4">
+        <v>10</v>
       </c>
     </row>
     <row r="51" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3171,7 +3402,7 @@
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F51" s="13">
         <v>351625000</v>
@@ -3194,14 +3425,18 @@
       <c r="L51" s="4">
         <v>0</v>
       </c>
-      <c r="M51" s="18">
+      <c r="M51" s="19">
         <v>51330000</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="19">
         <v>51330000</v>
       </c>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
+      <c r="O51" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P51" s="4">
+        <v>10</v>
+      </c>
       <c r="Q51" s="4"/>
     </row>
     <row r="52" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3210,7 +3445,7 @@
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F52" s="11">
         <v>423100000</v>
@@ -3221,7 +3456,7 @@
       <c r="H52" s="11">
         <v>42310000000</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="20">
         <v>18</v>
       </c>
       <c r="J52" s="4">
@@ -3239,8 +3474,12 @@
       <c r="N52" s="16">
         <v>54495000</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
+      <c r="O52" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P52" s="4">
+        <v>10</v>
+      </c>
       <c r="Q52" s="4"/>
     </row>
     <row r="53" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3249,7 +3488,7 @@
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F53" s="13">
         <v>494575000</v>
@@ -3272,14 +3511,18 @@
       <c r="L53" s="4">
         <v>0</v>
       </c>
-      <c r="M53" s="18">
+      <c r="M53" s="19">
         <v>57660000</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="19">
         <v>57660000</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
+      <c r="O53" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P53" s="4">
+        <v>10</v>
+      </c>
       <c r="Q53" s="4"/>
     </row>
     <row r="54" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3288,7 +3531,7 @@
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F54" s="11">
         <v>595100000</v>
@@ -3299,7 +3542,7 @@
       <c r="H54" s="11">
         <v>59510000000</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="20">
         <v>19</v>
       </c>
       <c r="J54" s="4">
@@ -3317,8 +3560,12 @@
       <c r="N54" s="16">
         <v>61070000</v>
       </c>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
+      <c r="O54" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P54" s="4">
+        <v>10</v>
+      </c>
       <c r="Q54" s="4"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
@@ -3329,7 +3576,7 @@
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" s="13">
         <v>695625000</v>
@@ -3352,14 +3599,18 @@
       <c r="L55" s="4">
         <v>0</v>
       </c>
-      <c r="M55" s="18">
+      <c r="M55" s="19">
         <v>64480000</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55" s="19">
         <v>64480000</v>
       </c>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
+      <c r="O55" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P55" s="4">
+        <v>10</v>
+      </c>
       <c r="Q55" s="4"/>
     </row>
     <row r="56" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3368,7 +3619,7 @@
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F56" s="11">
         <v>837025000</v>
@@ -3379,7 +3630,7 @@
       <c r="H56" s="11">
         <v>83702500000</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="20">
         <v>20</v>
       </c>
       <c r="J56" s="4">
@@ -3397,8 +3648,12 @@
       <c r="N56" s="16">
         <v>68144000</v>
       </c>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
+      <c r="O56" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P56" s="4">
+        <v>10</v>
+      </c>
       <c r="Q56" s="4"/>
     </row>
     <row r="57" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3407,7 +3662,7 @@
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F57" s="13">
         <v>978425000</v>
@@ -3430,14 +3685,18 @@
       <c r="L57" s="4">
         <v>0</v>
       </c>
-      <c r="M57" s="18">
+      <c r="M57" s="19">
         <v>71808000</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="19">
         <v>71808000</v>
       </c>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
+      <c r="O57" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P57" s="4">
+        <v>10</v>
+      </c>
       <c r="Q57" s="4"/>
     </row>
     <row r="58" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3446,7 +3705,7 @@
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F58" s="11">
         <v>1177300000</v>
@@ -3457,7 +3716,7 @@
       <c r="H58" s="11">
         <v>117730000000</v>
       </c>
-      <c r="I58" s="19">
+      <c r="I58" s="20">
         <v>27</v>
       </c>
       <c r="J58" s="4">
@@ -3475,8 +3734,12 @@
       <c r="N58" s="16">
         <v>75735000</v>
       </c>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
+      <c r="O58" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P58" s="4">
+        <v>10</v>
+      </c>
       <c r="Q58" s="4"/>
     </row>
     <row r="59" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3485,7 +3748,7 @@
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F59" s="13">
         <v>1376175000</v>
@@ -3508,14 +3771,18 @@
       <c r="L59" s="4">
         <v>0</v>
       </c>
-      <c r="M59" s="18">
+      <c r="M59" s="19">
         <v>79662000</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="19">
         <v>79662000</v>
       </c>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
+      <c r="O59" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P59" s="4">
+        <v>10</v>
+      </c>
       <c r="Q59" s="4"/>
     </row>
     <row r="60" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3524,7 +3791,7 @@
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F60" s="11">
         <v>1655912500</v>
@@ -3535,7 +3802,7 @@
       <c r="H60" s="11">
         <v>165591250000</v>
       </c>
-      <c r="I60" s="19">
+      <c r="I60" s="20">
         <v>30</v>
       </c>
       <c r="J60" s="4">
@@ -3553,8 +3820,12 @@
       <c r="N60" s="16">
         <v>83861000</v>
       </c>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
+      <c r="O60" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P60" s="4">
+        <v>10</v>
+      </c>
       <c r="Q60" s="4"/>
     </row>
     <row r="61" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3563,7 +3834,7 @@
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" s="13">
         <v>1935650000</v>
@@ -3586,14 +3857,18 @@
       <c r="L61" s="4">
         <v>0</v>
       </c>
-      <c r="M61" s="18">
+      <c r="M61" s="19">
         <v>88060000</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="19">
         <v>88060000</v>
       </c>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
+      <c r="O61" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P61" s="4">
+        <v>10</v>
+      </c>
       <c r="Q61" s="4"/>
     </row>
     <row r="62" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3602,7 +3877,7 @@
       </c>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" s="11">
         <v>2329100000</v>
@@ -3613,7 +3888,7 @@
       <c r="H62" s="11">
         <v>232910000000</v>
       </c>
-      <c r="I62" s="19">
+      <c r="I62" s="20">
         <v>34</v>
       </c>
       <c r="J62" s="4">
@@ -3631,8 +3906,12 @@
       <c r="N62" s="16">
         <v>92540000</v>
       </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
+      <c r="O62" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P62" s="4">
+        <v>10</v>
+      </c>
       <c r="Q62" s="4"/>
     </row>
     <row r="63" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3641,7 +3920,7 @@
       </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="13">
         <v>2722550000</v>
@@ -3664,14 +3943,18 @@
       <c r="L63" s="4">
         <v>0</v>
       </c>
-      <c r="M63" s="18">
+      <c r="M63" s="19">
         <v>97020000</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="19">
         <v>97020000</v>
       </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
+      <c r="O63" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P63" s="4">
+        <v>10</v>
+      </c>
       <c r="Q63" s="4"/>
     </row>
     <row r="64" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3680,7 +3963,7 @@
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F64" s="11">
         <v>3275950000</v>
@@ -3691,7 +3974,7 @@
       <c r="H64" s="11">
         <v>327595000000</v>
       </c>
-      <c r="I64" s="19">
+      <c r="I64" s="20">
         <v>38</v>
       </c>
       <c r="J64" s="4">
@@ -3709,8 +3992,12 @@
       <c r="N64" s="16">
         <v>101790000</v>
       </c>
-      <c r="O64" s="4"/>
-      <c r="P64" s="4"/>
+      <c r="O64" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P64" s="4">
+        <v>10</v>
+      </c>
       <c r="Q64" s="4"/>
     </row>
     <row r="65" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3719,7 +4006,7 @@
       </c>
       <c r="D65" s="4"/>
       <c r="E65" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F65" s="13">
         <v>3829350000</v>
@@ -3742,14 +4029,18 @@
       <c r="L65" s="4">
         <v>0</v>
       </c>
-      <c r="M65" s="18">
+      <c r="M65" s="19">
         <v>106560000</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N65" s="19">
         <v>106560000</v>
       </c>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
+      <c r="O65" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P65" s="4">
+        <v>10</v>
+      </c>
       <c r="Q65" s="4"/>
     </row>
     <row r="66" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3758,7 +4049,7 @@
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F66" s="11">
         <v>4607712500</v>
@@ -3769,7 +4060,7 @@
       <c r="H66" s="11">
         <v>460771250000</v>
       </c>
-      <c r="I66" s="19">
+      <c r="I66" s="20">
         <v>42</v>
       </c>
       <c r="J66" s="4">
@@ -3787,8 +4078,12 @@
       <c r="N66" s="16">
         <v>114700000</v>
       </c>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
+      <c r="O66" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P66" s="4">
+        <v>10</v>
+      </c>
       <c r="Q66" s="4"/>
     </row>
     <row r="67" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3797,7 +4092,7 @@
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F67" s="13">
         <v>5386075000</v>
@@ -3820,14 +4115,18 @@
       <c r="L67" s="4">
         <v>0</v>
       </c>
-      <c r="M67" s="18">
+      <c r="M67" s="19">
         <v>122840000</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N67" s="19">
         <v>122840000</v>
       </c>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
+      <c r="O67" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P67" s="4">
+        <v>10</v>
+      </c>
       <c r="Q67" s="4"/>
     </row>
     <row r="68" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3836,7 +4135,7 @@
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" s="11">
         <v>6480875000</v>
@@ -3847,7 +4146,7 @@
       <c r="H68" s="11">
         <v>648087500000</v>
       </c>
-      <c r="I68" s="19">
+      <c r="I68" s="20">
         <v>46</v>
       </c>
       <c r="J68" s="4">
@@ -3865,8 +4164,12 @@
       <c r="N68" s="16">
         <v>131596000</v>
       </c>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
+      <c r="O68" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P68" s="4">
+        <v>10</v>
+      </c>
       <c r="Q68" s="4"/>
     </row>
     <row r="69" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3875,7 +4178,7 @@
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F69" s="13">
         <v>7575675000</v>
@@ -3898,14 +4201,18 @@
       <c r="L69" s="4">
         <v>0</v>
       </c>
-      <c r="M69" s="18">
+      <c r="M69" s="19">
         <v>140352000</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="19">
         <v>140352000</v>
       </c>
-      <c r="O69" s="4"/>
-      <c r="P69" s="4"/>
+      <c r="O69" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69" s="4">
+        <v>10</v>
+      </c>
       <c r="Q69" s="4"/>
     </row>
     <row r="70" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3914,7 +4221,7 @@
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F70" s="11">
         <v>9115525000</v>
@@ -3925,7 +4232,7 @@
       <c r="H70" s="11">
         <v>911552500000</v>
       </c>
-      <c r="I70" s="19">
+      <c r="I70" s="20">
         <v>50</v>
       </c>
       <c r="J70" s="4">
@@ -3943,8 +4250,12 @@
       <c r="N70" s="16">
         <v>149740000</v>
       </c>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
+      <c r="O70" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P70" s="4">
+        <v>10</v>
+      </c>
       <c r="Q70" s="4"/>
     </row>
     <row r="71" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3953,7 +4264,7 @@
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" s="13">
         <v>10655375000</v>
@@ -3976,14 +4287,18 @@
       <c r="L71" s="4">
         <v>0</v>
       </c>
-      <c r="M71" s="18">
+      <c r="M71" s="19">
         <v>159130000</v>
       </c>
-      <c r="N71" s="18">
+      <c r="N71" s="19">
         <v>159130000</v>
       </c>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
+      <c r="O71" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P71" s="4">
+        <v>10</v>
+      </c>
       <c r="Q71" s="4"/>
     </row>
     <row r="72" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -3992,7 +4307,7 @@
       </c>
       <c r="D72" s="4"/>
       <c r="E72" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" s="11">
         <v>12821237500</v>
@@ -4003,7 +4318,7 @@
       <c r="H72" s="11">
         <v>1282123750000</v>
       </c>
-      <c r="I72" s="19">
+      <c r="I72" s="20">
         <v>54</v>
       </c>
       <c r="J72" s="4">
@@ -4021,8 +4336,12 @@
       <c r="N72" s="16">
         <v>169170000</v>
       </c>
-      <c r="O72" s="16"/>
-      <c r="P72" s="4"/>
+      <c r="O72" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P72" s="4">
+        <v>10</v>
+      </c>
       <c r="Q72" s="4"/>
     </row>
     <row r="73" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4031,7 +4350,7 @@
       </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" s="13">
         <v>14987100000</v>
@@ -4054,14 +4373,18 @@
       <c r="L73" s="4">
         <v>0</v>
       </c>
-      <c r="M73" s="18">
+      <c r="M73" s="19">
         <v>179216000</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N73" s="19">
         <v>179216000</v>
       </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
+      <c r="O73" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P73" s="4">
+        <v>10</v>
+      </c>
       <c r="Q73" s="4"/>
     </row>
     <row r="74" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4070,7 +4393,7 @@
       </c>
       <c r="D74" s="4"/>
       <c r="E74" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" s="11">
         <v>18033425000</v>
@@ -4081,7 +4404,7 @@
       <c r="H74" s="11">
         <v>1803342500000</v>
       </c>
-      <c r="I74" s="19">
+      <c r="I74" s="20">
         <v>58</v>
       </c>
       <c r="J74" s="4">
@@ -4099,8 +4422,12 @@
       <c r="N74" s="16">
         <v>189928000</v>
       </c>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
+      <c r="O74" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P74" s="4">
+        <v>10</v>
+      </c>
       <c r="Q74" s="4"/>
     </row>
     <row r="75" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4109,7 +4436,7 @@
       </c>
       <c r="D75" s="4"/>
       <c r="E75" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" s="13">
         <v>21079750000</v>
@@ -4132,14 +4459,18 @@
       <c r="L75" s="4">
         <v>0</v>
       </c>
-      <c r="M75" s="18">
+      <c r="M75" s="19">
         <v>200640000</v>
       </c>
-      <c r="N75" s="18">
+      <c r="N75" s="19">
         <v>200640000</v>
       </c>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
+      <c r="O75" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P75" s="4">
+        <v>10</v>
+      </c>
       <c r="Q75" s="4"/>
     </row>
     <row r="76" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4148,7 +4479,7 @@
       </c>
       <c r="D76" s="4"/>
       <c r="E76" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" s="11">
         <v>25364512500</v>
@@ -4159,7 +4490,7 @@
       <c r="H76" s="11">
         <v>3161962500000</v>
       </c>
-      <c r="I76" s="19">
+      <c r="I76" s="20">
         <v>62</v>
       </c>
       <c r="J76" s="4">
@@ -4177,8 +4508,12 @@
       <c r="N76" s="16">
         <v>216156000</v>
       </c>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
+      <c r="O76" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P76" s="4">
+        <v>10</v>
+      </c>
       <c r="Q76" s="4"/>
     </row>
     <row r="77" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4187,7 +4522,7 @@
       </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" s="13">
         <v>29649275000</v>
@@ -4210,14 +4545,18 @@
       <c r="L77" s="4">
         <v>5</v>
       </c>
-      <c r="M77" s="18">
+      <c r="M77" s="19">
         <v>231672000</v>
       </c>
-      <c r="N77" s="18">
+      <c r="N77" s="19">
         <v>231672000</v>
       </c>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
+      <c r="O77" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P77" s="4">
+        <v>10</v>
+      </c>
       <c r="Q77" s="4"/>
     </row>
     <row r="78" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4226,7 +4565,7 @@
       </c>
       <c r="D78" s="4"/>
       <c r="E78" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" s="11">
         <v>35675887500</v>
@@ -4237,24 +4576,28 @@
       <c r="H78" s="11">
         <v>6323925000000</v>
       </c>
-      <c r="I78" s="19">
+      <c r="I78" s="20">
         <v>67</v>
       </c>
-      <c r="J78" s="19">
+      <c r="J78" s="20">
         <v>4</v>
       </c>
-      <c r="K78" s="19">
+      <c r="K78" s="20">
         <v>7</v>
       </c>
-      <c r="L78" s="19"/>
+      <c r="L78" s="20"/>
       <c r="M78" s="16">
         <v>248247000</v>
       </c>
       <c r="N78" s="16">
         <v>248247000</v>
       </c>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
+      <c r="O78" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P78" s="4">
+        <v>10</v>
+      </c>
       <c r="Q78" s="4"/>
     </row>
     <row r="79" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4263,7 +4606,7 @@
       </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" s="13">
         <v>41702500000</v>
@@ -4286,14 +4629,18 @@
       <c r="L79" s="4">
         <v>10</v>
       </c>
-      <c r="M79" s="18">
+      <c r="M79" s="19">
         <v>264822000</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N79" s="19">
         <v>264822000</v>
       </c>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
+      <c r="O79" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P79" s="4">
+        <v>10</v>
+      </c>
       <c r="Q79" s="4"/>
     </row>
     <row r="80" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4302,7 +4649,7 @@
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" s="11">
         <v>50179100000</v>
@@ -4313,16 +4660,16 @@
       <c r="H80" s="11">
         <v>12647850000000</v>
       </c>
-      <c r="I80" s="19">
+      <c r="I80" s="20">
         <v>72</v>
       </c>
-      <c r="J80" s="19">
+      <c r="J80" s="20">
         <v>7</v>
       </c>
-      <c r="K80" s="19">
+      <c r="K80" s="20">
         <v>12</v>
       </c>
-      <c r="L80" s="19">
+      <c r="L80" s="20">
         <v>12</v>
       </c>
       <c r="M80" s="16">
@@ -4331,8 +4678,12 @@
       <c r="N80" s="16">
         <v>282483000</v>
       </c>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
+      <c r="O80" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P80" s="4">
+        <v>10</v>
+      </c>
       <c r="Q80" s="4"/>
     </row>
     <row r="81" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4341,7 +4692,7 @@
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F81" s="13">
         <v>58655700000</v>
@@ -4364,14 +4715,18 @@
       <c r="L81" s="4">
         <v>15</v>
       </c>
-      <c r="M81" s="18">
+      <c r="M81" s="19">
         <v>300144000</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N81" s="19">
         <v>300144000</v>
       </c>
-      <c r="O81" s="4"/>
-      <c r="P81" s="4"/>
+      <c r="O81" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P81" s="4">
+        <v>10</v>
+      </c>
       <c r="Q81" s="4"/>
     </row>
     <row r="82" s="3" customFormat="1" ht="18" customHeight="1" spans="1:17">
@@ -4381,7 +4736,7 @@
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F82" s="11">
         <v>70578275000</v>
@@ -4392,16 +4747,16 @@
       <c r="H82" s="11">
         <v>25295700000000</v>
       </c>
-      <c r="I82" s="19">
+      <c r="I82" s="20">
         <v>77</v>
       </c>
-      <c r="J82" s="19">
-        <v>10</v>
-      </c>
-      <c r="K82" s="19">
+      <c r="J82" s="20">
+        <v>10</v>
+      </c>
+      <c r="K82" s="20">
         <v>17</v>
       </c>
-      <c r="L82" s="19">
+      <c r="L82" s="20">
         <v>17</v>
       </c>
       <c r="M82" s="16">
@@ -4410,8 +4765,12 @@
       <c r="N82" s="16">
         <v>318910000</v>
       </c>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
+      <c r="O82" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P82" s="4">
+        <v>10</v>
+      </c>
       <c r="Q82" s="10"/>
     </row>
     <row r="83" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4420,7 +4779,7 @@
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F83" s="13">
         <v>82500850000</v>
@@ -4443,14 +4802,18 @@
       <c r="L83" s="4">
         <v>20</v>
       </c>
-      <c r="M83" s="18">
+      <c r="M83" s="19">
         <v>337690000</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N83" s="19">
         <v>337690000</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
+      <c r="O83" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P83" s="4">
+        <v>10</v>
+      </c>
       <c r="Q83" s="4"/>
     </row>
     <row r="84" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4459,7 +4822,7 @@
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F84" s="11">
         <v>99270275000</v>
@@ -4470,16 +4833,16 @@
       <c r="H84" s="11">
         <v>50591400000000</v>
       </c>
-      <c r="I84" s="19">
+      <c r="I84" s="20">
         <v>82</v>
       </c>
-      <c r="J84" s="19">
+      <c r="J84" s="20">
         <v>13</v>
       </c>
-      <c r="K84" s="19">
+      <c r="K84" s="20">
         <v>22</v>
       </c>
-      <c r="L84" s="19">
+      <c r="L84" s="20">
         <v>22</v>
       </c>
       <c r="M84" s="16">
@@ -4488,8 +4851,12 @@
       <c r="N84" s="16">
         <v>357600000</v>
       </c>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
+      <c r="O84" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P84" s="4">
+        <v>10</v>
+      </c>
       <c r="Q84" s="4"/>
     </row>
     <row r="85" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4498,7 +4865,7 @@
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F85" s="13">
         <v>116039700000</v>
@@ -4521,14 +4888,18 @@
       <c r="L85" s="4">
         <v>25</v>
       </c>
-      <c r="M85" s="18">
+      <c r="M85" s="19">
         <v>377520000</v>
       </c>
-      <c r="N85" s="18">
+      <c r="N85" s="19">
         <v>377520000</v>
       </c>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
+      <c r="O85" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P85" s="4">
+        <v>10</v>
+      </c>
       <c r="Q85" s="4"/>
     </row>
     <row r="86" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4537,7 +4908,7 @@
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F86" s="11">
         <v>139626362500</v>
@@ -4548,16 +4919,16 @@
       <c r="H86" s="11">
         <v>101182800000000</v>
       </c>
-      <c r="I86" s="19">
+      <c r="I86" s="20">
         <v>87</v>
       </c>
-      <c r="J86" s="19">
+      <c r="J86" s="20">
         <v>16</v>
       </c>
-      <c r="K86" s="19">
+      <c r="K86" s="20">
         <v>27</v>
       </c>
-      <c r="L86" s="19">
+      <c r="L86" s="20">
         <v>27</v>
       </c>
       <c r="M86" s="16">
@@ -4566,8 +4937,12 @@
       <c r="N86" s="16">
         <v>398600000</v>
       </c>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4"/>
+      <c r="O86" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P86" s="4">
+        <v>10</v>
+      </c>
       <c r="Q86" s="4"/>
     </row>
     <row r="87" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4576,7 +4951,7 @@
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F87" s="13">
         <v>163213025000</v>
@@ -4599,14 +4974,18 @@
       <c r="L87" s="4">
         <v>30</v>
       </c>
-      <c r="M87" s="18">
+      <c r="M87" s="19">
         <v>419680000</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N87" s="19">
         <v>419680000</v>
       </c>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
+      <c r="O87" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P87" s="4">
+        <v>10</v>
+      </c>
       <c r="Q87" s="4"/>
     </row>
     <row r="88" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4615,7 +4994,7 @@
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F88" s="11">
         <v>196388287500</v>
@@ -4626,16 +5005,16 @@
       <c r="H88" s="11">
         <v>202365600000000</v>
       </c>
-      <c r="I88" s="19">
+      <c r="I88" s="20">
         <v>92</v>
       </c>
-      <c r="J88" s="19">
+      <c r="J88" s="20">
         <v>21</v>
       </c>
-      <c r="K88" s="19">
+      <c r="K88" s="20">
         <v>32</v>
       </c>
-      <c r="L88" s="19">
+      <c r="L88" s="20">
         <v>32</v>
       </c>
       <c r="M88" s="16">
@@ -4644,8 +5023,12 @@
       <c r="N88" s="16">
         <v>441956000</v>
       </c>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
+      <c r="O88" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" s="4">
+        <v>10</v>
+      </c>
       <c r="Q88" s="4"/>
     </row>
     <row r="89" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4654,7 +5037,7 @@
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F89" s="13">
         <v>229563550000</v>
@@ -4677,14 +5060,18 @@
       <c r="L89" s="4">
         <v>35</v>
       </c>
-      <c r="M89" s="18">
+      <c r="M89" s="19">
         <v>464232000</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N89" s="19">
         <v>464232000</v>
       </c>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
+      <c r="O89" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" s="4">
+        <v>10</v>
+      </c>
       <c r="Q89" s="4"/>
     </row>
     <row r="90" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4693,7 +5080,7 @@
       </c>
       <c r="D90" s="4"/>
       <c r="E90" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F90" s="11">
         <v>276225475000</v>
@@ -4704,16 +5091,16 @@
       <c r="H90" s="11">
         <v>404731200000000</v>
       </c>
-      <c r="I90" s="19">
+      <c r="I90" s="20">
         <v>97</v>
       </c>
-      <c r="J90" s="19">
+      <c r="J90" s="20">
         <v>27</v>
       </c>
-      <c r="K90" s="19">
+      <c r="K90" s="20">
         <v>37</v>
       </c>
-      <c r="L90" s="19">
+      <c r="L90" s="20">
         <v>37</v>
       </c>
       <c r="M90" s="16">
@@ -4722,8 +5109,12 @@
       <c r="N90" s="16">
         <v>487728000</v>
       </c>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
+      <c r="O90" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P90" s="4">
+        <v>10</v>
+      </c>
       <c r="Q90" s="4"/>
     </row>
     <row r="91" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4732,7 +5123,7 @@
       </c>
       <c r="D91" s="4"/>
       <c r="E91" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F91" s="13">
         <v>322887400000</v>
@@ -4755,14 +5146,18 @@
       <c r="L91" s="4">
         <v>40</v>
       </c>
-      <c r="M91" s="18">
+      <c r="M91" s="19">
         <v>511224000</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N91" s="19">
         <v>511224000</v>
       </c>
-      <c r="O91" s="4"/>
-      <c r="P91" s="4"/>
+      <c r="O91" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P91" s="4">
+        <v>10</v>
+      </c>
       <c r="Q91" s="4"/>
     </row>
     <row r="92" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4771,7 +5166,7 @@
       </c>
       <c r="D92" s="4"/>
       <c r="E92" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F92" s="11">
         <v>388518662500</v>
@@ -4782,16 +5177,16 @@
       <c r="H92" s="11">
         <v>809462400000000</v>
       </c>
-      <c r="I92" s="19">
+      <c r="I92" s="20">
         <v>102</v>
       </c>
-      <c r="J92" s="19">
+      <c r="J92" s="20">
         <v>32</v>
       </c>
-      <c r="K92" s="19">
+      <c r="K92" s="20">
         <v>42</v>
       </c>
-      <c r="L92" s="19">
+      <c r="L92" s="20">
         <v>42</v>
       </c>
       <c r="M92" s="16">
@@ -4800,8 +5195,12 @@
       <c r="N92" s="16">
         <v>535968000</v>
       </c>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
+      <c r="O92" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P92" s="4">
+        <v>10</v>
+      </c>
       <c r="Q92" s="4"/>
     </row>
     <row r="93" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4810,7 +5209,7 @@
       </c>
       <c r="D93" s="4"/>
       <c r="E93" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F93" s="13">
         <v>454149925000</v>
@@ -4833,14 +5232,18 @@
       <c r="L93" s="4">
         <v>45</v>
       </c>
-      <c r="M93" s="18">
+      <c r="M93" s="19">
         <v>560712000</v>
       </c>
-      <c r="N93" s="18">
+      <c r="N93" s="19">
         <v>560712000</v>
       </c>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
+      <c r="O93" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P93" s="4">
+        <v>10</v>
+      </c>
       <c r="Q93" s="4"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="18" customHeight="1" spans="1:17">
@@ -4851,7 +5254,7 @@
       </c>
       <c r="D94" s="4"/>
       <c r="E94" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F94" s="11">
         <v>546462087500</v>
@@ -4862,16 +5265,16 @@
       <c r="H94" s="11">
         <v>1618924800000000</v>
       </c>
-      <c r="I94" s="19">
+      <c r="I94" s="20">
         <v>107</v>
       </c>
-      <c r="J94" s="19">
+      <c r="J94" s="20">
         <v>37</v>
       </c>
-      <c r="K94" s="19">
+      <c r="K94" s="20">
         <v>47</v>
       </c>
-      <c r="L94" s="19">
+      <c r="L94" s="20">
         <v>47</v>
       </c>
       <c r="M94" s="16">
@@ -4880,8 +5283,12 @@
       <c r="N94" s="16">
         <v>586731000</v>
       </c>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
+      <c r="O94" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P94" s="4">
+        <v>10</v>
+      </c>
       <c r="Q94" s="4"/>
     </row>
     <row r="95" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4890,7 +5297,7 @@
       </c>
       <c r="D95" s="4"/>
       <c r="E95" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F95" s="13">
         <v>638774250000</v>
@@ -4913,14 +5320,18 @@
       <c r="L95" s="4">
         <v>50</v>
       </c>
-      <c r="M95" s="18">
+      <c r="M95" s="19">
         <v>612750000</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N95" s="19">
         <v>612750000</v>
       </c>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
+      <c r="O95" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P95" s="4">
+        <v>10</v>
+      </c>
       <c r="Q95" s="4"/>
     </row>
     <row r="96" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4929,7 +5340,7 @@
       </c>
       <c r="D96" s="4"/>
       <c r="E96" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F96" s="11">
         <v>768613800000</v>
@@ -4940,16 +5351,16 @@
       <c r="H96" s="11">
         <v>3237849600000000</v>
       </c>
-      <c r="I96" s="19">
+      <c r="I96" s="20">
         <v>112</v>
       </c>
-      <c r="J96" s="19">
+      <c r="J96" s="20">
         <v>42</v>
       </c>
-      <c r="K96" s="19">
+      <c r="K96" s="20">
         <v>52</v>
       </c>
-      <c r="L96" s="19">
+      <c r="L96" s="20">
         <v>52</v>
       </c>
       <c r="M96" s="16">
@@ -4958,8 +5369,12 @@
       <c r="N96" s="16">
         <v>641183600</v>
       </c>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
+      <c r="O96" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P96" s="4">
+        <v>10</v>
+      </c>
       <c r="Q96" s="4"/>
     </row>
     <row r="97" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -4968,7 +5383,7 @@
       </c>
       <c r="D97" s="4"/>
       <c r="E97" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F97" s="13">
         <v>898453350000</v>
@@ -4991,14 +5406,18 @@
       <c r="L97" s="3">
         <v>55</v>
       </c>
-      <c r="M97" s="18">
+      <c r="M97" s="19">
         <v>669617200</v>
       </c>
-      <c r="N97" s="18">
+      <c r="N97" s="19">
         <v>669617200</v>
       </c>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
+      <c r="O97" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P97" s="4">
+        <v>10</v>
+      </c>
       <c r="Q97" s="4"/>
     </row>
     <row r="98" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5007,7 +5426,7 @@
       </c>
       <c r="D98" s="4"/>
       <c r="E98" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F98" s="11">
         <v>1081076250000</v>
@@ -5018,16 +5437,16 @@
       <c r="H98" s="11">
         <v>6475699200000000</v>
       </c>
-      <c r="I98" s="19">
+      <c r="I98" s="20">
         <v>117</v>
       </c>
-      <c r="J98" s="19">
+      <c r="J98" s="20">
         <v>47</v>
       </c>
-      <c r="K98" s="19">
+      <c r="K98" s="20">
         <v>57</v>
       </c>
-      <c r="L98" s="19">
+      <c r="L98" s="20">
         <v>57</v>
       </c>
       <c r="M98" s="16">
@@ -5036,8 +5455,12 @@
       <c r="N98" s="16">
         <v>700689800</v>
       </c>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
+      <c r="O98" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P98" s="4">
+        <v>10</v>
+      </c>
       <c r="Q98" s="4"/>
     </row>
     <row r="99" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5046,7 +5469,7 @@
       </c>
       <c r="D99" s="4"/>
       <c r="E99" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F99" s="13">
         <v>1263699150000</v>
@@ -5069,14 +5492,18 @@
       <c r="L99" s="3">
         <v>60</v>
       </c>
-      <c r="M99" s="18">
+      <c r="M99" s="19">
         <v>731762400</v>
       </c>
-      <c r="N99" s="18">
+      <c r="N99" s="19">
         <v>731762400</v>
       </c>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
+      <c r="O99" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P99" s="4">
+        <v>10</v>
+      </c>
       <c r="Q99" s="4"/>
     </row>
     <row r="100" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5085,7 +5512,7 @@
       </c>
       <c r="D100" s="4"/>
       <c r="E100" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F100" s="11">
         <v>1520563250000</v>
@@ -5096,16 +5523,16 @@
       <c r="H100" s="11">
         <v>1.29513984e+16</v>
       </c>
-      <c r="I100" s="19">
+      <c r="I100" s="20">
         <v>122</v>
       </c>
-      <c r="J100" s="19">
+      <c r="J100" s="20">
         <v>52</v>
       </c>
-      <c r="K100" s="19">
+      <c r="K100" s="20">
         <v>62</v>
       </c>
-      <c r="L100" s="19">
+      <c r="L100" s="20">
         <v>62</v>
       </c>
       <c r="M100" s="16">
@@ -5114,8 +5541,12 @@
       <c r="N100" s="16">
         <v>765718800</v>
       </c>
-      <c r="O100" s="4"/>
-      <c r="P100" s="4"/>
+      <c r="O100" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P100" s="4">
+        <v>10</v>
+      </c>
       <c r="Q100" s="4"/>
     </row>
     <row r="101" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5124,7 +5555,7 @@
       </c>
       <c r="D101" s="4"/>
       <c r="E101" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F101" s="13">
         <v>1777427350000</v>
@@ -5147,14 +5578,18 @@
       <c r="L101" s="3">
         <v>65</v>
       </c>
-      <c r="M101" s="18">
+      <c r="M101" s="19">
         <v>799675200</v>
       </c>
-      <c r="N101" s="18">
+      <c r="N101" s="19">
         <v>799675200</v>
       </c>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
+      <c r="O101" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P101" s="4">
+        <v>10</v>
+      </c>
       <c r="Q101" s="4"/>
     </row>
     <row r="102" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5163,7 +5598,7 @@
       </c>
       <c r="D102" s="4"/>
       <c r="E102" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F102" s="11">
         <v>2138713675000</v>
@@ -5174,16 +5609,16 @@
       <c r="H102" s="11">
         <v>2.59027968e+16</v>
       </c>
-      <c r="I102" s="19">
+      <c r="I102" s="20">
         <v>127</v>
       </c>
-      <c r="J102" s="19">
+      <c r="J102" s="20">
         <v>57</v>
       </c>
-      <c r="K102" s="19">
+      <c r="K102" s="20">
         <v>67</v>
       </c>
-      <c r="L102" s="19">
+      <c r="L102" s="20">
         <v>67</v>
       </c>
       <c r="M102" s="16">
@@ -5192,8 +5627,12 @@
       <c r="N102" s="16">
         <v>836783000</v>
       </c>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
+      <c r="O102" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P102" s="4">
+        <v>10</v>
+      </c>
       <c r="Q102" s="4"/>
     </row>
     <row r="103" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5202,7 +5641,7 @@
       </c>
       <c r="D103" s="4"/>
       <c r="E103" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F103" s="13">
         <v>2500000000000</v>
@@ -5225,14 +5664,18 @@
       <c r="L103" s="3">
         <v>70</v>
       </c>
-      <c r="M103" s="18">
+      <c r="M103" s="19">
         <v>873890800</v>
       </c>
-      <c r="N103" s="18">
+      <c r="N103" s="19">
         <v>873890800</v>
       </c>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
+      <c r="O103" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P103" s="4">
+        <v>10</v>
+      </c>
       <c r="Q103" s="4"/>
     </row>
     <row r="104" s="3" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5241,7 +5684,7 @@
       </c>
       <c r="D104" s="4"/>
       <c r="E104" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F104" s="11">
         <v>3008159100000</v>
@@ -5252,16 +5695,16 @@
       <c r="H104" s="11">
         <v>5.18055936e+16</v>
       </c>
-      <c r="I104" s="19">
+      <c r="I104" s="20">
         <v>132</v>
       </c>
-      <c r="J104" s="19">
+      <c r="J104" s="20">
         <v>62</v>
       </c>
-      <c r="K104" s="19">
+      <c r="K104" s="20">
         <v>72</v>
       </c>
-      <c r="L104" s="19">
+      <c r="L104" s="20">
         <v>72</v>
       </c>
       <c r="M104" s="16">
@@ -5270,8 +5713,12 @@
       <c r="N104" s="16">
         <v>914442400</v>
       </c>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
+      <c r="O104" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P104" s="4">
+        <v>10</v>
+      </c>
       <c r="Q104" s="4"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="18" customHeight="1" spans="3:17">
@@ -5280,7 +5727,7 @@
       </c>
       <c r="D105" s="10"/>
       <c r="E105" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F105" s="12">
         <v>3516318200000</v>
@@ -5303,14 +5750,18 @@
       <c r="L105" s="2">
         <v>75</v>
       </c>
-      <c r="M105" s="18">
+      <c r="M105" s="19">
         <v>954994000</v>
       </c>
-      <c r="N105" s="18">
+      <c r="N105" s="19">
         <v>954994000</v>
       </c>
-      <c r="O105" s="10"/>
-      <c r="P105" s="4"/>
+      <c r="O105" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="P105" s="4">
+        <v>10</v>
+      </c>
       <c r="Q105" s="4"/>
     </row>
   </sheetData>

--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -12,7 +12,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">生成配置!$A$5:$Q$105</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -231,7 +244,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1262,9 +1275,9 @@
   <dimension ref="A1:Q105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="P9" sqref="P9:P105"/>
+      <selection pane="bottomLeft" activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -424,12 +424,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1255,9 +1255,9 @@
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <selection pane="bottomLeft" activeCell="F108" sqref="F108:F206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -5780,13 +5780,13 @@
         <v>52</v>
       </c>
       <c r="F107" s="10">
-        <v>350000000000</v>
+        <v>70000000000</v>
       </c>
       <c r="G107" s="10">
-        <v>70000000000</v>
+        <v>35000000000</v>
       </c>
       <c r="H107" s="10">
-        <v>7000000000000000</v>
+        <v>1400000000000000</v>
       </c>
       <c r="I107" s="2">
         <v>135</v>
@@ -5821,15 +5821,15 @@
         <v>52</v>
       </c>
       <c r="F108" s="10">
-        <v>370000000000</v>
+        <v>75000000000</v>
       </c>
       <c r="G108" s="10">
         <f t="shared" ref="G108:G140" si="0">F108/5</f>
-        <v>74000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="H108" s="10">
         <f t="shared" ref="H108:H140" si="1">F108*20000</f>
-        <v>7400000000000000</v>
+        <v>1500000000000000</v>
       </c>
       <c r="I108" s="2">
         <v>136</v>
@@ -5866,15 +5866,15 @@
         <v>52</v>
       </c>
       <c r="F109" s="10">
-        <v>400000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="G109" s="10">
         <f t="shared" si="0"/>
-        <v>80000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="H109" s="10">
         <f t="shared" si="1"/>
-        <v>8000000000000000</v>
+        <v>1600000000000000</v>
       </c>
       <c r="I109" s="2">
         <v>137</v>
@@ -5911,15 +5911,15 @@
         <v>52</v>
       </c>
       <c r="F110" s="10">
-        <v>430000000000</v>
+        <v>86000000000</v>
       </c>
       <c r="G110" s="10">
         <f t="shared" si="0"/>
-        <v>86000000000</v>
+        <v>17200000000</v>
       </c>
       <c r="H110" s="10">
         <f t="shared" si="1"/>
-        <v>8600000000000000</v>
+        <v>1720000000000000</v>
       </c>
       <c r="I110" s="2">
         <v>138</v>
@@ -5956,15 +5956,15 @@
         <v>52</v>
       </c>
       <c r="F111" s="10">
-        <v>460000000000</v>
+        <v>92000000000</v>
       </c>
       <c r="G111" s="10">
         <f t="shared" si="0"/>
-        <v>92000000000</v>
+        <v>18400000000</v>
       </c>
       <c r="H111" s="10">
         <f t="shared" si="1"/>
-        <v>9200000000000000</v>
+        <v>1840000000000000</v>
       </c>
       <c r="I111" s="2">
         <v>139</v>
@@ -6001,15 +6001,15 @@
         <v>52</v>
       </c>
       <c r="F112" s="10">
-        <v>490000000000</v>
+        <v>99000000000</v>
       </c>
       <c r="G112" s="10">
         <f t="shared" si="0"/>
-        <v>98000000000</v>
+        <v>19800000000</v>
       </c>
       <c r="H112" s="10">
         <f t="shared" si="1"/>
-        <v>9800000000000000</v>
+        <v>1980000000000000</v>
       </c>
       <c r="I112" s="2">
         <v>140</v>
@@ -6046,15 +6046,15 @@
         <v>52</v>
       </c>
       <c r="F113" s="10">
-        <v>530000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="G113" s="10">
         <f t="shared" si="0"/>
-        <v>106000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="H113" s="10">
         <f t="shared" si="1"/>
-        <v>1.06e+16</v>
+        <v>2000000000000000</v>
       </c>
       <c r="I113" s="2">
         <v>141</v>
@@ -6091,15 +6091,15 @@
         <v>52</v>
       </c>
       <c r="F114" s="10">
-        <v>570000000000</v>
+        <v>110000000000</v>
       </c>
       <c r="G114" s="10">
         <f t="shared" si="0"/>
-        <v>114000000000</v>
+        <v>22000000000</v>
       </c>
       <c r="H114" s="10">
         <f t="shared" si="1"/>
-        <v>1.14e+16</v>
+        <v>2200000000000000</v>
       </c>
       <c r="I114" s="2">
         <v>142</v>
@@ -6136,15 +6136,15 @@
         <v>52</v>
       </c>
       <c r="F115" s="10">
-        <v>610000000000</v>
+        <v>120000000000</v>
       </c>
       <c r="G115" s="10">
         <f t="shared" si="0"/>
-        <v>122000000000</v>
+        <v>24000000000</v>
       </c>
       <c r="H115" s="10">
         <f t="shared" si="1"/>
-        <v>1.22e+16</v>
+        <v>2400000000000000</v>
       </c>
       <c r="I115" s="2">
         <v>143</v>
@@ -6181,15 +6181,15 @@
         <v>52</v>
       </c>
       <c r="F116" s="10">
-        <v>650000000000</v>
+        <v>130000000000</v>
       </c>
       <c r="G116" s="10">
         <f t="shared" si="0"/>
-        <v>130000000000</v>
+        <v>26000000000</v>
       </c>
       <c r="H116" s="10">
         <f t="shared" si="1"/>
-        <v>1.3e+16</v>
+        <v>2600000000000000</v>
       </c>
       <c r="I116" s="2">
         <v>144</v>
@@ -6226,15 +6226,15 @@
         <v>52</v>
       </c>
       <c r="F117" s="10">
-        <v>700000000000</v>
+        <v>140000000000</v>
       </c>
       <c r="G117" s="10">
         <f t="shared" si="0"/>
-        <v>140000000000</v>
+        <v>28000000000</v>
       </c>
       <c r="H117" s="10">
         <f t="shared" si="1"/>
-        <v>1.4e+16</v>
+        <v>2800000000000000</v>
       </c>
       <c r="I117" s="2">
         <v>145</v>
@@ -6271,15 +6271,15 @@
         <v>52</v>
       </c>
       <c r="F118" s="10">
-        <v>750000000000</v>
+        <v>150000000000</v>
       </c>
       <c r="G118" s="10">
         <f t="shared" si="0"/>
-        <v>150000000000</v>
+        <v>30000000000</v>
       </c>
       <c r="H118" s="10">
         <f t="shared" si="1"/>
-        <v>1.5e+16</v>
+        <v>3000000000000000</v>
       </c>
       <c r="I118" s="2">
         <v>146</v>
@@ -6316,15 +6316,15 @@
         <v>52</v>
       </c>
       <c r="F119" s="10">
-        <v>800000000000</v>
+        <v>160000000000</v>
       </c>
       <c r="G119" s="10">
         <f t="shared" si="0"/>
-        <v>160000000000</v>
+        <v>32000000000</v>
       </c>
       <c r="H119" s="10">
         <f t="shared" si="1"/>
-        <v>1.6e+16</v>
+        <v>3200000000000000</v>
       </c>
       <c r="I119" s="2">
         <v>147</v>
@@ -6361,15 +6361,15 @@
         <v>52</v>
       </c>
       <c r="F120" s="10">
-        <v>860000000000</v>
+        <v>170000000000</v>
       </c>
       <c r="G120" s="10">
         <f t="shared" si="0"/>
-        <v>172000000000</v>
+        <v>34000000000</v>
       </c>
       <c r="H120" s="10">
         <f t="shared" si="1"/>
-        <v>1.72e+16</v>
+        <v>3400000000000000</v>
       </c>
       <c r="I120" s="2">
         <v>148</v>
@@ -6406,15 +6406,15 @@
         <v>52</v>
       </c>
       <c r="F121" s="10">
-        <v>920000000000</v>
+        <v>180000000000</v>
       </c>
       <c r="G121" s="10">
         <f t="shared" si="0"/>
-        <v>184000000000</v>
+        <v>36000000000</v>
       </c>
       <c r="H121" s="10">
         <f t="shared" si="1"/>
-        <v>1.84e+16</v>
+        <v>3600000000000000</v>
       </c>
       <c r="I121" s="2">
         <v>149</v>
@@ -6451,15 +6451,15 @@
         <v>52</v>
       </c>
       <c r="F122" s="10">
-        <v>990000000000</v>
+        <v>190000000000</v>
       </c>
       <c r="G122" s="10">
         <f t="shared" si="0"/>
-        <v>198000000000</v>
+        <v>38000000000</v>
       </c>
       <c r="H122" s="10">
         <f t="shared" si="1"/>
-        <v>1.98e+16</v>
+        <v>3800000000000000</v>
       </c>
       <c r="I122" s="2">
         <v>150</v>
@@ -6496,15 +6496,15 @@
         <v>52</v>
       </c>
       <c r="F123" s="10">
-        <v>1000000000000</v>
+        <v>210000000000</v>
       </c>
       <c r="G123" s="10">
         <f t="shared" si="0"/>
-        <v>200000000000</v>
+        <v>42000000000</v>
       </c>
       <c r="H123" s="10">
         <f t="shared" si="1"/>
-        <v>2e+16</v>
+        <v>4200000000000000</v>
       </c>
       <c r="I123" s="2">
         <v>151</v>
@@ -6541,15 +6541,15 @@
         <v>52</v>
       </c>
       <c r="F124" s="10">
-        <v>1100000000000</v>
+        <v>220000000000</v>
       </c>
       <c r="G124" s="10">
         <f t="shared" si="0"/>
-        <v>220000000000</v>
+        <v>44000000000</v>
       </c>
       <c r="H124" s="10">
         <f t="shared" si="1"/>
-        <v>2.2e+16</v>
+        <v>4400000000000000</v>
       </c>
       <c r="I124" s="2">
         <v>152</v>
@@ -6586,15 +6586,15 @@
         <v>52</v>
       </c>
       <c r="F125" s="10">
-        <v>1200000000000</v>
+        <v>240000000000</v>
       </c>
       <c r="G125" s="10">
         <f t="shared" si="0"/>
-        <v>240000000000</v>
+        <v>48000000000</v>
       </c>
       <c r="H125" s="10">
         <f t="shared" si="1"/>
-        <v>2.4e+16</v>
+        <v>4800000000000000</v>
       </c>
       <c r="I125" s="2">
         <v>153</v>
@@ -6631,15 +6631,15 @@
         <v>52</v>
       </c>
       <c r="F126" s="10">
-        <v>1300000000000</v>
+        <v>260000000000</v>
       </c>
       <c r="G126" s="10">
         <f t="shared" si="0"/>
-        <v>260000000000</v>
+        <v>52000000000</v>
       </c>
       <c r="H126" s="10">
         <f t="shared" si="1"/>
-        <v>2.6e+16</v>
+        <v>5200000000000000</v>
       </c>
       <c r="I126" s="2">
         <v>154</v>
@@ -6676,15 +6676,15 @@
         <v>52</v>
       </c>
       <c r="F127" s="10">
-        <v>1400000000000</v>
+        <v>280000000000</v>
       </c>
       <c r="G127" s="10">
         <f t="shared" si="0"/>
-        <v>280000000000</v>
+        <v>56000000000</v>
       </c>
       <c r="H127" s="10">
         <f t="shared" si="1"/>
-        <v>2.8e+16</v>
+        <v>5600000000000000</v>
       </c>
       <c r="I127" s="2">
         <v>155</v>
@@ -6721,15 +6721,15 @@
         <v>52</v>
       </c>
       <c r="F128" s="10">
-        <v>1500000000000</v>
+        <v>300000000000</v>
       </c>
       <c r="G128" s="10">
         <f t="shared" si="0"/>
-        <v>300000000000</v>
+        <v>60000000000</v>
       </c>
       <c r="H128" s="10">
         <f t="shared" si="1"/>
-        <v>3e+16</v>
+        <v>6000000000000000</v>
       </c>
       <c r="I128" s="2">
         <v>156</v>
@@ -6766,15 +6766,15 @@
         <v>52</v>
       </c>
       <c r="F129" s="10">
-        <v>1600000000000</v>
+        <v>320000000000</v>
       </c>
       <c r="G129" s="10">
         <f t="shared" si="0"/>
-        <v>320000000000</v>
+        <v>64000000000</v>
       </c>
       <c r="H129" s="10">
         <f t="shared" si="1"/>
-        <v>3.2e+16</v>
+        <v>6400000000000000</v>
       </c>
       <c r="I129" s="2">
         <v>157</v>
@@ -6811,15 +6811,15 @@
         <v>52</v>
       </c>
       <c r="F130" s="10">
-        <v>1700000000000</v>
+        <v>340000000000</v>
       </c>
       <c r="G130" s="10">
         <f t="shared" si="0"/>
-        <v>340000000000</v>
+        <v>68000000000</v>
       </c>
       <c r="H130" s="10">
         <f t="shared" si="1"/>
-        <v>3.4e+16</v>
+        <v>6800000000000000</v>
       </c>
       <c r="I130" s="2">
         <v>158</v>
@@ -6856,15 +6856,15 @@
         <v>52</v>
       </c>
       <c r="F131" s="10">
-        <v>1800000000000</v>
+        <v>370000000000</v>
       </c>
       <c r="G131" s="10">
         <f t="shared" si="0"/>
-        <v>360000000000</v>
+        <v>74000000000</v>
       </c>
       <c r="H131" s="10">
         <f t="shared" si="1"/>
-        <v>3.6e+16</v>
+        <v>7400000000000000</v>
       </c>
       <c r="I131" s="2">
         <v>159</v>
@@ -6901,15 +6901,15 @@
         <v>52</v>
       </c>
       <c r="F132" s="10">
-        <v>2000000000000</v>
+        <v>400000000000</v>
       </c>
       <c r="G132" s="10">
         <f t="shared" si="0"/>
-        <v>400000000000</v>
+        <v>80000000000</v>
       </c>
       <c r="H132" s="10">
         <f t="shared" si="1"/>
-        <v>4e+16</v>
+        <v>8000000000000000</v>
       </c>
       <c r="I132" s="2">
         <v>160</v>
@@ -6946,15 +6946,15 @@
         <v>52</v>
       </c>
       <c r="F133" s="4">
-        <v>2100000000000</v>
+        <v>420000000000</v>
       </c>
       <c r="G133" s="10">
         <f t="shared" si="0"/>
-        <v>420000000000</v>
+        <v>84000000000</v>
       </c>
       <c r="H133" s="10">
         <f t="shared" si="1"/>
-        <v>4.2e+16</v>
+        <v>8400000000000000</v>
       </c>
       <c r="I133" s="2">
         <v>161</v>
@@ -6991,15 +6991,15 @@
         <v>52</v>
       </c>
       <c r="F134" s="4">
-        <v>2300000000000</v>
+        <v>460000000000</v>
       </c>
       <c r="G134" s="10">
         <f t="shared" si="0"/>
-        <v>460000000000</v>
+        <v>92000000000</v>
       </c>
       <c r="H134" s="10">
         <f t="shared" si="1"/>
-        <v>4.6e+16</v>
+        <v>9200000000000000</v>
       </c>
       <c r="I134" s="2">
         <v>162</v>
@@ -7036,15 +7036,15 @@
         <v>52</v>
       </c>
       <c r="F135" s="4">
-        <v>2400000000000</v>
+        <v>490000000000</v>
       </c>
       <c r="G135" s="10">
         <f t="shared" si="0"/>
-        <v>480000000000</v>
+        <v>98000000000</v>
       </c>
       <c r="H135" s="10">
         <f t="shared" si="1"/>
-        <v>4.8e+16</v>
+        <v>9800000000000000</v>
       </c>
       <c r="I135" s="2">
         <v>163</v>
@@ -7081,15 +7081,15 @@
         <v>52</v>
       </c>
       <c r="F136" s="4">
-        <v>2600000000000</v>
+        <v>520000000000</v>
       </c>
       <c r="G136" s="10">
         <f t="shared" si="0"/>
-        <v>520000000000</v>
+        <v>104000000000</v>
       </c>
       <c r="H136" s="10">
         <f t="shared" si="1"/>
-        <v>5.2e+16</v>
+        <v>1.04e+16</v>
       </c>
       <c r="I136" s="2">
         <v>164</v>
@@ -7126,15 +7126,15 @@
         <v>52</v>
       </c>
       <c r="F137" s="4">
-        <v>2800000000000</v>
+        <v>560000000000</v>
       </c>
       <c r="G137" s="10">
         <f t="shared" si="0"/>
-        <v>560000000000</v>
+        <v>112000000000</v>
       </c>
       <c r="H137" s="10">
         <f t="shared" si="1"/>
-        <v>5.6e+16</v>
+        <v>1.12e+16</v>
       </c>
       <c r="I137" s="2">
         <v>165</v>
@@ -7171,15 +7171,15 @@
         <v>52</v>
       </c>
       <c r="F138" s="4">
-        <v>3000000000000</v>
+        <v>600000000000</v>
       </c>
       <c r="G138" s="10">
         <f t="shared" si="0"/>
-        <v>600000000000</v>
+        <v>120000000000</v>
       </c>
       <c r="H138" s="10">
         <f t="shared" si="1"/>
-        <v>6e+16</v>
+        <v>1.2e+16</v>
       </c>
       <c r="I138" s="2">
         <v>166</v>
@@ -7216,15 +7216,15 @@
         <v>52</v>
       </c>
       <c r="F139" s="4">
-        <v>3200000000000</v>
+        <v>650000000000</v>
       </c>
       <c r="G139" s="10">
         <f t="shared" si="0"/>
-        <v>640000000000</v>
+        <v>130000000000</v>
       </c>
       <c r="H139" s="10">
         <f t="shared" si="1"/>
-        <v>6.4e+16</v>
+        <v>1.3e+16</v>
       </c>
       <c r="I139" s="2">
         <v>167</v>
@@ -7261,15 +7261,15 @@
         <v>52</v>
       </c>
       <c r="F140" s="4">
-        <v>3500000000000</v>
+        <v>700000000000</v>
       </c>
       <c r="G140" s="10">
         <f t="shared" si="0"/>
-        <v>700000000000</v>
+        <v>140000000000</v>
       </c>
       <c r="H140" s="10">
         <f t="shared" si="1"/>
-        <v>7e+16</v>
+        <v>1.4e+16</v>
       </c>
       <c r="I140" s="2">
         <v>168</v>
@@ -7306,16 +7306,15 @@
         <v>52</v>
       </c>
       <c r="F141" s="4">
-        <f t="shared" ref="F141:F204" si="4">F108*10</f>
-        <v>3700000000000</v>
+        <v>750000000000</v>
       </c>
       <c r="G141" s="4">
-        <f t="shared" ref="G141:G204" si="5">G108*10</f>
-        <v>740000000000</v>
+        <f t="shared" ref="G141:G204" si="4">G108*10</f>
+        <v>150000000000</v>
       </c>
       <c r="H141" s="4">
-        <f t="shared" ref="H141:H204" si="6">H108*10</f>
-        <v>7.4e+16</v>
+        <f t="shared" ref="H141:H204" si="5">H108*10</f>
+        <v>1.5e+16</v>
       </c>
       <c r="I141" s="2">
         <v>169</v>
@@ -7352,16 +7351,15 @@
         <v>52</v>
       </c>
       <c r="F142" s="4">
+        <v>800000000000</v>
+      </c>
+      <c r="G142" s="4">
         <f t="shared" si="4"/>
-        <v>4000000000000</v>
-      </c>
-      <c r="G142" s="4">
+        <v>160000000000</v>
+      </c>
+      <c r="H142" s="4">
         <f t="shared" si="5"/>
-        <v>800000000000</v>
-      </c>
-      <c r="H142" s="4">
-        <f t="shared" si="6"/>
-        <v>8e+16</v>
+        <v>1.6e+16</v>
       </c>
       <c r="I142" s="2">
         <v>170</v>
@@ -7398,16 +7396,15 @@
         <v>52</v>
       </c>
       <c r="F143" s="4">
+        <v>860000000000</v>
+      </c>
+      <c r="G143" s="4">
         <f t="shared" si="4"/>
-        <v>4300000000000</v>
-      </c>
-      <c r="G143" s="4">
+        <v>172000000000</v>
+      </c>
+      <c r="H143" s="4">
         <f t="shared" si="5"/>
-        <v>860000000000</v>
-      </c>
-      <c r="H143" s="4">
-        <f t="shared" si="6"/>
-        <v>8.6e+16</v>
+        <v>1.72e+16</v>
       </c>
       <c r="I143" s="2">
         <v>171</v>
@@ -7444,16 +7441,15 @@
         <v>52</v>
       </c>
       <c r="F144" s="4">
+        <v>920000000000</v>
+      </c>
+      <c r="G144" s="4">
         <f t="shared" si="4"/>
-        <v>4600000000000</v>
-      </c>
-      <c r="G144" s="4">
+        <v>184000000000</v>
+      </c>
+      <c r="H144" s="4">
         <f t="shared" si="5"/>
-        <v>920000000000</v>
-      </c>
-      <c r="H144" s="4">
-        <f t="shared" si="6"/>
-        <v>9.2e+16</v>
+        <v>1.84e+16</v>
       </c>
       <c r="I144" s="2">
         <v>172</v>
@@ -7490,16 +7486,15 @@
         <v>52</v>
       </c>
       <c r="F145" s="4">
+        <v>990000000000</v>
+      </c>
+      <c r="G145" s="4">
         <f t="shared" si="4"/>
-        <v>4900000000000</v>
-      </c>
-      <c r="G145" s="4">
+        <v>198000000000</v>
+      </c>
+      <c r="H145" s="4">
         <f t="shared" si="5"/>
-        <v>980000000000</v>
-      </c>
-      <c r="H145" s="4">
-        <f t="shared" si="6"/>
-        <v>9.8e+16</v>
+        <v>1.98e+16</v>
       </c>
       <c r="I145" s="2">
         <v>173</v>
@@ -7536,16 +7531,15 @@
         <v>52</v>
       </c>
       <c r="F146" s="4">
+        <v>1000000000000</v>
+      </c>
+      <c r="G146" s="4">
         <f t="shared" si="4"/>
-        <v>5300000000000</v>
-      </c>
-      <c r="G146" s="4">
+        <v>200000000000</v>
+      </c>
+      <c r="H146" s="4">
         <f t="shared" si="5"/>
-        <v>1060000000000</v>
-      </c>
-      <c r="H146" s="4">
-        <f t="shared" si="6"/>
-        <v>1.06e+17</v>
+        <v>2e+16</v>
       </c>
       <c r="I146" s="2">
         <v>174</v>
@@ -7582,16 +7576,15 @@
         <v>52</v>
       </c>
       <c r="F147" s="4">
+        <v>1100000000000</v>
+      </c>
+      <c r="G147" s="4">
         <f t="shared" si="4"/>
-        <v>5700000000000</v>
-      </c>
-      <c r="G147" s="4">
+        <v>220000000000</v>
+      </c>
+      <c r="H147" s="4">
         <f t="shared" si="5"/>
-        <v>1140000000000</v>
-      </c>
-      <c r="H147" s="4">
-        <f t="shared" si="6"/>
-        <v>1.14e+17</v>
+        <v>2.2e+16</v>
       </c>
       <c r="I147" s="2">
         <v>175</v>
@@ -7628,16 +7621,15 @@
         <v>52</v>
       </c>
       <c r="F148" s="4">
+        <v>1200000000000</v>
+      </c>
+      <c r="G148" s="4">
         <f t="shared" si="4"/>
-        <v>6100000000000</v>
-      </c>
-      <c r="G148" s="4">
+        <v>240000000000</v>
+      </c>
+      <c r="H148" s="4">
         <f t="shared" si="5"/>
-        <v>1220000000000</v>
-      </c>
-      <c r="H148" s="4">
-        <f t="shared" si="6"/>
-        <v>1.22e+17</v>
+        <v>2.4e+16</v>
       </c>
       <c r="I148" s="2">
         <v>176</v>
@@ -7674,16 +7666,15 @@
         <v>52</v>
       </c>
       <c r="F149" s="4">
+        <v>1300000000000</v>
+      </c>
+      <c r="G149" s="4">
         <f t="shared" si="4"/>
-        <v>6500000000000</v>
-      </c>
-      <c r="G149" s="4">
+        <v>260000000000</v>
+      </c>
+      <c r="H149" s="4">
         <f t="shared" si="5"/>
-        <v>1300000000000</v>
-      </c>
-      <c r="H149" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3e+17</v>
+        <v>2.6e+16</v>
       </c>
       <c r="I149" s="2">
         <v>177</v>
@@ -7720,16 +7711,15 @@
         <v>52</v>
       </c>
       <c r="F150" s="4">
+        <v>1400000000000</v>
+      </c>
+      <c r="G150" s="4">
         <f t="shared" si="4"/>
-        <v>7000000000000</v>
-      </c>
-      <c r="G150" s="4">
+        <v>280000000000</v>
+      </c>
+      <c r="H150" s="4">
         <f t="shared" si="5"/>
-        <v>1400000000000</v>
-      </c>
-      <c r="H150" s="4">
-        <f t="shared" si="6"/>
-        <v>1.4e+17</v>
+        <v>2.8e+16</v>
       </c>
       <c r="I150" s="2">
         <v>178</v>
@@ -7766,16 +7756,15 @@
         <v>52</v>
       </c>
       <c r="F151" s="4">
+        <v>1500000000000</v>
+      </c>
+      <c r="G151" s="4">
         <f t="shared" si="4"/>
-        <v>7500000000000</v>
-      </c>
-      <c r="G151" s="4">
+        <v>300000000000</v>
+      </c>
+      <c r="H151" s="4">
         <f t="shared" si="5"/>
-        <v>1500000000000</v>
-      </c>
-      <c r="H151" s="4">
-        <f t="shared" si="6"/>
-        <v>1.5e+17</v>
+        <v>3e+16</v>
       </c>
       <c r="I151" s="2">
         <v>179</v>
@@ -7812,16 +7801,15 @@
         <v>52</v>
       </c>
       <c r="F152" s="4">
+        <v>1600000000000</v>
+      </c>
+      <c r="G152" s="4">
         <f t="shared" si="4"/>
-        <v>8000000000000</v>
-      </c>
-      <c r="G152" s="4">
+        <v>320000000000</v>
+      </c>
+      <c r="H152" s="4">
         <f t="shared" si="5"/>
-        <v>1600000000000</v>
-      </c>
-      <c r="H152" s="4">
-        <f t="shared" si="6"/>
-        <v>1.6e+17</v>
+        <v>3.2e+16</v>
       </c>
       <c r="I152" s="2">
         <v>180</v>
@@ -7858,16 +7846,15 @@
         <v>52</v>
       </c>
       <c r="F153" s="4">
+        <v>1700000000000</v>
+      </c>
+      <c r="G153" s="4">
         <f t="shared" si="4"/>
-        <v>8600000000000</v>
-      </c>
-      <c r="G153" s="4">
+        <v>340000000000</v>
+      </c>
+      <c r="H153" s="4">
         <f t="shared" si="5"/>
-        <v>1720000000000</v>
-      </c>
-      <c r="H153" s="4">
-        <f t="shared" si="6"/>
-        <v>1.72e+17</v>
+        <v>3.4e+16</v>
       </c>
       <c r="I153" s="2">
         <v>181</v>
@@ -7904,16 +7891,15 @@
         <v>52</v>
       </c>
       <c r="F154" s="4">
+        <v>1800000000000</v>
+      </c>
+      <c r="G154" s="4">
         <f t="shared" si="4"/>
-        <v>9200000000000</v>
-      </c>
-      <c r="G154" s="4">
+        <v>360000000000</v>
+      </c>
+      <c r="H154" s="4">
         <f t="shared" si="5"/>
-        <v>1840000000000</v>
-      </c>
-      <c r="H154" s="4">
-        <f t="shared" si="6"/>
-        <v>1.84e+17</v>
+        <v>3.6e+16</v>
       </c>
       <c r="I154" s="2">
         <v>182</v>
@@ -7950,16 +7936,15 @@
         <v>52</v>
       </c>
       <c r="F155" s="4">
+        <v>1900000000000</v>
+      </c>
+      <c r="G155" s="4">
         <f t="shared" si="4"/>
-        <v>9900000000000</v>
-      </c>
-      <c r="G155" s="4">
+        <v>380000000000</v>
+      </c>
+      <c r="H155" s="4">
         <f t="shared" si="5"/>
-        <v>1980000000000</v>
-      </c>
-      <c r="H155" s="4">
-        <f t="shared" si="6"/>
-        <v>1.98e+17</v>
+        <v>3.8e+16</v>
       </c>
       <c r="I155" s="2">
         <v>183</v>
@@ -7996,16 +7981,15 @@
         <v>52</v>
       </c>
       <c r="F156" s="4">
+        <v>2100000000000</v>
+      </c>
+      <c r="G156" s="4">
         <f t="shared" si="4"/>
-        <v>10000000000000</v>
-      </c>
-      <c r="G156" s="4">
+        <v>420000000000</v>
+      </c>
+      <c r="H156" s="4">
         <f t="shared" si="5"/>
-        <v>2000000000000</v>
-      </c>
-      <c r="H156" s="4">
-        <f t="shared" si="6"/>
-        <v>2e+17</v>
+        <v>4.2e+16</v>
       </c>
       <c r="I156" s="2">
         <v>184</v>
@@ -8042,16 +8026,15 @@
         <v>52</v>
       </c>
       <c r="F157" s="4">
+        <v>2200000000000</v>
+      </c>
+      <c r="G157" s="4">
         <f t="shared" si="4"/>
-        <v>11000000000000</v>
-      </c>
-      <c r="G157" s="4">
+        <v>440000000000</v>
+      </c>
+      <c r="H157" s="4">
         <f t="shared" si="5"/>
-        <v>2200000000000</v>
-      </c>
-      <c r="H157" s="4">
-        <f t="shared" si="6"/>
-        <v>2.2e+17</v>
+        <v>4.4e+16</v>
       </c>
       <c r="I157" s="2">
         <v>185</v>
@@ -8088,16 +8071,15 @@
         <v>52</v>
       </c>
       <c r="F158" s="4">
+        <v>2400000000000</v>
+      </c>
+      <c r="G158" s="4">
         <f t="shared" si="4"/>
-        <v>12000000000000</v>
-      </c>
-      <c r="G158" s="4">
+        <v>480000000000</v>
+      </c>
+      <c r="H158" s="4">
         <f t="shared" si="5"/>
-        <v>2400000000000</v>
-      </c>
-      <c r="H158" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4e+17</v>
+        <v>4.8e+16</v>
       </c>
       <c r="I158" s="2">
         <v>186</v>
@@ -8134,16 +8116,15 @@
         <v>52</v>
       </c>
       <c r="F159" s="4">
+        <v>2600000000000</v>
+      </c>
+      <c r="G159" s="4">
         <f t="shared" si="4"/>
-        <v>13000000000000</v>
-      </c>
-      <c r="G159" s="4">
+        <v>520000000000</v>
+      </c>
+      <c r="H159" s="4">
         <f t="shared" si="5"/>
-        <v>2600000000000</v>
-      </c>
-      <c r="H159" s="4">
-        <f t="shared" si="6"/>
-        <v>2.6e+17</v>
+        <v>5.2e+16</v>
       </c>
       <c r="I159" s="2">
         <v>187</v>
@@ -8180,16 +8161,15 @@
         <v>52</v>
       </c>
       <c r="F160" s="4">
+        <v>2800000000000</v>
+      </c>
+      <c r="G160" s="4">
         <f t="shared" si="4"/>
-        <v>14000000000000</v>
-      </c>
-      <c r="G160" s="4">
+        <v>560000000000</v>
+      </c>
+      <c r="H160" s="4">
         <f t="shared" si="5"/>
-        <v>2800000000000</v>
-      </c>
-      <c r="H160" s="4">
-        <f t="shared" si="6"/>
-        <v>2.8e+17</v>
+        <v>5.6e+16</v>
       </c>
       <c r="I160" s="2">
         <v>188</v>
@@ -8226,16 +8206,15 @@
         <v>52</v>
       </c>
       <c r="F161" s="4">
+        <v>3000000000000</v>
+      </c>
+      <c r="G161" s="4">
         <f t="shared" si="4"/>
-        <v>15000000000000</v>
-      </c>
-      <c r="G161" s="4">
+        <v>600000000000</v>
+      </c>
+      <c r="H161" s="4">
         <f t="shared" si="5"/>
-        <v>3000000000000</v>
-      </c>
-      <c r="H161" s="4">
-        <f t="shared" si="6"/>
-        <v>3e+17</v>
+        <v>6e+16</v>
       </c>
       <c r="I161" s="2">
         <v>189</v>
@@ -8272,16 +8251,15 @@
         <v>52</v>
       </c>
       <c r="F162" s="4">
+        <v>3200000000000</v>
+      </c>
+      <c r="G162" s="4">
         <f t="shared" si="4"/>
-        <v>16000000000000</v>
-      </c>
-      <c r="G162" s="4">
+        <v>640000000000</v>
+      </c>
+      <c r="H162" s="4">
         <f t="shared" si="5"/>
-        <v>3200000000000</v>
-      </c>
-      <c r="H162" s="4">
-        <f t="shared" si="6"/>
-        <v>3.2e+17</v>
+        <v>6.4e+16</v>
       </c>
       <c r="I162" s="2">
         <v>190</v>
@@ -8318,16 +8296,15 @@
         <v>52</v>
       </c>
       <c r="F163" s="4">
+        <v>3400000000000</v>
+      </c>
+      <c r="G163" s="4">
         <f t="shared" si="4"/>
-        <v>17000000000000</v>
-      </c>
-      <c r="G163" s="4">
+        <v>680000000000</v>
+      </c>
+      <c r="H163" s="4">
         <f t="shared" si="5"/>
-        <v>3400000000000</v>
-      </c>
-      <c r="H163" s="4">
-        <f t="shared" si="6"/>
-        <v>3.4e+17</v>
+        <v>6.8e+16</v>
       </c>
       <c r="I163" s="2">
         <v>191</v>
@@ -8364,16 +8341,15 @@
         <v>52</v>
       </c>
       <c r="F164" s="4">
+        <v>3700000000000</v>
+      </c>
+      <c r="G164" s="4">
         <f t="shared" si="4"/>
-        <v>18000000000000</v>
-      </c>
-      <c r="G164" s="4">
+        <v>740000000000</v>
+      </c>
+      <c r="H164" s="4">
         <f t="shared" si="5"/>
-        <v>3600000000000</v>
-      </c>
-      <c r="H164" s="4">
-        <f t="shared" si="6"/>
-        <v>3.6e+17</v>
+        <v>7.4e+16</v>
       </c>
       <c r="I164" s="2">
         <v>192</v>
@@ -8410,16 +8386,15 @@
         <v>52</v>
       </c>
       <c r="F165" s="4">
+        <v>4000000000000</v>
+      </c>
+      <c r="G165" s="4">
         <f t="shared" si="4"/>
-        <v>20000000000000</v>
-      </c>
-      <c r="G165" s="4">
+        <v>800000000000</v>
+      </c>
+      <c r="H165" s="4">
         <f t="shared" si="5"/>
-        <v>4000000000000</v>
-      </c>
-      <c r="H165" s="4">
-        <f t="shared" si="6"/>
-        <v>4e+17</v>
+        <v>8e+16</v>
       </c>
       <c r="I165" s="2">
         <v>193</v>
@@ -8456,16 +8431,15 @@
         <v>52</v>
       </c>
       <c r="F166" s="4">
+        <v>4200000000000</v>
+      </c>
+      <c r="G166" s="4">
         <f t="shared" si="4"/>
-        <v>21000000000000</v>
-      </c>
-      <c r="G166" s="4">
+        <v>840000000000</v>
+      </c>
+      <c r="H166" s="4">
         <f t="shared" si="5"/>
-        <v>4200000000000</v>
-      </c>
-      <c r="H166" s="4">
-        <f t="shared" si="6"/>
-        <v>4.2e+17</v>
+        <v>8.4e+16</v>
       </c>
       <c r="I166" s="2">
         <v>194</v>
@@ -8502,16 +8476,15 @@
         <v>52</v>
       </c>
       <c r="F167" s="4">
+        <v>4600000000000</v>
+      </c>
+      <c r="G167" s="4">
         <f t="shared" si="4"/>
-        <v>23000000000000</v>
-      </c>
-      <c r="G167" s="4">
+        <v>920000000000</v>
+      </c>
+      <c r="H167" s="4">
         <f t="shared" si="5"/>
-        <v>4600000000000</v>
-      </c>
-      <c r="H167" s="4">
-        <f t="shared" si="6"/>
-        <v>4.6e+17</v>
+        <v>9.2e+16</v>
       </c>
       <c r="I167" s="2">
         <v>195</v>
@@ -8548,16 +8521,15 @@
         <v>52</v>
       </c>
       <c r="F168" s="4">
+        <v>4900000000000</v>
+      </c>
+      <c r="G168" s="4">
         <f t="shared" si="4"/>
-        <v>24000000000000</v>
-      </c>
-      <c r="G168" s="4">
+        <v>980000000000</v>
+      </c>
+      <c r="H168" s="4">
         <f t="shared" si="5"/>
-        <v>4800000000000</v>
-      </c>
-      <c r="H168" s="4">
-        <f t="shared" si="6"/>
-        <v>4.8e+17</v>
+        <v>9.8e+16</v>
       </c>
       <c r="I168" s="2">
         <v>196</v>
@@ -8594,16 +8566,15 @@
         <v>52</v>
       </c>
       <c r="F169" s="4">
+        <v>5200000000000</v>
+      </c>
+      <c r="G169" s="4">
         <f t="shared" si="4"/>
-        <v>26000000000000</v>
-      </c>
-      <c r="G169" s="4">
+        <v>1040000000000</v>
+      </c>
+      <c r="H169" s="4">
         <f t="shared" si="5"/>
-        <v>5200000000000</v>
-      </c>
-      <c r="H169" s="4">
-        <f t="shared" si="6"/>
-        <v>5.2e+17</v>
+        <v>1.04e+17</v>
       </c>
       <c r="I169" s="2">
         <v>197</v>
@@ -8640,16 +8611,15 @@
         <v>52</v>
       </c>
       <c r="F170" s="4">
+        <v>5600000000000</v>
+      </c>
+      <c r="G170" s="4">
         <f t="shared" si="4"/>
-        <v>28000000000000</v>
-      </c>
-      <c r="G170" s="4">
+        <v>1120000000000</v>
+      </c>
+      <c r="H170" s="4">
         <f t="shared" si="5"/>
-        <v>5600000000000</v>
-      </c>
-      <c r="H170" s="4">
-        <f t="shared" si="6"/>
-        <v>5.6e+17</v>
+        <v>1.12e+17</v>
       </c>
       <c r="I170" s="2">
         <v>198</v>
@@ -8686,16 +8656,15 @@
         <v>52</v>
       </c>
       <c r="F171" s="4">
+        <v>6000000000000</v>
+      </c>
+      <c r="G171" s="4">
         <f t="shared" si="4"/>
-        <v>30000000000000</v>
-      </c>
-      <c r="G171" s="4">
+        <v>1200000000000</v>
+      </c>
+      <c r="H171" s="4">
         <f t="shared" si="5"/>
-        <v>6000000000000</v>
-      </c>
-      <c r="H171" s="4">
-        <f t="shared" si="6"/>
-        <v>6e+17</v>
+        <v>1.2e+17</v>
       </c>
       <c r="I171" s="2">
         <v>199</v>
@@ -8732,16 +8701,15 @@
         <v>52</v>
       </c>
       <c r="F172" s="4">
+        <v>6500000000000</v>
+      </c>
+      <c r="G172" s="4">
         <f t="shared" si="4"/>
-        <v>32000000000000</v>
-      </c>
-      <c r="G172" s="4">
+        <v>1300000000000</v>
+      </c>
+      <c r="H172" s="4">
         <f t="shared" si="5"/>
-        <v>6400000000000</v>
-      </c>
-      <c r="H172" s="4">
-        <f t="shared" si="6"/>
-        <v>6.4e+17</v>
+        <v>1.3e+17</v>
       </c>
       <c r="I172" s="2">
         <v>200</v>
@@ -8756,11 +8724,11 @@
         <v>100</v>
       </c>
       <c r="M172" s="3">
-        <f t="shared" ref="M172:M206" si="7">M171+1000000000</f>
+        <f t="shared" ref="M172:M206" si="6">M171+1000000000</f>
         <v>66000000000</v>
       </c>
       <c r="N172" s="3">
-        <f t="shared" ref="N172:N206" si="8">N171+1000000000</f>
+        <f t="shared" ref="N172:N206" si="7">N171+1000000000</f>
         <v>66000000000</v>
       </c>
       <c r="O172" s="18" t="s">
@@ -8778,16 +8746,15 @@
         <v>52</v>
       </c>
       <c r="F173" s="4">
+        <v>7000000000000</v>
+      </c>
+      <c r="G173" s="4">
         <f t="shared" si="4"/>
-        <v>35000000000000</v>
-      </c>
-      <c r="G173" s="4">
+        <v>1400000000000</v>
+      </c>
+      <c r="H173" s="4">
         <f t="shared" si="5"/>
-        <v>7000000000000</v>
-      </c>
-      <c r="H173" s="4">
-        <f t="shared" si="6"/>
-        <v>7e+17</v>
+        <v>1.4e+17</v>
       </c>
       <c r="I173" s="2">
         <v>201</v>
@@ -8802,11 +8769,11 @@
         <v>100</v>
       </c>
       <c r="M173" s="3">
+        <f t="shared" si="6"/>
+        <v>67000000000</v>
+      </c>
+      <c r="N173" s="3">
         <f t="shared" si="7"/>
-        <v>67000000000</v>
-      </c>
-      <c r="N173" s="3">
-        <f t="shared" si="8"/>
         <v>67000000000</v>
       </c>
       <c r="O173" s="18" t="s">
@@ -8824,16 +8791,15 @@
         <v>52</v>
       </c>
       <c r="F174" s="4">
+        <v>7500000000000</v>
+      </c>
+      <c r="G174" s="4">
         <f t="shared" si="4"/>
-        <v>37000000000000</v>
-      </c>
-      <c r="G174" s="4">
+        <v>1500000000000</v>
+      </c>
+      <c r="H174" s="4">
         <f t="shared" si="5"/>
-        <v>7400000000000</v>
-      </c>
-      <c r="H174" s="4">
-        <f t="shared" si="6"/>
-        <v>7.4e+17</v>
+        <v>1.5e+17</v>
       </c>
       <c r="I174" s="2">
         <v>202</v>
@@ -8848,11 +8814,11 @@
         <v>100</v>
       </c>
       <c r="M174" s="3">
+        <f t="shared" si="6"/>
+        <v>68000000000</v>
+      </c>
+      <c r="N174" s="3">
         <f t="shared" si="7"/>
-        <v>68000000000</v>
-      </c>
-      <c r="N174" s="3">
-        <f t="shared" si="8"/>
         <v>68000000000</v>
       </c>
       <c r="O174" s="18" t="s">
@@ -8870,16 +8836,15 @@
         <v>52</v>
       </c>
       <c r="F175" s="4">
+        <v>8000000000000</v>
+      </c>
+      <c r="G175" s="4">
         <f t="shared" si="4"/>
-        <v>40000000000000</v>
-      </c>
-      <c r="G175" s="4">
+        <v>1600000000000</v>
+      </c>
+      <c r="H175" s="4">
         <f t="shared" si="5"/>
-        <v>8000000000000</v>
-      </c>
-      <c r="H175" s="4">
-        <f t="shared" si="6"/>
-        <v>8e+17</v>
+        <v>1.6e+17</v>
       </c>
       <c r="I175" s="2">
         <v>203</v>
@@ -8894,11 +8859,11 @@
         <v>100</v>
       </c>
       <c r="M175" s="3">
+        <f t="shared" si="6"/>
+        <v>69000000000</v>
+      </c>
+      <c r="N175" s="3">
         <f t="shared" si="7"/>
-        <v>69000000000</v>
-      </c>
-      <c r="N175" s="3">
-        <f t="shared" si="8"/>
         <v>69000000000</v>
       </c>
       <c r="O175" s="18" t="s">
@@ -8916,16 +8881,15 @@
         <v>52</v>
       </c>
       <c r="F176" s="4">
+        <v>8600000000000</v>
+      </c>
+      <c r="G176" s="4">
         <f t="shared" si="4"/>
-        <v>43000000000000</v>
-      </c>
-      <c r="G176" s="4">
+        <v>1720000000000</v>
+      </c>
+      <c r="H176" s="4">
         <f t="shared" si="5"/>
-        <v>8600000000000</v>
-      </c>
-      <c r="H176" s="4">
-        <f t="shared" si="6"/>
-        <v>8.6e+17</v>
+        <v>1.72e+17</v>
       </c>
       <c r="I176" s="2">
         <v>204</v>
@@ -8940,11 +8904,11 @@
         <v>100</v>
       </c>
       <c r="M176" s="3">
+        <f t="shared" si="6"/>
+        <v>70000000000</v>
+      </c>
+      <c r="N176" s="3">
         <f t="shared" si="7"/>
-        <v>70000000000</v>
-      </c>
-      <c r="N176" s="3">
-        <f t="shared" si="8"/>
         <v>70000000000</v>
       </c>
       <c r="O176" s="18" t="s">
@@ -8962,16 +8926,15 @@
         <v>52</v>
       </c>
       <c r="F177" s="4">
+        <v>9200000000000</v>
+      </c>
+      <c r="G177" s="4">
         <f t="shared" si="4"/>
-        <v>46000000000000</v>
-      </c>
-      <c r="G177" s="4">
+        <v>1840000000000</v>
+      </c>
+      <c r="H177" s="4">
         <f t="shared" si="5"/>
-        <v>9200000000000</v>
-      </c>
-      <c r="H177" s="4">
-        <f t="shared" si="6"/>
-        <v>9.2e+17</v>
+        <v>1.84e+17</v>
       </c>
       <c r="I177" s="2">
         <v>205</v>
@@ -8986,11 +8949,11 @@
         <v>100</v>
       </c>
       <c r="M177" s="3">
+        <f t="shared" si="6"/>
+        <v>71000000000</v>
+      </c>
+      <c r="N177" s="3">
         <f t="shared" si="7"/>
-        <v>71000000000</v>
-      </c>
-      <c r="N177" s="3">
-        <f t="shared" si="8"/>
         <v>71000000000</v>
       </c>
       <c r="O177" s="18" t="s">
@@ -9008,16 +8971,15 @@
         <v>52</v>
       </c>
       <c r="F178" s="4">
+        <v>9900000000000</v>
+      </c>
+      <c r="G178" s="4">
         <f t="shared" si="4"/>
-        <v>49000000000000</v>
-      </c>
-      <c r="G178" s="4">
+        <v>1980000000000</v>
+      </c>
+      <c r="H178" s="4">
         <f t="shared" si="5"/>
-        <v>9800000000000</v>
-      </c>
-      <c r="H178" s="4">
-        <f t="shared" si="6"/>
-        <v>9.8e+17</v>
+        <v>1.98e+17</v>
       </c>
       <c r="I178" s="2">
         <v>206</v>
@@ -9032,11 +8994,11 @@
         <v>100</v>
       </c>
       <c r="M178" s="3">
+        <f t="shared" si="6"/>
+        <v>72000000000</v>
+      </c>
+      <c r="N178" s="3">
         <f t="shared" si="7"/>
-        <v>72000000000</v>
-      </c>
-      <c r="N178" s="3">
-        <f t="shared" si="8"/>
         <v>72000000000</v>
       </c>
       <c r="O178" s="18" t="s">
@@ -9054,16 +9016,15 @@
         <v>52</v>
       </c>
       <c r="F179" s="4">
+        <v>10000000000000</v>
+      </c>
+      <c r="G179" s="4">
         <f t="shared" si="4"/>
-        <v>53000000000000</v>
-      </c>
-      <c r="G179" s="4">
+        <v>2000000000000</v>
+      </c>
+      <c r="H179" s="4">
         <f t="shared" si="5"/>
-        <v>10600000000000</v>
-      </c>
-      <c r="H179" s="4">
-        <f t="shared" si="6"/>
-        <v>1.06e+18</v>
+        <v>2e+17</v>
       </c>
       <c r="I179" s="2">
         <v>207</v>
@@ -9078,11 +9039,11 @@
         <v>100</v>
       </c>
       <c r="M179" s="3">
+        <f t="shared" si="6"/>
+        <v>73000000000</v>
+      </c>
+      <c r="N179" s="3">
         <f t="shared" si="7"/>
-        <v>73000000000</v>
-      </c>
-      <c r="N179" s="3">
-        <f t="shared" si="8"/>
         <v>73000000000</v>
       </c>
       <c r="O179" s="18" t="s">
@@ -9100,16 +9061,15 @@
         <v>52</v>
       </c>
       <c r="F180" s="4">
+        <v>11000000000000</v>
+      </c>
+      <c r="G180" s="4">
         <f t="shared" si="4"/>
-        <v>57000000000000</v>
-      </c>
-      <c r="G180" s="4">
+        <v>2200000000000</v>
+      </c>
+      <c r="H180" s="4">
         <f t="shared" si="5"/>
-        <v>11400000000000</v>
-      </c>
-      <c r="H180" s="4">
-        <f t="shared" si="6"/>
-        <v>1.14e+18</v>
+        <v>2.2e+17</v>
       </c>
       <c r="I180" s="2">
         <v>208</v>
@@ -9124,11 +9084,11 @@
         <v>100</v>
       </c>
       <c r="M180" s="3">
+        <f t="shared" si="6"/>
+        <v>74000000000</v>
+      </c>
+      <c r="N180" s="3">
         <f t="shared" si="7"/>
-        <v>74000000000</v>
-      </c>
-      <c r="N180" s="3">
-        <f t="shared" si="8"/>
         <v>74000000000</v>
       </c>
       <c r="O180" s="18" t="s">
@@ -9146,16 +9106,15 @@
         <v>52</v>
       </c>
       <c r="F181" s="4">
+        <v>12000000000000</v>
+      </c>
+      <c r="G181" s="4">
         <f t="shared" si="4"/>
-        <v>61000000000000</v>
-      </c>
-      <c r="G181" s="4">
+        <v>2400000000000</v>
+      </c>
+      <c r="H181" s="4">
         <f t="shared" si="5"/>
-        <v>12200000000000</v>
-      </c>
-      <c r="H181" s="4">
-        <f t="shared" si="6"/>
-        <v>1.22e+18</v>
+        <v>2.4e+17</v>
       </c>
       <c r="I181" s="2">
         <v>209</v>
@@ -9170,11 +9129,11 @@
         <v>100</v>
       </c>
       <c r="M181" s="3">
+        <f t="shared" si="6"/>
+        <v>75000000000</v>
+      </c>
+      <c r="N181" s="3">
         <f t="shared" si="7"/>
-        <v>75000000000</v>
-      </c>
-      <c r="N181" s="3">
-        <f t="shared" si="8"/>
         <v>75000000000</v>
       </c>
       <c r="O181" s="18" t="s">
@@ -9192,16 +9151,15 @@
         <v>52</v>
       </c>
       <c r="F182" s="4">
+        <v>13000000000000</v>
+      </c>
+      <c r="G182" s="4">
         <f t="shared" si="4"/>
-        <v>65000000000000</v>
-      </c>
-      <c r="G182" s="4">
+        <v>2600000000000</v>
+      </c>
+      <c r="H182" s="4">
         <f t="shared" si="5"/>
-        <v>13000000000000</v>
-      </c>
-      <c r="H182" s="4">
-        <f t="shared" si="6"/>
-        <v>1.3e+18</v>
+        <v>2.6e+17</v>
       </c>
       <c r="I182" s="2">
         <v>210</v>
@@ -9216,11 +9174,11 @@
         <v>100</v>
       </c>
       <c r="M182" s="3">
+        <f t="shared" si="6"/>
+        <v>76000000000</v>
+      </c>
+      <c r="N182" s="3">
         <f t="shared" si="7"/>
-        <v>76000000000</v>
-      </c>
-      <c r="N182" s="3">
-        <f t="shared" si="8"/>
         <v>76000000000</v>
       </c>
       <c r="O182" s="18" t="s">
@@ -9238,16 +9196,15 @@
         <v>52</v>
       </c>
       <c r="F183" s="4">
+        <v>14000000000000</v>
+      </c>
+      <c r="G183" s="4">
         <f t="shared" si="4"/>
-        <v>70000000000000</v>
-      </c>
-      <c r="G183" s="4">
+        <v>2800000000000</v>
+      </c>
+      <c r="H183" s="4">
         <f t="shared" si="5"/>
-        <v>14000000000000</v>
-      </c>
-      <c r="H183" s="4">
-        <f t="shared" si="6"/>
-        <v>1.4e+18</v>
+        <v>2.8e+17</v>
       </c>
       <c r="I183" s="2">
         <v>211</v>
@@ -9262,11 +9219,11 @@
         <v>100</v>
       </c>
       <c r="M183" s="3">
+        <f t="shared" si="6"/>
+        <v>77000000000</v>
+      </c>
+      <c r="N183" s="3">
         <f t="shared" si="7"/>
-        <v>77000000000</v>
-      </c>
-      <c r="N183" s="3">
-        <f t="shared" si="8"/>
         <v>77000000000</v>
       </c>
       <c r="O183" s="18" t="s">
@@ -9284,16 +9241,15 @@
         <v>52</v>
       </c>
       <c r="F184" s="4">
+        <v>15000000000000</v>
+      </c>
+      <c r="G184" s="4">
         <f t="shared" si="4"/>
-        <v>75000000000000</v>
-      </c>
-      <c r="G184" s="4">
+        <v>3000000000000</v>
+      </c>
+      <c r="H184" s="4">
         <f t="shared" si="5"/>
-        <v>15000000000000</v>
-      </c>
-      <c r="H184" s="4">
-        <f t="shared" si="6"/>
-        <v>1.5e+18</v>
+        <v>3e+17</v>
       </c>
       <c r="I184" s="2">
         <v>212</v>
@@ -9308,11 +9264,11 @@
         <v>100</v>
       </c>
       <c r="M184" s="3">
+        <f t="shared" si="6"/>
+        <v>78000000000</v>
+      </c>
+      <c r="N184" s="3">
         <f t="shared" si="7"/>
-        <v>78000000000</v>
-      </c>
-      <c r="N184" s="3">
-        <f t="shared" si="8"/>
         <v>78000000000</v>
       </c>
       <c r="O184" s="18" t="s">
@@ -9330,16 +9286,15 @@
         <v>52</v>
       </c>
       <c r="F185" s="4">
+        <v>16000000000000</v>
+      </c>
+      <c r="G185" s="4">
         <f t="shared" si="4"/>
-        <v>80000000000000</v>
-      </c>
-      <c r="G185" s="4">
+        <v>3200000000000</v>
+      </c>
+      <c r="H185" s="4">
         <f t="shared" si="5"/>
-        <v>16000000000000</v>
-      </c>
-      <c r="H185" s="4">
-        <f t="shared" si="6"/>
-        <v>1.6e+18</v>
+        <v>3.2e+17</v>
       </c>
       <c r="I185" s="2">
         <v>213</v>
@@ -9354,11 +9309,11 @@
         <v>100</v>
       </c>
       <c r="M185" s="3">
+        <f t="shared" si="6"/>
+        <v>79000000000</v>
+      </c>
+      <c r="N185" s="3">
         <f t="shared" si="7"/>
-        <v>79000000000</v>
-      </c>
-      <c r="N185" s="3">
-        <f t="shared" si="8"/>
         <v>79000000000</v>
       </c>
       <c r="O185" s="18" t="s">
@@ -9376,16 +9331,15 @@
         <v>52</v>
       </c>
       <c r="F186" s="4">
+        <v>17000000000000</v>
+      </c>
+      <c r="G186" s="4">
         <f t="shared" si="4"/>
-        <v>86000000000000</v>
-      </c>
-      <c r="G186" s="4">
+        <v>3400000000000</v>
+      </c>
+      <c r="H186" s="4">
         <f t="shared" si="5"/>
-        <v>17200000000000</v>
-      </c>
-      <c r="H186" s="4">
-        <f t="shared" si="6"/>
-        <v>1.72e+18</v>
+        <v>3.4e+17</v>
       </c>
       <c r="I186" s="2">
         <v>214</v>
@@ -9400,11 +9354,11 @@
         <v>100</v>
       </c>
       <c r="M186" s="3">
+        <f t="shared" si="6"/>
+        <v>80000000000</v>
+      </c>
+      <c r="N186" s="3">
         <f t="shared" si="7"/>
-        <v>80000000000</v>
-      </c>
-      <c r="N186" s="3">
-        <f t="shared" si="8"/>
         <v>80000000000</v>
       </c>
       <c r="O186" s="18" t="s">
@@ -9422,16 +9376,15 @@
         <v>52</v>
       </c>
       <c r="F187" s="4">
+        <v>18000000000000</v>
+      </c>
+      <c r="G187" s="4">
         <f t="shared" si="4"/>
-        <v>92000000000000</v>
-      </c>
-      <c r="G187" s="4">
+        <v>3600000000000</v>
+      </c>
+      <c r="H187" s="4">
         <f t="shared" si="5"/>
-        <v>18400000000000</v>
-      </c>
-      <c r="H187" s="4">
-        <f t="shared" si="6"/>
-        <v>1.84e+18</v>
+        <v>3.6e+17</v>
       </c>
       <c r="I187" s="2">
         <v>215</v>
@@ -9446,11 +9399,11 @@
         <v>100</v>
       </c>
       <c r="M187" s="3">
+        <f t="shared" si="6"/>
+        <v>81000000000</v>
+      </c>
+      <c r="N187" s="3">
         <f t="shared" si="7"/>
-        <v>81000000000</v>
-      </c>
-      <c r="N187" s="3">
-        <f t="shared" si="8"/>
         <v>81000000000</v>
       </c>
       <c r="O187" s="18" t="s">
@@ -9468,16 +9421,15 @@
         <v>52</v>
       </c>
       <c r="F188" s="4">
+        <v>19000000000000</v>
+      </c>
+      <c r="G188" s="4">
         <f t="shared" si="4"/>
-        <v>99000000000000</v>
-      </c>
-      <c r="G188" s="4">
+        <v>3800000000000</v>
+      </c>
+      <c r="H188" s="4">
         <f t="shared" si="5"/>
-        <v>19800000000000</v>
-      </c>
-      <c r="H188" s="4">
-        <f t="shared" si="6"/>
-        <v>1.98e+18</v>
+        <v>3.8e+17</v>
       </c>
       <c r="I188" s="2">
         <v>216</v>
@@ -9492,11 +9444,11 @@
         <v>100</v>
       </c>
       <c r="M188" s="3">
+        <f t="shared" si="6"/>
+        <v>82000000000</v>
+      </c>
+      <c r="N188" s="3">
         <f t="shared" si="7"/>
-        <v>82000000000</v>
-      </c>
-      <c r="N188" s="3">
-        <f t="shared" si="8"/>
         <v>82000000000</v>
       </c>
       <c r="O188" s="18" t="s">
@@ -9514,16 +9466,15 @@
         <v>52</v>
       </c>
       <c r="F189" s="4">
+        <v>21000000000000</v>
+      </c>
+      <c r="G189" s="4">
         <f t="shared" si="4"/>
-        <v>100000000000000</v>
-      </c>
-      <c r="G189" s="4">
+        <v>4200000000000</v>
+      </c>
+      <c r="H189" s="4">
         <f t="shared" si="5"/>
-        <v>20000000000000</v>
-      </c>
-      <c r="H189" s="4">
-        <f t="shared" si="6"/>
-        <v>2e+18</v>
+        <v>4.2e+17</v>
       </c>
       <c r="I189" s="2">
         <v>217</v>
@@ -9538,11 +9489,11 @@
         <v>100</v>
       </c>
       <c r="M189" s="3">
+        <f t="shared" si="6"/>
+        <v>83000000000</v>
+      </c>
+      <c r="N189" s="3">
         <f t="shared" si="7"/>
-        <v>83000000000</v>
-      </c>
-      <c r="N189" s="3">
-        <f t="shared" si="8"/>
         <v>83000000000</v>
       </c>
       <c r="O189" s="18" t="s">
@@ -9560,16 +9511,15 @@
         <v>52</v>
       </c>
       <c r="F190" s="4">
+        <v>22000000000000</v>
+      </c>
+      <c r="G190" s="4">
         <f t="shared" si="4"/>
-        <v>110000000000000</v>
-      </c>
-      <c r="G190" s="4">
+        <v>4400000000000</v>
+      </c>
+      <c r="H190" s="4">
         <f t="shared" si="5"/>
-        <v>22000000000000</v>
-      </c>
-      <c r="H190" s="4">
-        <f t="shared" si="6"/>
-        <v>2.2e+18</v>
+        <v>4.4e+17</v>
       </c>
       <c r="I190" s="2">
         <v>218</v>
@@ -9584,11 +9534,11 @@
         <v>100</v>
       </c>
       <c r="M190" s="3">
+        <f t="shared" si="6"/>
+        <v>84000000000</v>
+      </c>
+      <c r="N190" s="3">
         <f t="shared" si="7"/>
-        <v>84000000000</v>
-      </c>
-      <c r="N190" s="3">
-        <f t="shared" si="8"/>
         <v>84000000000</v>
       </c>
       <c r="O190" s="18" t="s">
@@ -9606,16 +9556,15 @@
         <v>52</v>
       </c>
       <c r="F191" s="4">
+        <v>24000000000000</v>
+      </c>
+      <c r="G191" s="4">
         <f t="shared" si="4"/>
-        <v>120000000000000</v>
-      </c>
-      <c r="G191" s="4">
+        <v>4800000000000</v>
+      </c>
+      <c r="H191" s="4">
         <f t="shared" si="5"/>
-        <v>24000000000000</v>
-      </c>
-      <c r="H191" s="4">
-        <f t="shared" si="6"/>
-        <v>2.4e+18</v>
+        <v>4.8e+17</v>
       </c>
       <c r="I191" s="2">
         <v>219</v>
@@ -9630,11 +9579,11 @@
         <v>100</v>
       </c>
       <c r="M191" s="3">
+        <f t="shared" si="6"/>
+        <v>85000000000</v>
+      </c>
+      <c r="N191" s="3">
         <f t="shared" si="7"/>
-        <v>85000000000</v>
-      </c>
-      <c r="N191" s="3">
-        <f t="shared" si="8"/>
         <v>85000000000</v>
       </c>
       <c r="O191" s="18" t="s">
@@ -9652,16 +9601,15 @@
         <v>52</v>
       </c>
       <c r="F192" s="4">
+        <v>26000000000000</v>
+      </c>
+      <c r="G192" s="4">
         <f t="shared" si="4"/>
-        <v>130000000000000</v>
-      </c>
-      <c r="G192" s="4">
+        <v>5200000000000</v>
+      </c>
+      <c r="H192" s="4">
         <f t="shared" si="5"/>
-        <v>26000000000000</v>
-      </c>
-      <c r="H192" s="4">
-        <f t="shared" si="6"/>
-        <v>2.6e+18</v>
+        <v>5.2e+17</v>
       </c>
       <c r="I192" s="2">
         <v>220</v>
@@ -9676,11 +9624,11 @@
         <v>100</v>
       </c>
       <c r="M192" s="3">
+        <f t="shared" si="6"/>
+        <v>86000000000</v>
+      </c>
+      <c r="N192" s="3">
         <f t="shared" si="7"/>
-        <v>86000000000</v>
-      </c>
-      <c r="N192" s="3">
-        <f t="shared" si="8"/>
         <v>86000000000</v>
       </c>
       <c r="O192" s="18" t="s">
@@ -9698,16 +9646,15 @@
         <v>52</v>
       </c>
       <c r="F193" s="4">
+        <v>28000000000000</v>
+      </c>
+      <c r="G193" s="4">
         <f t="shared" si="4"/>
-        <v>140000000000000</v>
-      </c>
-      <c r="G193" s="4">
+        <v>5600000000000</v>
+      </c>
+      <c r="H193" s="4">
         <f t="shared" si="5"/>
-        <v>28000000000000</v>
-      </c>
-      <c r="H193" s="4">
-        <f t="shared" si="6"/>
-        <v>2.8e+18</v>
+        <v>5.6e+17</v>
       </c>
       <c r="I193" s="2">
         <v>221</v>
@@ -9722,11 +9669,11 @@
         <v>100</v>
       </c>
       <c r="M193" s="3">
+        <f t="shared" si="6"/>
+        <v>87000000000</v>
+      </c>
+      <c r="N193" s="3">
         <f t="shared" si="7"/>
-        <v>87000000000</v>
-      </c>
-      <c r="N193" s="3">
-        <f t="shared" si="8"/>
         <v>87000000000</v>
       </c>
       <c r="O193" s="18" t="s">
@@ -9744,16 +9691,15 @@
         <v>52</v>
       </c>
       <c r="F194" s="4">
+        <v>30000000000000</v>
+      </c>
+      <c r="G194" s="4">
         <f t="shared" si="4"/>
-        <v>150000000000000</v>
-      </c>
-      <c r="G194" s="4">
+        <v>6000000000000</v>
+      </c>
+      <c r="H194" s="4">
         <f t="shared" si="5"/>
-        <v>30000000000000</v>
-      </c>
-      <c r="H194" s="4">
-        <f t="shared" si="6"/>
-        <v>3e+18</v>
+        <v>6e+17</v>
       </c>
       <c r="I194" s="2">
         <v>222</v>
@@ -9768,11 +9714,11 @@
         <v>100</v>
       </c>
       <c r="M194" s="3">
+        <f t="shared" si="6"/>
+        <v>88000000000</v>
+      </c>
+      <c r="N194" s="3">
         <f t="shared" si="7"/>
-        <v>88000000000</v>
-      </c>
-      <c r="N194" s="3">
-        <f t="shared" si="8"/>
         <v>88000000000</v>
       </c>
       <c r="O194" s="18" t="s">
@@ -9790,16 +9736,15 @@
         <v>52</v>
       </c>
       <c r="F195" s="4">
+        <v>32000000000000</v>
+      </c>
+      <c r="G195" s="4">
         <f t="shared" si="4"/>
-        <v>160000000000000</v>
-      </c>
-      <c r="G195" s="4">
+        <v>6400000000000</v>
+      </c>
+      <c r="H195" s="4">
         <f t="shared" si="5"/>
-        <v>32000000000000</v>
-      </c>
-      <c r="H195" s="4">
-        <f t="shared" si="6"/>
-        <v>3.2e+18</v>
+        <v>6.4e+17</v>
       </c>
       <c r="I195" s="2">
         <v>223</v>
@@ -9814,11 +9759,11 @@
         <v>100</v>
       </c>
       <c r="M195" s="3">
+        <f t="shared" si="6"/>
+        <v>89000000000</v>
+      </c>
+      <c r="N195" s="3">
         <f t="shared" si="7"/>
-        <v>89000000000</v>
-      </c>
-      <c r="N195" s="3">
-        <f t="shared" si="8"/>
         <v>89000000000</v>
       </c>
       <c r="O195" s="18" t="s">
@@ -9836,16 +9781,15 @@
         <v>52</v>
       </c>
       <c r="F196" s="4">
+        <v>34000000000000</v>
+      </c>
+      <c r="G196" s="4">
         <f t="shared" si="4"/>
-        <v>170000000000000</v>
-      </c>
-      <c r="G196" s="4">
+        <v>6800000000000</v>
+      </c>
+      <c r="H196" s="4">
         <f t="shared" si="5"/>
-        <v>34000000000000</v>
-      </c>
-      <c r="H196" s="4">
-        <f t="shared" si="6"/>
-        <v>3.4e+18</v>
+        <v>6.8e+17</v>
       </c>
       <c r="I196" s="2">
         <v>224</v>
@@ -9860,11 +9804,11 @@
         <v>100</v>
       </c>
       <c r="M196" s="3">
+        <f t="shared" si="6"/>
+        <v>90000000000</v>
+      </c>
+      <c r="N196" s="3">
         <f t="shared" si="7"/>
-        <v>90000000000</v>
-      </c>
-      <c r="N196" s="3">
-        <f t="shared" si="8"/>
         <v>90000000000</v>
       </c>
       <c r="O196" s="18" t="s">
@@ -9882,16 +9826,15 @@
         <v>52</v>
       </c>
       <c r="F197" s="4">
+        <v>37000000000000</v>
+      </c>
+      <c r="G197" s="4">
         <f t="shared" si="4"/>
-        <v>180000000000000</v>
-      </c>
-      <c r="G197" s="4">
+        <v>7400000000000</v>
+      </c>
+      <c r="H197" s="4">
         <f t="shared" si="5"/>
-        <v>36000000000000</v>
-      </c>
-      <c r="H197" s="4">
-        <f t="shared" si="6"/>
-        <v>3.6e+18</v>
+        <v>7.4e+17</v>
       </c>
       <c r="I197" s="2">
         <v>225</v>
@@ -9906,11 +9849,11 @@
         <v>100</v>
       </c>
       <c r="M197" s="3">
+        <f t="shared" si="6"/>
+        <v>91000000000</v>
+      </c>
+      <c r="N197" s="3">
         <f t="shared" si="7"/>
-        <v>91000000000</v>
-      </c>
-      <c r="N197" s="3">
-        <f t="shared" si="8"/>
         <v>91000000000</v>
       </c>
       <c r="O197" s="18" t="s">
@@ -9928,16 +9871,15 @@
         <v>52</v>
       </c>
       <c r="F198" s="4">
+        <v>40000000000000</v>
+      </c>
+      <c r="G198" s="4">
         <f t="shared" si="4"/>
-        <v>200000000000000</v>
-      </c>
-      <c r="G198" s="4">
+        <v>8000000000000</v>
+      </c>
+      <c r="H198" s="4">
         <f t="shared" si="5"/>
-        <v>40000000000000</v>
-      </c>
-      <c r="H198" s="4">
-        <f t="shared" si="6"/>
-        <v>4e+18</v>
+        <v>8e+17</v>
       </c>
       <c r="I198" s="2">
         <v>226</v>
@@ -9952,11 +9894,11 @@
         <v>100</v>
       </c>
       <c r="M198" s="3">
+        <f t="shared" si="6"/>
+        <v>92000000000</v>
+      </c>
+      <c r="N198" s="3">
         <f t="shared" si="7"/>
-        <v>92000000000</v>
-      </c>
-      <c r="N198" s="3">
-        <f t="shared" si="8"/>
         <v>92000000000</v>
       </c>
       <c r="O198" s="18" t="s">
@@ -9974,16 +9916,15 @@
         <v>52</v>
       </c>
       <c r="F199" s="4">
+        <v>42000000000000</v>
+      </c>
+      <c r="G199" s="4">
         <f t="shared" si="4"/>
-        <v>210000000000000</v>
-      </c>
-      <c r="G199" s="4">
+        <v>8400000000000</v>
+      </c>
+      <c r="H199" s="4">
         <f t="shared" si="5"/>
-        <v>42000000000000</v>
-      </c>
-      <c r="H199" s="4">
-        <f t="shared" si="6"/>
-        <v>4.2e+18</v>
+        <v>8.4e+17</v>
       </c>
       <c r="I199" s="2">
         <v>227</v>
@@ -9998,11 +9939,11 @@
         <v>100</v>
       </c>
       <c r="M199" s="3">
+        <f t="shared" si="6"/>
+        <v>93000000000</v>
+      </c>
+      <c r="N199" s="3">
         <f t="shared" si="7"/>
-        <v>93000000000</v>
-      </c>
-      <c r="N199" s="3">
-        <f t="shared" si="8"/>
         <v>93000000000</v>
       </c>
       <c r="O199" s="18" t="s">
@@ -10020,16 +9961,15 @@
         <v>52</v>
       </c>
       <c r="F200" s="4">
+        <v>46000000000000</v>
+      </c>
+      <c r="G200" s="4">
         <f t="shared" si="4"/>
-        <v>230000000000000</v>
-      </c>
-      <c r="G200" s="4">
+        <v>9200000000000</v>
+      </c>
+      <c r="H200" s="4">
         <f t="shared" si="5"/>
-        <v>46000000000000</v>
-      </c>
-      <c r="H200" s="4">
-        <f t="shared" si="6"/>
-        <v>4.6e+18</v>
+        <v>9.2e+17</v>
       </c>
       <c r="I200" s="2">
         <v>228</v>
@@ -10044,11 +9984,11 @@
         <v>100</v>
       </c>
       <c r="M200" s="3">
+        <f t="shared" si="6"/>
+        <v>94000000000</v>
+      </c>
+      <c r="N200" s="3">
         <f t="shared" si="7"/>
-        <v>94000000000</v>
-      </c>
-      <c r="N200" s="3">
-        <f t="shared" si="8"/>
         <v>94000000000</v>
       </c>
       <c r="O200" s="18" t="s">
@@ -10066,16 +10006,15 @@
         <v>52</v>
       </c>
       <c r="F201" s="4">
+        <v>49000000000000</v>
+      </c>
+      <c r="G201" s="4">
         <f t="shared" si="4"/>
-        <v>240000000000000</v>
-      </c>
-      <c r="G201" s="4">
+        <v>9800000000000</v>
+      </c>
+      <c r="H201" s="4">
         <f t="shared" si="5"/>
-        <v>48000000000000</v>
-      </c>
-      <c r="H201" s="4">
-        <f t="shared" si="6"/>
-        <v>4.8e+18</v>
+        <v>9.8e+17</v>
       </c>
       <c r="I201" s="2">
         <v>229</v>
@@ -10090,11 +10029,11 @@
         <v>100</v>
       </c>
       <c r="M201" s="3">
+        <f t="shared" si="6"/>
+        <v>95000000000</v>
+      </c>
+      <c r="N201" s="3">
         <f t="shared" si="7"/>
-        <v>95000000000</v>
-      </c>
-      <c r="N201" s="3">
-        <f t="shared" si="8"/>
         <v>95000000000</v>
       </c>
       <c r="O201" s="18" t="s">
@@ -10112,16 +10051,15 @@
         <v>52</v>
       </c>
       <c r="F202" s="4">
+        <v>52000000000000</v>
+      </c>
+      <c r="G202" s="4">
         <f t="shared" si="4"/>
-        <v>260000000000000</v>
-      </c>
-      <c r="G202" s="4">
+        <v>10400000000000</v>
+      </c>
+      <c r="H202" s="4">
         <f t="shared" si="5"/>
-        <v>52000000000000</v>
-      </c>
-      <c r="H202" s="4">
-        <f t="shared" si="6"/>
-        <v>5.2e+18</v>
+        <v>1.04e+18</v>
       </c>
       <c r="I202" s="2">
         <v>230</v>
@@ -10136,11 +10074,11 @@
         <v>100</v>
       </c>
       <c r="M202" s="3">
+        <f t="shared" si="6"/>
+        <v>96000000000</v>
+      </c>
+      <c r="N202" s="3">
         <f t="shared" si="7"/>
-        <v>96000000000</v>
-      </c>
-      <c r="N202" s="3">
-        <f t="shared" si="8"/>
         <v>96000000000</v>
       </c>
       <c r="O202" s="18" t="s">
@@ -10158,16 +10096,15 @@
         <v>52</v>
       </c>
       <c r="F203" s="4">
+        <v>56000000000000</v>
+      </c>
+      <c r="G203" s="4">
         <f t="shared" si="4"/>
-        <v>280000000000000</v>
-      </c>
-      <c r="G203" s="4">
+        <v>11200000000000</v>
+      </c>
+      <c r="H203" s="4">
         <f t="shared" si="5"/>
-        <v>56000000000000</v>
-      </c>
-      <c r="H203" s="4">
-        <f t="shared" si="6"/>
-        <v>5.6e+18</v>
+        <v>1.12e+18</v>
       </c>
       <c r="I203" s="2">
         <v>231</v>
@@ -10182,11 +10119,11 @@
         <v>100</v>
       </c>
       <c r="M203" s="3">
+        <f t="shared" si="6"/>
+        <v>97000000000</v>
+      </c>
+      <c r="N203" s="3">
         <f t="shared" si="7"/>
-        <v>97000000000</v>
-      </c>
-      <c r="N203" s="3">
-        <f t="shared" si="8"/>
         <v>97000000000</v>
       </c>
       <c r="O203" s="18" t="s">
@@ -10204,16 +10141,15 @@
         <v>52</v>
       </c>
       <c r="F204" s="4">
+        <v>60000000000000</v>
+      </c>
+      <c r="G204" s="4">
         <f t="shared" si="4"/>
-        <v>300000000000000</v>
-      </c>
-      <c r="G204" s="4">
+        <v>12000000000000</v>
+      </c>
+      <c r="H204" s="4">
         <f t="shared" si="5"/>
-        <v>60000000000000</v>
-      </c>
-      <c r="H204" s="4">
-        <f t="shared" si="6"/>
-        <v>6e+18</v>
+        <v>1.2e+18</v>
       </c>
       <c r="I204" s="2">
         <v>232</v>
@@ -10228,11 +10164,11 @@
         <v>100</v>
       </c>
       <c r="M204" s="3">
+        <f t="shared" si="6"/>
+        <v>98000000000</v>
+      </c>
+      <c r="N204" s="3">
         <f t="shared" si="7"/>
-        <v>98000000000</v>
-      </c>
-      <c r="N204" s="3">
-        <f t="shared" si="8"/>
         <v>98000000000</v>
       </c>
       <c r="O204" s="18" t="s">
@@ -10250,16 +10186,15 @@
         <v>52</v>
       </c>
       <c r="F205" s="4">
-        <f t="shared" ref="F205:H205" si="9">F172*10</f>
-        <v>320000000000000</v>
+        <v>65000000000000</v>
       </c>
       <c r="G205" s="4">
-        <f t="shared" si="9"/>
-        <v>64000000000000</v>
+        <f t="shared" ref="F205:H205" si="8">G172*10</f>
+        <v>13000000000000</v>
       </c>
       <c r="H205" s="4">
-        <f t="shared" si="9"/>
-        <v>6.4e+18</v>
+        <f t="shared" si="8"/>
+        <v>1.3e+18</v>
       </c>
       <c r="I205" s="2">
         <v>233</v>
@@ -10274,11 +10209,11 @@
         <v>100</v>
       </c>
       <c r="M205" s="3">
+        <f t="shared" si="6"/>
+        <v>99000000000</v>
+      </c>
+      <c r="N205" s="3">
         <f t="shared" si="7"/>
-        <v>99000000000</v>
-      </c>
-      <c r="N205" s="3">
-        <f t="shared" si="8"/>
         <v>99000000000</v>
       </c>
       <c r="O205" s="18" t="s">
@@ -10297,16 +10232,15 @@
         <v>52</v>
       </c>
       <c r="F206" s="4">
-        <f t="shared" ref="F206:H206" si="10">F173*10</f>
-        <v>350000000000000</v>
+        <v>70000000000000</v>
       </c>
       <c r="G206" s="4">
-        <f t="shared" si="10"/>
-        <v>70000000000000</v>
+        <f t="shared" ref="F206:H206" si="9">G173*10</f>
+        <v>14000000000000</v>
       </c>
       <c r="H206" s="4">
-        <f t="shared" si="10"/>
-        <v>7e+18</v>
+        <f t="shared" si="9"/>
+        <v>1.4e+18</v>
       </c>
       <c r="I206" s="2">
         <v>234</v>
@@ -10321,11 +10255,11 @@
         <v>100</v>
       </c>
       <c r="M206" s="3">
+        <f t="shared" si="6"/>
+        <v>100000000000</v>
+      </c>
+      <c r="N206" s="3">
         <f t="shared" si="7"/>
-        <v>100000000000</v>
-      </c>
-      <c r="N206" s="3">
-        <f t="shared" si="8"/>
         <v>100000000000</v>
       </c>
       <c r="O206" s="18" t="s">

--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -1257,7 +1257,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F108" sqref="F108:F206"/>
+      <selection pane="bottomLeft" activeCell="N108" sqref="N108:N206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -5804,7 +5804,7 @@
         <v>1000000000</v>
       </c>
       <c r="N107" s="16">
-        <v>1000000000</v>
+        <v>200000000</v>
       </c>
       <c r="O107" s="18" t="s">
         <v>32</v>
@@ -5848,8 +5848,8 @@
         <v>2000000000</v>
       </c>
       <c r="N108" s="3">
-        <f t="shared" ref="N108:N171" si="3">N107+1000000000</f>
-        <v>2000000000</v>
+        <f t="shared" ref="N108:N171" si="3">N107+200000000</f>
+        <v>400000000</v>
       </c>
       <c r="O108" s="18" t="s">
         <v>32</v>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="N109" s="3">
         <f t="shared" si="3"/>
-        <v>3000000000</v>
+        <v>600000000</v>
       </c>
       <c r="O109" s="18" t="s">
         <v>32</v>
@@ -5939,7 +5939,7 @@
       </c>
       <c r="N110" s="3">
         <f t="shared" si="3"/>
-        <v>4000000000</v>
+        <v>800000000</v>
       </c>
       <c r="O110" s="18" t="s">
         <v>32</v>
@@ -5984,7 +5984,7 @@
       </c>
       <c r="N111" s="3">
         <f t="shared" si="3"/>
-        <v>5000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="O111" s="18" t="s">
         <v>32</v>
@@ -6029,7 +6029,7 @@
       </c>
       <c r="N112" s="3">
         <f t="shared" si="3"/>
-        <v>6000000000</v>
+        <v>1200000000</v>
       </c>
       <c r="O112" s="18" t="s">
         <v>32</v>
@@ -6074,7 +6074,7 @@
       </c>
       <c r="N113" s="3">
         <f t="shared" si="3"/>
-        <v>7000000000</v>
+        <v>1400000000</v>
       </c>
       <c r="O113" s="18" t="s">
         <v>32</v>
@@ -6119,7 +6119,7 @@
       </c>
       <c r="N114" s="3">
         <f t="shared" si="3"/>
-        <v>8000000000</v>
+        <v>1600000000</v>
       </c>
       <c r="O114" s="18" t="s">
         <v>32</v>
@@ -6164,7 +6164,7 @@
       </c>
       <c r="N115" s="3">
         <f t="shared" si="3"/>
-        <v>9000000000</v>
+        <v>1800000000</v>
       </c>
       <c r="O115" s="18" t="s">
         <v>32</v>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="N116" s="3">
         <f t="shared" si="3"/>
-        <v>10000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="O116" s="18" t="s">
         <v>32</v>
@@ -6254,7 +6254,7 @@
       </c>
       <c r="N117" s="3">
         <f t="shared" si="3"/>
-        <v>11000000000</v>
+        <v>2200000000</v>
       </c>
       <c r="O117" s="18" t="s">
         <v>32</v>
@@ -6299,7 +6299,7 @@
       </c>
       <c r="N118" s="3">
         <f t="shared" si="3"/>
-        <v>12000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="O118" s="18" t="s">
         <v>32</v>
@@ -6344,7 +6344,7 @@
       </c>
       <c r="N119" s="3">
         <f t="shared" si="3"/>
-        <v>13000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="O119" s="18" t="s">
         <v>32</v>
@@ -6389,7 +6389,7 @@
       </c>
       <c r="N120" s="3">
         <f t="shared" si="3"/>
-        <v>14000000000</v>
+        <v>2800000000</v>
       </c>
       <c r="O120" s="18" t="s">
         <v>32</v>
@@ -6434,7 +6434,7 @@
       </c>
       <c r="N121" s="3">
         <f t="shared" si="3"/>
-        <v>15000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="O121" s="18" t="s">
         <v>32</v>
@@ -6479,7 +6479,7 @@
       </c>
       <c r="N122" s="3">
         <f t="shared" si="3"/>
-        <v>16000000000</v>
+        <v>3200000000</v>
       </c>
       <c r="O122" s="18" t="s">
         <v>32</v>
@@ -6524,7 +6524,7 @@
       </c>
       <c r="N123" s="3">
         <f t="shared" si="3"/>
-        <v>17000000000</v>
+        <v>3400000000</v>
       </c>
       <c r="O123" s="18" t="s">
         <v>32</v>
@@ -6569,7 +6569,7 @@
       </c>
       <c r="N124" s="3">
         <f t="shared" si="3"/>
-        <v>18000000000</v>
+        <v>3600000000</v>
       </c>
       <c r="O124" s="18" t="s">
         <v>32</v>
@@ -6614,7 +6614,7 @@
       </c>
       <c r="N125" s="3">
         <f t="shared" si="3"/>
-        <v>19000000000</v>
+        <v>3800000000</v>
       </c>
       <c r="O125" s="18" t="s">
         <v>32</v>
@@ -6659,7 +6659,7 @@
       </c>
       <c r="N126" s="3">
         <f t="shared" si="3"/>
-        <v>20000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="O126" s="18" t="s">
         <v>32</v>
@@ -6704,7 +6704,7 @@
       </c>
       <c r="N127" s="3">
         <f t="shared" si="3"/>
-        <v>21000000000</v>
+        <v>4200000000</v>
       </c>
       <c r="O127" s="18" t="s">
         <v>32</v>
@@ -6749,7 +6749,7 @@
       </c>
       <c r="N128" s="3">
         <f t="shared" si="3"/>
-        <v>22000000000</v>
+        <v>4400000000</v>
       </c>
       <c r="O128" s="18" t="s">
         <v>32</v>
@@ -6794,7 +6794,7 @@
       </c>
       <c r="N129" s="3">
         <f t="shared" si="3"/>
-        <v>23000000000</v>
+        <v>4600000000</v>
       </c>
       <c r="O129" s="18" t="s">
         <v>32</v>
@@ -6839,7 +6839,7 @@
       </c>
       <c r="N130" s="3">
         <f t="shared" si="3"/>
-        <v>24000000000</v>
+        <v>4800000000</v>
       </c>
       <c r="O130" s="18" t="s">
         <v>32</v>
@@ -6884,7 +6884,7 @@
       </c>
       <c r="N131" s="3">
         <f t="shared" si="3"/>
-        <v>25000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="O131" s="18" t="s">
         <v>32</v>
@@ -6929,7 +6929,7 @@
       </c>
       <c r="N132" s="3">
         <f t="shared" si="3"/>
-        <v>26000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="O132" s="18" t="s">
         <v>32</v>
@@ -6974,7 +6974,7 @@
       </c>
       <c r="N133" s="3">
         <f t="shared" si="3"/>
-        <v>27000000000</v>
+        <v>5400000000</v>
       </c>
       <c r="O133" s="18" t="s">
         <v>32</v>
@@ -7019,7 +7019,7 @@
       </c>
       <c r="N134" s="3">
         <f t="shared" si="3"/>
-        <v>28000000000</v>
+        <v>5600000000</v>
       </c>
       <c r="O134" s="18" t="s">
         <v>32</v>
@@ -7064,7 +7064,7 @@
       </c>
       <c r="N135" s="3">
         <f t="shared" si="3"/>
-        <v>29000000000</v>
+        <v>5800000000</v>
       </c>
       <c r="O135" s="18" t="s">
         <v>32</v>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="N136" s="3">
         <f t="shared" si="3"/>
-        <v>30000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="O136" s="18" t="s">
         <v>32</v>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="N137" s="3">
         <f t="shared" si="3"/>
-        <v>31000000000</v>
+        <v>6200000000</v>
       </c>
       <c r="O137" s="18" t="s">
         <v>32</v>
@@ -7199,7 +7199,7 @@
       </c>
       <c r="N138" s="3">
         <f t="shared" si="3"/>
-        <v>32000000000</v>
+        <v>6400000000</v>
       </c>
       <c r="O138" s="18" t="s">
         <v>32</v>
@@ -7244,7 +7244,7 @@
       </c>
       <c r="N139" s="3">
         <f t="shared" si="3"/>
-        <v>33000000000</v>
+        <v>6600000000</v>
       </c>
       <c r="O139" s="18" t="s">
         <v>32</v>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="N140" s="3">
         <f t="shared" si="3"/>
-        <v>34000000000</v>
+        <v>6800000000</v>
       </c>
       <c r="O140" s="18" t="s">
         <v>32</v>
@@ -7334,7 +7334,7 @@
       </c>
       <c r="N141" s="3">
         <f t="shared" si="3"/>
-        <v>35000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="O141" s="18" t="s">
         <v>32</v>
@@ -7379,7 +7379,7 @@
       </c>
       <c r="N142" s="3">
         <f t="shared" si="3"/>
-        <v>36000000000</v>
+        <v>7200000000</v>
       </c>
       <c r="O142" s="18" t="s">
         <v>32</v>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="N143" s="3">
         <f t="shared" si="3"/>
-        <v>37000000000</v>
+        <v>7400000000</v>
       </c>
       <c r="O143" s="18" t="s">
         <v>32</v>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="N144" s="3">
         <f t="shared" si="3"/>
-        <v>38000000000</v>
+        <v>7600000000</v>
       </c>
       <c r="O144" s="18" t="s">
         <v>32</v>
@@ -7514,7 +7514,7 @@
       </c>
       <c r="N145" s="3">
         <f t="shared" si="3"/>
-        <v>39000000000</v>
+        <v>7800000000</v>
       </c>
       <c r="O145" s="18" t="s">
         <v>32</v>
@@ -7559,7 +7559,7 @@
       </c>
       <c r="N146" s="3">
         <f t="shared" si="3"/>
-        <v>40000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="O146" s="18" t="s">
         <v>32</v>
@@ -7604,7 +7604,7 @@
       </c>
       <c r="N147" s="3">
         <f t="shared" si="3"/>
-        <v>41000000000</v>
+        <v>8200000000</v>
       </c>
       <c r="O147" s="18" t="s">
         <v>32</v>
@@ -7649,7 +7649,7 @@
       </c>
       <c r="N148" s="3">
         <f t="shared" si="3"/>
-        <v>42000000000</v>
+        <v>8400000000</v>
       </c>
       <c r="O148" s="18" t="s">
         <v>32</v>
@@ -7694,7 +7694,7 @@
       </c>
       <c r="N149" s="3">
         <f t="shared" si="3"/>
-        <v>43000000000</v>
+        <v>8600000000</v>
       </c>
       <c r="O149" s="18" t="s">
         <v>32</v>
@@ -7739,7 +7739,7 @@
       </c>
       <c r="N150" s="3">
         <f t="shared" si="3"/>
-        <v>44000000000</v>
+        <v>8800000000</v>
       </c>
       <c r="O150" s="18" t="s">
         <v>32</v>
@@ -7784,7 +7784,7 @@
       </c>
       <c r="N151" s="3">
         <f t="shared" si="3"/>
-        <v>45000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="O151" s="18" t="s">
         <v>32</v>
@@ -7829,7 +7829,7 @@
       </c>
       <c r="N152" s="3">
         <f t="shared" si="3"/>
-        <v>46000000000</v>
+        <v>9200000000</v>
       </c>
       <c r="O152" s="18" t="s">
         <v>32</v>
@@ -7874,7 +7874,7 @@
       </c>
       <c r="N153" s="3">
         <f t="shared" si="3"/>
-        <v>47000000000</v>
+        <v>9400000000</v>
       </c>
       <c r="O153" s="18" t="s">
         <v>32</v>
@@ -7919,7 +7919,7 @@
       </c>
       <c r="N154" s="3">
         <f t="shared" si="3"/>
-        <v>48000000000</v>
+        <v>9600000000</v>
       </c>
       <c r="O154" s="18" t="s">
         <v>32</v>
@@ -7964,7 +7964,7 @@
       </c>
       <c r="N155" s="3">
         <f t="shared" si="3"/>
-        <v>49000000000</v>
+        <v>9800000000</v>
       </c>
       <c r="O155" s="18" t="s">
         <v>32</v>
@@ -8009,7 +8009,7 @@
       </c>
       <c r="N156" s="3">
         <f t="shared" si="3"/>
-        <v>50000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="O156" s="18" t="s">
         <v>32</v>
@@ -8054,7 +8054,7 @@
       </c>
       <c r="N157" s="3">
         <f t="shared" si="3"/>
-        <v>51000000000</v>
+        <v>10200000000</v>
       </c>
       <c r="O157" s="18" t="s">
         <v>32</v>
@@ -8099,7 +8099,7 @@
       </c>
       <c r="N158" s="3">
         <f t="shared" si="3"/>
-        <v>52000000000</v>
+        <v>10400000000</v>
       </c>
       <c r="O158" s="18" t="s">
         <v>32</v>
@@ -8144,7 +8144,7 @@
       </c>
       <c r="N159" s="3">
         <f t="shared" si="3"/>
-        <v>53000000000</v>
+        <v>10600000000</v>
       </c>
       <c r="O159" s="18" t="s">
         <v>32</v>
@@ -8189,7 +8189,7 @@
       </c>
       <c r="N160" s="3">
         <f t="shared" si="3"/>
-        <v>54000000000</v>
+        <v>10800000000</v>
       </c>
       <c r="O160" s="18" t="s">
         <v>32</v>
@@ -8234,7 +8234,7 @@
       </c>
       <c r="N161" s="3">
         <f t="shared" si="3"/>
-        <v>55000000000</v>
+        <v>11000000000</v>
       </c>
       <c r="O161" s="18" t="s">
         <v>32</v>
@@ -8279,7 +8279,7 @@
       </c>
       <c r="N162" s="3">
         <f t="shared" si="3"/>
-        <v>56000000000</v>
+        <v>11200000000</v>
       </c>
       <c r="O162" s="18" t="s">
         <v>32</v>
@@ -8324,7 +8324,7 @@
       </c>
       <c r="N163" s="3">
         <f t="shared" si="3"/>
-        <v>57000000000</v>
+        <v>11400000000</v>
       </c>
       <c r="O163" s="18" t="s">
         <v>32</v>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="N164" s="3">
         <f t="shared" si="3"/>
-        <v>58000000000</v>
+        <v>11600000000</v>
       </c>
       <c r="O164" s="18" t="s">
         <v>32</v>
@@ -8414,7 +8414,7 @@
       </c>
       <c r="N165" s="3">
         <f t="shared" si="3"/>
-        <v>59000000000</v>
+        <v>11800000000</v>
       </c>
       <c r="O165" s="18" t="s">
         <v>32</v>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="N166" s="3">
         <f t="shared" si="3"/>
-        <v>60000000000</v>
+        <v>12000000000</v>
       </c>
       <c r="O166" s="18" t="s">
         <v>32</v>
@@ -8504,7 +8504,7 @@
       </c>
       <c r="N167" s="3">
         <f t="shared" si="3"/>
-        <v>61000000000</v>
+        <v>12200000000</v>
       </c>
       <c r="O167" s="18" t="s">
         <v>32</v>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="N168" s="3">
         <f t="shared" si="3"/>
-        <v>62000000000</v>
+        <v>12400000000</v>
       </c>
       <c r="O168" s="18" t="s">
         <v>32</v>
@@ -8594,7 +8594,7 @@
       </c>
       <c r="N169" s="3">
         <f t="shared" si="3"/>
-        <v>63000000000</v>
+        <v>12600000000</v>
       </c>
       <c r="O169" s="18" t="s">
         <v>32</v>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="N170" s="3">
         <f t="shared" si="3"/>
-        <v>64000000000</v>
+        <v>12800000000</v>
       </c>
       <c r="O170" s="18" t="s">
         <v>32</v>
@@ -8684,7 +8684,7 @@
       </c>
       <c r="N171" s="3">
         <f t="shared" si="3"/>
-        <v>65000000000</v>
+        <v>13000000000</v>
       </c>
       <c r="O171" s="18" t="s">
         <v>32</v>
@@ -8728,8 +8728,8 @@
         <v>66000000000</v>
       </c>
       <c r="N172" s="3">
-        <f t="shared" ref="N172:N206" si="7">N171+1000000000</f>
-        <v>66000000000</v>
+        <f t="shared" ref="N172:N206" si="7">N171+200000000</f>
+        <v>13200000000</v>
       </c>
       <c r="O172" s="18" t="s">
         <v>32</v>
@@ -8774,7 +8774,7 @@
       </c>
       <c r="N173" s="3">
         <f t="shared" si="7"/>
-        <v>67000000000</v>
+        <v>13400000000</v>
       </c>
       <c r="O173" s="18" t="s">
         <v>32</v>
@@ -8819,7 +8819,7 @@
       </c>
       <c r="N174" s="3">
         <f t="shared" si="7"/>
-        <v>68000000000</v>
+        <v>13600000000</v>
       </c>
       <c r="O174" s="18" t="s">
         <v>32</v>
@@ -8864,7 +8864,7 @@
       </c>
       <c r="N175" s="3">
         <f t="shared" si="7"/>
-        <v>69000000000</v>
+        <v>13800000000</v>
       </c>
       <c r="O175" s="18" t="s">
         <v>32</v>
@@ -8909,7 +8909,7 @@
       </c>
       <c r="N176" s="3">
         <f t="shared" si="7"/>
-        <v>70000000000</v>
+        <v>14000000000</v>
       </c>
       <c r="O176" s="18" t="s">
         <v>32</v>
@@ -8954,7 +8954,7 @@
       </c>
       <c r="N177" s="3">
         <f t="shared" si="7"/>
-        <v>71000000000</v>
+        <v>14200000000</v>
       </c>
       <c r="O177" s="18" t="s">
         <v>32</v>
@@ -8999,7 +8999,7 @@
       </c>
       <c r="N178" s="3">
         <f t="shared" si="7"/>
-        <v>72000000000</v>
+        <v>14400000000</v>
       </c>
       <c r="O178" s="18" t="s">
         <v>32</v>
@@ -9044,7 +9044,7 @@
       </c>
       <c r="N179" s="3">
         <f t="shared" si="7"/>
-        <v>73000000000</v>
+        <v>14600000000</v>
       </c>
       <c r="O179" s="18" t="s">
         <v>32</v>
@@ -9089,7 +9089,7 @@
       </c>
       <c r="N180" s="3">
         <f t="shared" si="7"/>
-        <v>74000000000</v>
+        <v>14800000000</v>
       </c>
       <c r="O180" s="18" t="s">
         <v>32</v>
@@ -9134,7 +9134,7 @@
       </c>
       <c r="N181" s="3">
         <f t="shared" si="7"/>
-        <v>75000000000</v>
+        <v>15000000000</v>
       </c>
       <c r="O181" s="18" t="s">
         <v>32</v>
@@ -9179,7 +9179,7 @@
       </c>
       <c r="N182" s="3">
         <f t="shared" si="7"/>
-        <v>76000000000</v>
+        <v>15200000000</v>
       </c>
       <c r="O182" s="18" t="s">
         <v>32</v>
@@ -9224,7 +9224,7 @@
       </c>
       <c r="N183" s="3">
         <f t="shared" si="7"/>
-        <v>77000000000</v>
+        <v>15400000000</v>
       </c>
       <c r="O183" s="18" t="s">
         <v>32</v>
@@ -9269,7 +9269,7 @@
       </c>
       <c r="N184" s="3">
         <f t="shared" si="7"/>
-        <v>78000000000</v>
+        <v>15600000000</v>
       </c>
       <c r="O184" s="18" t="s">
         <v>32</v>
@@ -9314,7 +9314,7 @@
       </c>
       <c r="N185" s="3">
         <f t="shared" si="7"/>
-        <v>79000000000</v>
+        <v>15800000000</v>
       </c>
       <c r="O185" s="18" t="s">
         <v>32</v>
@@ -9359,7 +9359,7 @@
       </c>
       <c r="N186" s="3">
         <f t="shared" si="7"/>
-        <v>80000000000</v>
+        <v>16000000000</v>
       </c>
       <c r="O186" s="18" t="s">
         <v>32</v>
@@ -9404,7 +9404,7 @@
       </c>
       <c r="N187" s="3">
         <f t="shared" si="7"/>
-        <v>81000000000</v>
+        <v>16200000000</v>
       </c>
       <c r="O187" s="18" t="s">
         <v>32</v>
@@ -9449,7 +9449,7 @@
       </c>
       <c r="N188" s="3">
         <f t="shared" si="7"/>
-        <v>82000000000</v>
+        <v>16400000000</v>
       </c>
       <c r="O188" s="18" t="s">
         <v>32</v>
@@ -9494,7 +9494,7 @@
       </c>
       <c r="N189" s="3">
         <f t="shared" si="7"/>
-        <v>83000000000</v>
+        <v>16600000000</v>
       </c>
       <c r="O189" s="18" t="s">
         <v>32</v>
@@ -9539,7 +9539,7 @@
       </c>
       <c r="N190" s="3">
         <f t="shared" si="7"/>
-        <v>84000000000</v>
+        <v>16800000000</v>
       </c>
       <c r="O190" s="18" t="s">
         <v>32</v>
@@ -9584,7 +9584,7 @@
       </c>
       <c r="N191" s="3">
         <f t="shared" si="7"/>
-        <v>85000000000</v>
+        <v>17000000000</v>
       </c>
       <c r="O191" s="18" t="s">
         <v>32</v>
@@ -9629,7 +9629,7 @@
       </c>
       <c r="N192" s="3">
         <f t="shared" si="7"/>
-        <v>86000000000</v>
+        <v>17200000000</v>
       </c>
       <c r="O192" s="18" t="s">
         <v>32</v>
@@ -9674,7 +9674,7 @@
       </c>
       <c r="N193" s="3">
         <f t="shared" si="7"/>
-        <v>87000000000</v>
+        <v>17400000000</v>
       </c>
       <c r="O193" s="18" t="s">
         <v>32</v>
@@ -9719,7 +9719,7 @@
       </c>
       <c r="N194" s="3">
         <f t="shared" si="7"/>
-        <v>88000000000</v>
+        <v>17600000000</v>
       </c>
       <c r="O194" s="18" t="s">
         <v>32</v>
@@ -9764,7 +9764,7 @@
       </c>
       <c r="N195" s="3">
         <f t="shared" si="7"/>
-        <v>89000000000</v>
+        <v>17800000000</v>
       </c>
       <c r="O195" s="18" t="s">
         <v>32</v>
@@ -9809,7 +9809,7 @@
       </c>
       <c r="N196" s="3">
         <f t="shared" si="7"/>
-        <v>90000000000</v>
+        <v>18000000000</v>
       </c>
       <c r="O196" s="18" t="s">
         <v>32</v>
@@ -9854,7 +9854,7 @@
       </c>
       <c r="N197" s="3">
         <f t="shared" si="7"/>
-        <v>91000000000</v>
+        <v>18200000000</v>
       </c>
       <c r="O197" s="18" t="s">
         <v>32</v>
@@ -9899,7 +9899,7 @@
       </c>
       <c r="N198" s="3">
         <f t="shared" si="7"/>
-        <v>92000000000</v>
+        <v>18400000000</v>
       </c>
       <c r="O198" s="18" t="s">
         <v>32</v>
@@ -9944,7 +9944,7 @@
       </c>
       <c r="N199" s="3">
         <f t="shared" si="7"/>
-        <v>93000000000</v>
+        <v>18600000000</v>
       </c>
       <c r="O199" s="18" t="s">
         <v>32</v>
@@ -9989,7 +9989,7 @@
       </c>
       <c r="N200" s="3">
         <f t="shared" si="7"/>
-        <v>94000000000</v>
+        <v>18800000000</v>
       </c>
       <c r="O200" s="18" t="s">
         <v>32</v>
@@ -10034,7 +10034,7 @@
       </c>
       <c r="N201" s="3">
         <f t="shared" si="7"/>
-        <v>95000000000</v>
+        <v>19000000000</v>
       </c>
       <c r="O201" s="18" t="s">
         <v>32</v>
@@ -10079,7 +10079,7 @@
       </c>
       <c r="N202" s="3">
         <f t="shared" si="7"/>
-        <v>96000000000</v>
+        <v>19200000000</v>
       </c>
       <c r="O202" s="18" t="s">
         <v>32</v>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="N203" s="3">
         <f t="shared" si="7"/>
-        <v>97000000000</v>
+        <v>19400000000</v>
       </c>
       <c r="O203" s="18" t="s">
         <v>32</v>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="N204" s="3">
         <f t="shared" si="7"/>
-        <v>98000000000</v>
+        <v>19600000000</v>
       </c>
       <c r="O204" s="18" t="s">
         <v>32</v>
@@ -10214,7 +10214,7 @@
       </c>
       <c r="N205" s="3">
         <f t="shared" si="7"/>
-        <v>99000000000</v>
+        <v>19800000000</v>
       </c>
       <c r="O205" s="18" t="s">
         <v>32</v>
@@ -10260,7 +10260,7 @@
       </c>
       <c r="N206" s="3">
         <f t="shared" si="7"/>
-        <v>100000000000</v>
+        <v>20000000000</v>
       </c>
       <c r="O206" s="18" t="s">
         <v>32</v>

--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -1257,7 +1257,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N108" sqref="N108:N206"/>
+      <selection pane="bottomLeft" activeCell="M108" sqref="M108:M206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -5801,10 +5801,10 @@
         <v>100</v>
       </c>
       <c r="M107" s="16">
-        <v>1000000000</v>
+        <v>100000000</v>
       </c>
       <c r="N107" s="16">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="O107" s="18" t="s">
         <v>32</v>
@@ -5844,12 +5844,12 @@
         <v>100</v>
       </c>
       <c r="M108" s="3">
-        <f t="shared" ref="M108:M171" si="2">M107+1000000000</f>
-        <v>2000000000</v>
+        <f t="shared" ref="M108:M171" si="2">M107+100000000</f>
+        <v>200000000</v>
       </c>
       <c r="N108" s="3">
-        <f t="shared" ref="N108:N171" si="3">N107+200000000</f>
-        <v>400000000</v>
+        <f t="shared" ref="N108:N171" si="3">N107+100000000</f>
+        <v>200000000</v>
       </c>
       <c r="O108" s="18" t="s">
         <v>32</v>
@@ -5890,11 +5890,11 @@
       </c>
       <c r="M109" s="3">
         <f t="shared" si="2"/>
-        <v>3000000000</v>
+        <v>300000000</v>
       </c>
       <c r="N109" s="3">
         <f t="shared" si="3"/>
-        <v>600000000</v>
+        <v>300000000</v>
       </c>
       <c r="O109" s="18" t="s">
         <v>32</v>
@@ -5935,11 +5935,11 @@
       </c>
       <c r="M110" s="3">
         <f t="shared" si="2"/>
-        <v>4000000000</v>
+        <v>400000000</v>
       </c>
       <c r="N110" s="3">
         <f t="shared" si="3"/>
-        <v>800000000</v>
+        <v>400000000</v>
       </c>
       <c r="O110" s="18" t="s">
         <v>32</v>
@@ -5980,11 +5980,11 @@
       </c>
       <c r="M111" s="3">
         <f t="shared" si="2"/>
-        <v>5000000000</v>
+        <v>500000000</v>
       </c>
       <c r="N111" s="3">
         <f t="shared" si="3"/>
-        <v>1000000000</v>
+        <v>500000000</v>
       </c>
       <c r="O111" s="18" t="s">
         <v>32</v>
@@ -6025,11 +6025,11 @@
       </c>
       <c r="M112" s="3">
         <f t="shared" si="2"/>
-        <v>6000000000</v>
+        <v>600000000</v>
       </c>
       <c r="N112" s="3">
         <f t="shared" si="3"/>
-        <v>1200000000</v>
+        <v>600000000</v>
       </c>
       <c r="O112" s="18" t="s">
         <v>32</v>
@@ -6070,11 +6070,11 @@
       </c>
       <c r="M113" s="3">
         <f t="shared" si="2"/>
-        <v>7000000000</v>
+        <v>700000000</v>
       </c>
       <c r="N113" s="3">
         <f t="shared" si="3"/>
-        <v>1400000000</v>
+        <v>700000000</v>
       </c>
       <c r="O113" s="18" t="s">
         <v>32</v>
@@ -6115,11 +6115,11 @@
       </c>
       <c r="M114" s="3">
         <f t="shared" si="2"/>
-        <v>8000000000</v>
+        <v>800000000</v>
       </c>
       <c r="N114" s="3">
         <f t="shared" si="3"/>
-        <v>1600000000</v>
+        <v>800000000</v>
       </c>
       <c r="O114" s="18" t="s">
         <v>32</v>
@@ -6160,11 +6160,11 @@
       </c>
       <c r="M115" s="3">
         <f t="shared" si="2"/>
-        <v>9000000000</v>
+        <v>900000000</v>
       </c>
       <c r="N115" s="3">
         <f t="shared" si="3"/>
-        <v>1800000000</v>
+        <v>900000000</v>
       </c>
       <c r="O115" s="18" t="s">
         <v>32</v>
@@ -6205,11 +6205,11 @@
       </c>
       <c r="M116" s="3">
         <f t="shared" si="2"/>
-        <v>10000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="N116" s="3">
         <f t="shared" si="3"/>
-        <v>2000000000</v>
+        <v>1000000000</v>
       </c>
       <c r="O116" s="18" t="s">
         <v>32</v>
@@ -6250,11 +6250,11 @@
       </c>
       <c r="M117" s="3">
         <f t="shared" si="2"/>
-        <v>11000000000</v>
+        <v>1100000000</v>
       </c>
       <c r="N117" s="3">
         <f t="shared" si="3"/>
-        <v>2200000000</v>
+        <v>1100000000</v>
       </c>
       <c r="O117" s="18" t="s">
         <v>32</v>
@@ -6295,11 +6295,11 @@
       </c>
       <c r="M118" s="3">
         <f t="shared" si="2"/>
-        <v>12000000000</v>
+        <v>1200000000</v>
       </c>
       <c r="N118" s="3">
         <f t="shared" si="3"/>
-        <v>2400000000</v>
+        <v>1200000000</v>
       </c>
       <c r="O118" s="18" t="s">
         <v>32</v>
@@ -6340,11 +6340,11 @@
       </c>
       <c r="M119" s="3">
         <f t="shared" si="2"/>
-        <v>13000000000</v>
+        <v>1300000000</v>
       </c>
       <c r="N119" s="3">
         <f t="shared" si="3"/>
-        <v>2600000000</v>
+        <v>1300000000</v>
       </c>
       <c r="O119" s="18" t="s">
         <v>32</v>
@@ -6385,11 +6385,11 @@
       </c>
       <c r="M120" s="3">
         <f t="shared" si="2"/>
-        <v>14000000000</v>
+        <v>1400000000</v>
       </c>
       <c r="N120" s="3">
         <f t="shared" si="3"/>
-        <v>2800000000</v>
+        <v>1400000000</v>
       </c>
       <c r="O120" s="18" t="s">
         <v>32</v>
@@ -6430,11 +6430,11 @@
       </c>
       <c r="M121" s="3">
         <f t="shared" si="2"/>
-        <v>15000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="N121" s="3">
         <f t="shared" si="3"/>
-        <v>3000000000</v>
+        <v>1500000000</v>
       </c>
       <c r="O121" s="18" t="s">
         <v>32</v>
@@ -6475,11 +6475,11 @@
       </c>
       <c r="M122" s="3">
         <f t="shared" si="2"/>
-        <v>16000000000</v>
+        <v>1600000000</v>
       </c>
       <c r="N122" s="3">
         <f t="shared" si="3"/>
-        <v>3200000000</v>
+        <v>1600000000</v>
       </c>
       <c r="O122" s="18" t="s">
         <v>32</v>
@@ -6520,11 +6520,11 @@
       </c>
       <c r="M123" s="3">
         <f t="shared" si="2"/>
-        <v>17000000000</v>
+        <v>1700000000</v>
       </c>
       <c r="N123" s="3">
         <f t="shared" si="3"/>
-        <v>3400000000</v>
+        <v>1700000000</v>
       </c>
       <c r="O123" s="18" t="s">
         <v>32</v>
@@ -6565,11 +6565,11 @@
       </c>
       <c r="M124" s="3">
         <f t="shared" si="2"/>
-        <v>18000000000</v>
+        <v>1800000000</v>
       </c>
       <c r="N124" s="3">
         <f t="shared" si="3"/>
-        <v>3600000000</v>
+        <v>1800000000</v>
       </c>
       <c r="O124" s="18" t="s">
         <v>32</v>
@@ -6610,11 +6610,11 @@
       </c>
       <c r="M125" s="3">
         <f t="shared" si="2"/>
-        <v>19000000000</v>
+        <v>1900000000</v>
       </c>
       <c r="N125" s="3">
         <f t="shared" si="3"/>
-        <v>3800000000</v>
+        <v>1900000000</v>
       </c>
       <c r="O125" s="18" t="s">
         <v>32</v>
@@ -6655,11 +6655,11 @@
       </c>
       <c r="M126" s="3">
         <f t="shared" si="2"/>
-        <v>20000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="N126" s="3">
         <f t="shared" si="3"/>
-        <v>4000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="O126" s="18" t="s">
         <v>32</v>
@@ -6700,11 +6700,11 @@
       </c>
       <c r="M127" s="3">
         <f t="shared" si="2"/>
-        <v>21000000000</v>
+        <v>2100000000</v>
       </c>
       <c r="N127" s="3">
         <f t="shared" si="3"/>
-        <v>4200000000</v>
+        <v>2100000000</v>
       </c>
       <c r="O127" s="18" t="s">
         <v>32</v>
@@ -6745,11 +6745,11 @@
       </c>
       <c r="M128" s="3">
         <f t="shared" si="2"/>
-        <v>22000000000</v>
+        <v>2200000000</v>
       </c>
       <c r="N128" s="3">
         <f t="shared" si="3"/>
-        <v>4400000000</v>
+        <v>2200000000</v>
       </c>
       <c r="O128" s="18" t="s">
         <v>32</v>
@@ -6790,11 +6790,11 @@
       </c>
       <c r="M129" s="3">
         <f t="shared" si="2"/>
-        <v>23000000000</v>
+        <v>2300000000</v>
       </c>
       <c r="N129" s="3">
         <f t="shared" si="3"/>
-        <v>4600000000</v>
+        <v>2300000000</v>
       </c>
       <c r="O129" s="18" t="s">
         <v>32</v>
@@ -6835,11 +6835,11 @@
       </c>
       <c r="M130" s="3">
         <f t="shared" si="2"/>
-        <v>24000000000</v>
+        <v>2400000000</v>
       </c>
       <c r="N130" s="3">
         <f t="shared" si="3"/>
-        <v>4800000000</v>
+        <v>2400000000</v>
       </c>
       <c r="O130" s="18" t="s">
         <v>32</v>
@@ -6880,11 +6880,11 @@
       </c>
       <c r="M131" s="3">
         <f t="shared" si="2"/>
-        <v>25000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="N131" s="3">
         <f t="shared" si="3"/>
-        <v>5000000000</v>
+        <v>2500000000</v>
       </c>
       <c r="O131" s="18" t="s">
         <v>32</v>
@@ -6925,11 +6925,11 @@
       </c>
       <c r="M132" s="3">
         <f t="shared" si="2"/>
-        <v>26000000000</v>
+        <v>2600000000</v>
       </c>
       <c r="N132" s="3">
         <f t="shared" si="3"/>
-        <v>5200000000</v>
+        <v>2600000000</v>
       </c>
       <c r="O132" s="18" t="s">
         <v>32</v>
@@ -6970,11 +6970,11 @@
       </c>
       <c r="M133" s="3">
         <f t="shared" si="2"/>
-        <v>27000000000</v>
+        <v>2700000000</v>
       </c>
       <c r="N133" s="3">
         <f t="shared" si="3"/>
-        <v>5400000000</v>
+        <v>2700000000</v>
       </c>
       <c r="O133" s="18" t="s">
         <v>32</v>
@@ -7015,11 +7015,11 @@
       </c>
       <c r="M134" s="3">
         <f t="shared" si="2"/>
-        <v>28000000000</v>
+        <v>2800000000</v>
       </c>
       <c r="N134" s="3">
         <f t="shared" si="3"/>
-        <v>5600000000</v>
+        <v>2800000000</v>
       </c>
       <c r="O134" s="18" t="s">
         <v>32</v>
@@ -7060,11 +7060,11 @@
       </c>
       <c r="M135" s="3">
         <f t="shared" si="2"/>
-        <v>29000000000</v>
+        <v>2900000000</v>
       </c>
       <c r="N135" s="3">
         <f t="shared" si="3"/>
-        <v>5800000000</v>
+        <v>2900000000</v>
       </c>
       <c r="O135" s="18" t="s">
         <v>32</v>
@@ -7105,11 +7105,11 @@
       </c>
       <c r="M136" s="3">
         <f t="shared" si="2"/>
-        <v>30000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="N136" s="3">
         <f t="shared" si="3"/>
-        <v>6000000000</v>
+        <v>3000000000</v>
       </c>
       <c r="O136" s="18" t="s">
         <v>32</v>
@@ -7150,11 +7150,11 @@
       </c>
       <c r="M137" s="3">
         <f t="shared" si="2"/>
-        <v>31000000000</v>
+        <v>3100000000</v>
       </c>
       <c r="N137" s="3">
         <f t="shared" si="3"/>
-        <v>6200000000</v>
+        <v>3100000000</v>
       </c>
       <c r="O137" s="18" t="s">
         <v>32</v>
@@ -7195,11 +7195,11 @@
       </c>
       <c r="M138" s="3">
         <f t="shared" si="2"/>
-        <v>32000000000</v>
+        <v>3200000000</v>
       </c>
       <c r="N138" s="3">
         <f t="shared" si="3"/>
-        <v>6400000000</v>
+        <v>3200000000</v>
       </c>
       <c r="O138" s="18" t="s">
         <v>32</v>
@@ -7240,11 +7240,11 @@
       </c>
       <c r="M139" s="3">
         <f t="shared" si="2"/>
-        <v>33000000000</v>
+        <v>3300000000</v>
       </c>
       <c r="N139" s="3">
         <f t="shared" si="3"/>
-        <v>6600000000</v>
+        <v>3300000000</v>
       </c>
       <c r="O139" s="18" t="s">
         <v>32</v>
@@ -7285,11 +7285,11 @@
       </c>
       <c r="M140" s="3">
         <f t="shared" si="2"/>
-        <v>34000000000</v>
+        <v>3400000000</v>
       </c>
       <c r="N140" s="3">
         <f t="shared" si="3"/>
-        <v>6800000000</v>
+        <v>3400000000</v>
       </c>
       <c r="O140" s="18" t="s">
         <v>32</v>
@@ -7330,11 +7330,11 @@
       </c>
       <c r="M141" s="3">
         <f t="shared" si="2"/>
-        <v>35000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="N141" s="3">
         <f t="shared" si="3"/>
-        <v>7000000000</v>
+        <v>3500000000</v>
       </c>
       <c r="O141" s="18" t="s">
         <v>32</v>
@@ -7375,11 +7375,11 @@
       </c>
       <c r="M142" s="3">
         <f t="shared" si="2"/>
-        <v>36000000000</v>
+        <v>3600000000</v>
       </c>
       <c r="N142" s="3">
         <f t="shared" si="3"/>
-        <v>7200000000</v>
+        <v>3600000000</v>
       </c>
       <c r="O142" s="18" t="s">
         <v>32</v>
@@ -7420,11 +7420,11 @@
       </c>
       <c r="M143" s="3">
         <f t="shared" si="2"/>
-        <v>37000000000</v>
+        <v>3700000000</v>
       </c>
       <c r="N143" s="3">
         <f t="shared" si="3"/>
-        <v>7400000000</v>
+        <v>3700000000</v>
       </c>
       <c r="O143" s="18" t="s">
         <v>32</v>
@@ -7465,11 +7465,11 @@
       </c>
       <c r="M144" s="3">
         <f t="shared" si="2"/>
-        <v>38000000000</v>
+        <v>3800000000</v>
       </c>
       <c r="N144" s="3">
         <f t="shared" si="3"/>
-        <v>7600000000</v>
+        <v>3800000000</v>
       </c>
       <c r="O144" s="18" t="s">
         <v>32</v>
@@ -7510,11 +7510,11 @@
       </c>
       <c r="M145" s="3">
         <f t="shared" si="2"/>
-        <v>39000000000</v>
+        <v>3900000000</v>
       </c>
       <c r="N145" s="3">
         <f t="shared" si="3"/>
-        <v>7800000000</v>
+        <v>3900000000</v>
       </c>
       <c r="O145" s="18" t="s">
         <v>32</v>
@@ -7555,11 +7555,11 @@
       </c>
       <c r="M146" s="3">
         <f t="shared" si="2"/>
-        <v>40000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="N146" s="3">
         <f t="shared" si="3"/>
-        <v>8000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="O146" s="18" t="s">
         <v>32</v>
@@ -7600,11 +7600,11 @@
       </c>
       <c r="M147" s="3">
         <f t="shared" si="2"/>
-        <v>41000000000</v>
+        <v>4100000000</v>
       </c>
       <c r="N147" s="3">
         <f t="shared" si="3"/>
-        <v>8200000000</v>
+        <v>4100000000</v>
       </c>
       <c r="O147" s="18" t="s">
         <v>32</v>
@@ -7645,11 +7645,11 @@
       </c>
       <c r="M148" s="3">
         <f t="shared" si="2"/>
-        <v>42000000000</v>
+        <v>4200000000</v>
       </c>
       <c r="N148" s="3">
         <f t="shared" si="3"/>
-        <v>8400000000</v>
+        <v>4200000000</v>
       </c>
       <c r="O148" s="18" t="s">
         <v>32</v>
@@ -7690,11 +7690,11 @@
       </c>
       <c r="M149" s="3">
         <f t="shared" si="2"/>
-        <v>43000000000</v>
+        <v>4300000000</v>
       </c>
       <c r="N149" s="3">
         <f t="shared" si="3"/>
-        <v>8600000000</v>
+        <v>4300000000</v>
       </c>
       <c r="O149" s="18" t="s">
         <v>32</v>
@@ -7735,11 +7735,11 @@
       </c>
       <c r="M150" s="3">
         <f t="shared" si="2"/>
-        <v>44000000000</v>
+        <v>4400000000</v>
       </c>
       <c r="N150" s="3">
         <f t="shared" si="3"/>
-        <v>8800000000</v>
+        <v>4400000000</v>
       </c>
       <c r="O150" s="18" t="s">
         <v>32</v>
@@ -7780,11 +7780,11 @@
       </c>
       <c r="M151" s="3">
         <f t="shared" si="2"/>
-        <v>45000000000</v>
+        <v>4500000000</v>
       </c>
       <c r="N151" s="3">
         <f t="shared" si="3"/>
-        <v>9000000000</v>
+        <v>4500000000</v>
       </c>
       <c r="O151" s="18" t="s">
         <v>32</v>
@@ -7825,11 +7825,11 @@
       </c>
       <c r="M152" s="3">
         <f t="shared" si="2"/>
-        <v>46000000000</v>
+        <v>4600000000</v>
       </c>
       <c r="N152" s="3">
         <f t="shared" si="3"/>
-        <v>9200000000</v>
+        <v>4600000000</v>
       </c>
       <c r="O152" s="18" t="s">
         <v>32</v>
@@ -7870,11 +7870,11 @@
       </c>
       <c r="M153" s="3">
         <f t="shared" si="2"/>
-        <v>47000000000</v>
+        <v>4700000000</v>
       </c>
       <c r="N153" s="3">
         <f t="shared" si="3"/>
-        <v>9400000000</v>
+        <v>4700000000</v>
       </c>
       <c r="O153" s="18" t="s">
         <v>32</v>
@@ -7915,11 +7915,11 @@
       </c>
       <c r="M154" s="3">
         <f t="shared" si="2"/>
-        <v>48000000000</v>
+        <v>4800000000</v>
       </c>
       <c r="N154" s="3">
         <f t="shared" si="3"/>
-        <v>9600000000</v>
+        <v>4800000000</v>
       </c>
       <c r="O154" s="18" t="s">
         <v>32</v>
@@ -7960,11 +7960,11 @@
       </c>
       <c r="M155" s="3">
         <f t="shared" si="2"/>
-        <v>49000000000</v>
+        <v>4900000000</v>
       </c>
       <c r="N155" s="3">
         <f t="shared" si="3"/>
-        <v>9800000000</v>
+        <v>4900000000</v>
       </c>
       <c r="O155" s="18" t="s">
         <v>32</v>
@@ -8005,11 +8005,11 @@
       </c>
       <c r="M156" s="3">
         <f t="shared" si="2"/>
-        <v>50000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="N156" s="3">
         <f t="shared" si="3"/>
-        <v>10000000000</v>
+        <v>5000000000</v>
       </c>
       <c r="O156" s="18" t="s">
         <v>32</v>
@@ -8050,11 +8050,11 @@
       </c>
       <c r="M157" s="3">
         <f t="shared" si="2"/>
-        <v>51000000000</v>
+        <v>5100000000</v>
       </c>
       <c r="N157" s="3">
         <f t="shared" si="3"/>
-        <v>10200000000</v>
+        <v>5100000000</v>
       </c>
       <c r="O157" s="18" t="s">
         <v>32</v>
@@ -8095,11 +8095,11 @@
       </c>
       <c r="M158" s="3">
         <f t="shared" si="2"/>
-        <v>52000000000</v>
+        <v>5200000000</v>
       </c>
       <c r="N158" s="3">
         <f t="shared" si="3"/>
-        <v>10400000000</v>
+        <v>5200000000</v>
       </c>
       <c r="O158" s="18" t="s">
         <v>32</v>
@@ -8140,11 +8140,11 @@
       </c>
       <c r="M159" s="3">
         <f t="shared" si="2"/>
-        <v>53000000000</v>
+        <v>5300000000</v>
       </c>
       <c r="N159" s="3">
         <f t="shared" si="3"/>
-        <v>10600000000</v>
+        <v>5300000000</v>
       </c>
       <c r="O159" s="18" t="s">
         <v>32</v>
@@ -8185,11 +8185,11 @@
       </c>
       <c r="M160" s="3">
         <f t="shared" si="2"/>
-        <v>54000000000</v>
+        <v>5400000000</v>
       </c>
       <c r="N160" s="3">
         <f t="shared" si="3"/>
-        <v>10800000000</v>
+        <v>5400000000</v>
       </c>
       <c r="O160" s="18" t="s">
         <v>32</v>
@@ -8230,11 +8230,11 @@
       </c>
       <c r="M161" s="3">
         <f t="shared" si="2"/>
-        <v>55000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="N161" s="3">
         <f t="shared" si="3"/>
-        <v>11000000000</v>
+        <v>5500000000</v>
       </c>
       <c r="O161" s="18" t="s">
         <v>32</v>
@@ -8275,11 +8275,11 @@
       </c>
       <c r="M162" s="3">
         <f t="shared" si="2"/>
-        <v>56000000000</v>
+        <v>5600000000</v>
       </c>
       <c r="N162" s="3">
         <f t="shared" si="3"/>
-        <v>11200000000</v>
+        <v>5600000000</v>
       </c>
       <c r="O162" s="18" t="s">
         <v>32</v>
@@ -8320,11 +8320,11 @@
       </c>
       <c r="M163" s="3">
         <f t="shared" si="2"/>
-        <v>57000000000</v>
+        <v>5700000000</v>
       </c>
       <c r="N163" s="3">
         <f t="shared" si="3"/>
-        <v>11400000000</v>
+        <v>5700000000</v>
       </c>
       <c r="O163" s="18" t="s">
         <v>32</v>
@@ -8365,11 +8365,11 @@
       </c>
       <c r="M164" s="3">
         <f t="shared" si="2"/>
-        <v>58000000000</v>
+        <v>5800000000</v>
       </c>
       <c r="N164" s="3">
         <f t="shared" si="3"/>
-        <v>11600000000</v>
+        <v>5800000000</v>
       </c>
       <c r="O164" s="18" t="s">
         <v>32</v>
@@ -8410,11 +8410,11 @@
       </c>
       <c r="M165" s="3">
         <f t="shared" si="2"/>
-        <v>59000000000</v>
+        <v>5900000000</v>
       </c>
       <c r="N165" s="3">
         <f t="shared" si="3"/>
-        <v>11800000000</v>
+        <v>5900000000</v>
       </c>
       <c r="O165" s="18" t="s">
         <v>32</v>
@@ -8455,11 +8455,11 @@
       </c>
       <c r="M166" s="3">
         <f t="shared" si="2"/>
-        <v>60000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="N166" s="3">
         <f t="shared" si="3"/>
-        <v>12000000000</v>
+        <v>6000000000</v>
       </c>
       <c r="O166" s="18" t="s">
         <v>32</v>
@@ -8500,11 +8500,11 @@
       </c>
       <c r="M167" s="3">
         <f t="shared" si="2"/>
-        <v>61000000000</v>
+        <v>6100000000</v>
       </c>
       <c r="N167" s="3">
         <f t="shared" si="3"/>
-        <v>12200000000</v>
+        <v>6100000000</v>
       </c>
       <c r="O167" s="18" t="s">
         <v>32</v>
@@ -8545,11 +8545,11 @@
       </c>
       <c r="M168" s="3">
         <f t="shared" si="2"/>
-        <v>62000000000</v>
+        <v>6200000000</v>
       </c>
       <c r="N168" s="3">
         <f t="shared" si="3"/>
-        <v>12400000000</v>
+        <v>6200000000</v>
       </c>
       <c r="O168" s="18" t="s">
         <v>32</v>
@@ -8590,11 +8590,11 @@
       </c>
       <c r="M169" s="3">
         <f t="shared" si="2"/>
-        <v>63000000000</v>
+        <v>6300000000</v>
       </c>
       <c r="N169" s="3">
         <f t="shared" si="3"/>
-        <v>12600000000</v>
+        <v>6300000000</v>
       </c>
       <c r="O169" s="18" t="s">
         <v>32</v>
@@ -8635,11 +8635,11 @@
       </c>
       <c r="M170" s="3">
         <f t="shared" si="2"/>
-        <v>64000000000</v>
+        <v>6400000000</v>
       </c>
       <c r="N170" s="3">
         <f t="shared" si="3"/>
-        <v>12800000000</v>
+        <v>6400000000</v>
       </c>
       <c r="O170" s="18" t="s">
         <v>32</v>
@@ -8680,11 +8680,11 @@
       </c>
       <c r="M171" s="3">
         <f t="shared" si="2"/>
-        <v>65000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="N171" s="3">
         <f t="shared" si="3"/>
-        <v>13000000000</v>
+        <v>6500000000</v>
       </c>
       <c r="O171" s="18" t="s">
         <v>32</v>
@@ -8724,12 +8724,12 @@
         <v>100</v>
       </c>
       <c r="M172" s="3">
-        <f t="shared" ref="M172:M206" si="6">M171+1000000000</f>
-        <v>66000000000</v>
+        <f t="shared" ref="M172:M206" si="6">M171+100000000</f>
+        <v>6600000000</v>
       </c>
       <c r="N172" s="3">
-        <f t="shared" ref="N172:N206" si="7">N171+200000000</f>
-        <v>13200000000</v>
+        <f t="shared" ref="N172:N206" si="7">N171+100000000</f>
+        <v>6600000000</v>
       </c>
       <c r="O172" s="18" t="s">
         <v>32</v>
@@ -8770,11 +8770,11 @@
       </c>
       <c r="M173" s="3">
         <f t="shared" si="6"/>
-        <v>67000000000</v>
+        <v>6700000000</v>
       </c>
       <c r="N173" s="3">
         <f t="shared" si="7"/>
-        <v>13400000000</v>
+        <v>6700000000</v>
       </c>
       <c r="O173" s="18" t="s">
         <v>32</v>
@@ -8815,11 +8815,11 @@
       </c>
       <c r="M174" s="3">
         <f t="shared" si="6"/>
-        <v>68000000000</v>
+        <v>6800000000</v>
       </c>
       <c r="N174" s="3">
         <f t="shared" si="7"/>
-        <v>13600000000</v>
+        <v>6800000000</v>
       </c>
       <c r="O174" s="18" t="s">
         <v>32</v>
@@ -8860,11 +8860,11 @@
       </c>
       <c r="M175" s="3">
         <f t="shared" si="6"/>
-        <v>69000000000</v>
+        <v>6900000000</v>
       </c>
       <c r="N175" s="3">
         <f t="shared" si="7"/>
-        <v>13800000000</v>
+        <v>6900000000</v>
       </c>
       <c r="O175" s="18" t="s">
         <v>32</v>
@@ -8905,11 +8905,11 @@
       </c>
       <c r="M176" s="3">
         <f t="shared" si="6"/>
-        <v>70000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="N176" s="3">
         <f t="shared" si="7"/>
-        <v>14000000000</v>
+        <v>7000000000</v>
       </c>
       <c r="O176" s="18" t="s">
         <v>32</v>
@@ -8950,11 +8950,11 @@
       </c>
       <c r="M177" s="3">
         <f t="shared" si="6"/>
-        <v>71000000000</v>
+        <v>7100000000</v>
       </c>
       <c r="N177" s="3">
         <f t="shared" si="7"/>
-        <v>14200000000</v>
+        <v>7100000000</v>
       </c>
       <c r="O177" s="18" t="s">
         <v>32</v>
@@ -8995,11 +8995,11 @@
       </c>
       <c r="M178" s="3">
         <f t="shared" si="6"/>
-        <v>72000000000</v>
+        <v>7200000000</v>
       </c>
       <c r="N178" s="3">
         <f t="shared" si="7"/>
-        <v>14400000000</v>
+        <v>7200000000</v>
       </c>
       <c r="O178" s="18" t="s">
         <v>32</v>
@@ -9040,11 +9040,11 @@
       </c>
       <c r="M179" s="3">
         <f t="shared" si="6"/>
-        <v>73000000000</v>
+        <v>7300000000</v>
       </c>
       <c r="N179" s="3">
         <f t="shared" si="7"/>
-        <v>14600000000</v>
+        <v>7300000000</v>
       </c>
       <c r="O179" s="18" t="s">
         <v>32</v>
@@ -9085,11 +9085,11 @@
       </c>
       <c r="M180" s="3">
         <f t="shared" si="6"/>
-        <v>74000000000</v>
+        <v>7400000000</v>
       </c>
       <c r="N180" s="3">
         <f t="shared" si="7"/>
-        <v>14800000000</v>
+        <v>7400000000</v>
       </c>
       <c r="O180" s="18" t="s">
         <v>32</v>
@@ -9130,11 +9130,11 @@
       </c>
       <c r="M181" s="3">
         <f t="shared" si="6"/>
-        <v>75000000000</v>
+        <v>7500000000</v>
       </c>
       <c r="N181" s="3">
         <f t="shared" si="7"/>
-        <v>15000000000</v>
+        <v>7500000000</v>
       </c>
       <c r="O181" s="18" t="s">
         <v>32</v>
@@ -9175,11 +9175,11 @@
       </c>
       <c r="M182" s="3">
         <f t="shared" si="6"/>
-        <v>76000000000</v>
+        <v>7600000000</v>
       </c>
       <c r="N182" s="3">
         <f t="shared" si="7"/>
-        <v>15200000000</v>
+        <v>7600000000</v>
       </c>
       <c r="O182" s="18" t="s">
         <v>32</v>
@@ -9220,11 +9220,11 @@
       </c>
       <c r="M183" s="3">
         <f t="shared" si="6"/>
-        <v>77000000000</v>
+        <v>7700000000</v>
       </c>
       <c r="N183" s="3">
         <f t="shared" si="7"/>
-        <v>15400000000</v>
+        <v>7700000000</v>
       </c>
       <c r="O183" s="18" t="s">
         <v>32</v>
@@ -9265,11 +9265,11 @@
       </c>
       <c r="M184" s="3">
         <f t="shared" si="6"/>
-        <v>78000000000</v>
+        <v>7800000000</v>
       </c>
       <c r="N184" s="3">
         <f t="shared" si="7"/>
-        <v>15600000000</v>
+        <v>7800000000</v>
       </c>
       <c r="O184" s="18" t="s">
         <v>32</v>
@@ -9310,11 +9310,11 @@
       </c>
       <c r="M185" s="3">
         <f t="shared" si="6"/>
-        <v>79000000000</v>
+        <v>7900000000</v>
       </c>
       <c r="N185" s="3">
         <f t="shared" si="7"/>
-        <v>15800000000</v>
+        <v>7900000000</v>
       </c>
       <c r="O185" s="18" t="s">
         <v>32</v>
@@ -9355,11 +9355,11 @@
       </c>
       <c r="M186" s="3">
         <f t="shared" si="6"/>
-        <v>80000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="N186" s="3">
         <f t="shared" si="7"/>
-        <v>16000000000</v>
+        <v>8000000000</v>
       </c>
       <c r="O186" s="18" t="s">
         <v>32</v>
@@ -9400,11 +9400,11 @@
       </c>
       <c r="M187" s="3">
         <f t="shared" si="6"/>
-        <v>81000000000</v>
+        <v>8100000000</v>
       </c>
       <c r="N187" s="3">
         <f t="shared" si="7"/>
-        <v>16200000000</v>
+        <v>8100000000</v>
       </c>
       <c r="O187" s="18" t="s">
         <v>32</v>
@@ -9445,11 +9445,11 @@
       </c>
       <c r="M188" s="3">
         <f t="shared" si="6"/>
-        <v>82000000000</v>
+        <v>8200000000</v>
       </c>
       <c r="N188" s="3">
         <f t="shared" si="7"/>
-        <v>16400000000</v>
+        <v>8200000000</v>
       </c>
       <c r="O188" s="18" t="s">
         <v>32</v>
@@ -9490,11 +9490,11 @@
       </c>
       <c r="M189" s="3">
         <f t="shared" si="6"/>
-        <v>83000000000</v>
+        <v>8300000000</v>
       </c>
       <c r="N189" s="3">
         <f t="shared" si="7"/>
-        <v>16600000000</v>
+        <v>8300000000</v>
       </c>
       <c r="O189" s="18" t="s">
         <v>32</v>
@@ -9535,11 +9535,11 @@
       </c>
       <c r="M190" s="3">
         <f t="shared" si="6"/>
-        <v>84000000000</v>
+        <v>8400000000</v>
       </c>
       <c r="N190" s="3">
         <f t="shared" si="7"/>
-        <v>16800000000</v>
+        <v>8400000000</v>
       </c>
       <c r="O190" s="18" t="s">
         <v>32</v>
@@ -9580,11 +9580,11 @@
       </c>
       <c r="M191" s="3">
         <f t="shared" si="6"/>
-        <v>85000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="N191" s="3">
         <f t="shared" si="7"/>
-        <v>17000000000</v>
+        <v>8500000000</v>
       </c>
       <c r="O191" s="18" t="s">
         <v>32</v>
@@ -9625,11 +9625,11 @@
       </c>
       <c r="M192" s="3">
         <f t="shared" si="6"/>
-        <v>86000000000</v>
+        <v>8600000000</v>
       </c>
       <c r="N192" s="3">
         <f t="shared" si="7"/>
-        <v>17200000000</v>
+        <v>8600000000</v>
       </c>
       <c r="O192" s="18" t="s">
         <v>32</v>
@@ -9670,11 +9670,11 @@
       </c>
       <c r="M193" s="3">
         <f t="shared" si="6"/>
-        <v>87000000000</v>
+        <v>8700000000</v>
       </c>
       <c r="N193" s="3">
         <f t="shared" si="7"/>
-        <v>17400000000</v>
+        <v>8700000000</v>
       </c>
       <c r="O193" s="18" t="s">
         <v>32</v>
@@ -9715,11 +9715,11 @@
       </c>
       <c r="M194" s="3">
         <f t="shared" si="6"/>
-        <v>88000000000</v>
+        <v>8800000000</v>
       </c>
       <c r="N194" s="3">
         <f t="shared" si="7"/>
-        <v>17600000000</v>
+        <v>8800000000</v>
       </c>
       <c r="O194" s="18" t="s">
         <v>32</v>
@@ -9760,11 +9760,11 @@
       </c>
       <c r="M195" s="3">
         <f t="shared" si="6"/>
-        <v>89000000000</v>
+        <v>8900000000</v>
       </c>
       <c r="N195" s="3">
         <f t="shared" si="7"/>
-        <v>17800000000</v>
+        <v>8900000000</v>
       </c>
       <c r="O195" s="18" t="s">
         <v>32</v>
@@ -9805,11 +9805,11 @@
       </c>
       <c r="M196" s="3">
         <f t="shared" si="6"/>
-        <v>90000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="N196" s="3">
         <f t="shared" si="7"/>
-        <v>18000000000</v>
+        <v>9000000000</v>
       </c>
       <c r="O196" s="18" t="s">
         <v>32</v>
@@ -9850,11 +9850,11 @@
       </c>
       <c r="M197" s="3">
         <f t="shared" si="6"/>
-        <v>91000000000</v>
+        <v>9100000000</v>
       </c>
       <c r="N197" s="3">
         <f t="shared" si="7"/>
-        <v>18200000000</v>
+        <v>9100000000</v>
       </c>
       <c r="O197" s="18" t="s">
         <v>32</v>
@@ -9895,11 +9895,11 @@
       </c>
       <c r="M198" s="3">
         <f t="shared" si="6"/>
-        <v>92000000000</v>
+        <v>9200000000</v>
       </c>
       <c r="N198" s="3">
         <f t="shared" si="7"/>
-        <v>18400000000</v>
+        <v>9200000000</v>
       </c>
       <c r="O198" s="18" t="s">
         <v>32</v>
@@ -9940,11 +9940,11 @@
       </c>
       <c r="M199" s="3">
         <f t="shared" si="6"/>
-        <v>93000000000</v>
+        <v>9300000000</v>
       </c>
       <c r="N199" s="3">
         <f t="shared" si="7"/>
-        <v>18600000000</v>
+        <v>9300000000</v>
       </c>
       <c r="O199" s="18" t="s">
         <v>32</v>
@@ -9985,11 +9985,11 @@
       </c>
       <c r="M200" s="3">
         <f t="shared" si="6"/>
-        <v>94000000000</v>
+        <v>9400000000</v>
       </c>
       <c r="N200" s="3">
         <f t="shared" si="7"/>
-        <v>18800000000</v>
+        <v>9400000000</v>
       </c>
       <c r="O200" s="18" t="s">
         <v>32</v>
@@ -10030,11 +10030,11 @@
       </c>
       <c r="M201" s="3">
         <f t="shared" si="6"/>
-        <v>95000000000</v>
+        <v>9500000000</v>
       </c>
       <c r="N201" s="3">
         <f t="shared" si="7"/>
-        <v>19000000000</v>
+        <v>9500000000</v>
       </c>
       <c r="O201" s="18" t="s">
         <v>32</v>
@@ -10075,11 +10075,11 @@
       </c>
       <c r="M202" s="3">
         <f t="shared" si="6"/>
-        <v>96000000000</v>
+        <v>9600000000</v>
       </c>
       <c r="N202" s="3">
         <f t="shared" si="7"/>
-        <v>19200000000</v>
+        <v>9600000000</v>
       </c>
       <c r="O202" s="18" t="s">
         <v>32</v>
@@ -10120,11 +10120,11 @@
       </c>
       <c r="M203" s="3">
         <f t="shared" si="6"/>
-        <v>97000000000</v>
+        <v>9700000000</v>
       </c>
       <c r="N203" s="3">
         <f t="shared" si="7"/>
-        <v>19400000000</v>
+        <v>9700000000</v>
       </c>
       <c r="O203" s="18" t="s">
         <v>32</v>
@@ -10165,11 +10165,11 @@
       </c>
       <c r="M204" s="3">
         <f t="shared" si="6"/>
-        <v>98000000000</v>
+        <v>9800000000</v>
       </c>
       <c r="N204" s="3">
         <f t="shared" si="7"/>
-        <v>19600000000</v>
+        <v>9800000000</v>
       </c>
       <c r="O204" s="18" t="s">
         <v>32</v>
@@ -10210,11 +10210,11 @@
       </c>
       <c r="M205" s="3">
         <f t="shared" si="6"/>
-        <v>99000000000</v>
+        <v>9900000000</v>
       </c>
       <c r="N205" s="3">
         <f t="shared" si="7"/>
-        <v>19800000000</v>
+        <v>9900000000</v>
       </c>
       <c r="O205" s="18" t="s">
         <v>32</v>
@@ -10256,11 +10256,11 @@
       </c>
       <c r="M206" s="3">
         <f t="shared" si="6"/>
-        <v>100000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="N206" s="3">
         <f t="shared" si="7"/>
-        <v>20000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="O206" s="18" t="s">
         <v>32</v>

--- a/Excel/MonsterDefendConfig.xlsx
+++ b/Excel/MonsterDefendConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="生成配置" sheetId="2" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="52">
   <si>
     <t>ID</t>
   </si>
@@ -170,9 +170,6 @@
   </si>
   <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>double</t>
   </si>
   <si>
     <t>long</t>
@@ -1255,9 +1252,9 @@
   <dimension ref="A1:Q206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M108" sqref="M108:M206"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" customHeight="1"/>
@@ -1417,13 +1414,13 @@
         <v>27</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>26</v>
@@ -1438,16 +1435,16 @@
         <v>26</v>
       </c>
       <c r="M5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="11" t="s">
+      <c r="P5" s="12" t="s">
         <v>29</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>30</v>
       </c>
       <c r="Q5" s="12" t="s">
         <v>26</v>
@@ -1461,7 +1458,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="9">
         <v>165000</v>
@@ -1491,7 +1488,7 @@
         <v>960000</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P6" s="1">
         <v>7</v>
@@ -1504,7 +1501,7 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F7" s="10">
         <v>192500</v>
@@ -1534,7 +1531,7 @@
         <v>1120000</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P7" s="1">
         <v>7</v>
@@ -1547,7 +1544,7 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F8" s="9">
         <v>231250</v>
@@ -1577,7 +1574,7 @@
         <v>1280000</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="1">
         <v>7</v>
@@ -1590,7 +1587,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F9" s="4">
         <v>270000</v>
@@ -1620,7 +1617,7 @@
         <v>1440000</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P9" s="1">
         <v>10</v>
@@ -1633,7 +1630,7 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="9">
         <v>326250</v>
@@ -1663,7 +1660,7 @@
         <v>1620000</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P10" s="1">
         <v>10</v>
@@ -1676,7 +1673,7 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="4">
         <v>382500</v>
@@ -1706,7 +1703,7 @@
         <v>1800000</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P11" s="1">
         <v>10</v>
@@ -1719,7 +1716,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="9">
         <v>460000</v>
@@ -1749,7 +1746,7 @@
         <v>2000000</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P12" s="1">
         <v>10</v>
@@ -1762,7 +1759,7 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="4">
         <v>537500</v>
@@ -1792,7 +1789,7 @@
         <v>2200000</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P13" s="1">
         <v>10</v>
@@ -1805,7 +1802,7 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" s="9">
         <v>647500</v>
@@ -1835,7 +1832,7 @@
         <v>2420000</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P14" s="1">
         <v>10</v>
@@ -1848,7 +1845,7 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" s="4">
         <v>757500</v>
@@ -1878,7 +1875,7 @@
         <v>2640000</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P15" s="1">
         <v>10</v>
@@ -1891,7 +1888,7 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="9">
         <v>911250</v>
@@ -1921,7 +1918,7 @@
         <v>2880000</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P16" s="1">
         <v>10</v>
@@ -1934,7 +1931,7 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4">
         <v>1065000</v>
@@ -1964,7 +1961,7 @@
         <v>3120000</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P17" s="1">
         <v>10</v>
@@ -1977,7 +1974,7 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="9">
         <v>1281250</v>
@@ -2007,7 +2004,7 @@
         <v>3380000</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P18" s="1">
         <v>10</v>
@@ -2020,7 +2017,7 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F19" s="4">
         <v>1497500</v>
@@ -2050,7 +2047,7 @@
         <v>3640000</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P19" s="1">
         <v>10</v>
@@ -2063,7 +2060,7 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="9">
         <v>1802500</v>
@@ -2093,7 +2090,7 @@
         <v>3920000</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P20" s="1">
         <v>10</v>
@@ -2106,7 +2103,7 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F21" s="4">
         <v>2107500</v>
@@ -2136,7 +2133,7 @@
         <v>4200000</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P21" s="1">
         <v>10</v>
@@ -2149,7 +2146,7 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F22" s="9">
         <v>2528750</v>
@@ -2179,7 +2176,7 @@
         <v>4500000</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P22" s="1">
         <v>10</v>
@@ -2192,7 +2189,7 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="4">
         <v>2950000</v>
@@ -2222,7 +2219,7 @@
         <v>4800000</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P23" s="1">
         <v>10</v>
@@ -2235,7 +2232,7 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="9">
         <v>3550000</v>
@@ -2265,7 +2262,7 @@
         <v>5120000</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P24" s="1">
         <v>10</v>
@@ -2278,7 +2275,7 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F25" s="4">
         <v>4150000</v>
@@ -2308,7 +2305,7 @@
         <v>5440000</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P25" s="1">
         <v>10</v>
@@ -2321,7 +2318,7 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="9">
         <v>5000000</v>
@@ -2351,7 +2348,7 @@
         <v>6239000</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P26" s="1">
         <v>10</v>
@@ -2364,7 +2361,7 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="4">
         <v>5850000</v>
@@ -2394,7 +2391,7 @@
         <v>7038000</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P27" s="1">
         <v>10</v>
@@ -2407,7 +2404,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F28" s="9">
         <v>7050000</v>
@@ -2437,7 +2434,7 @@
         <v>7965000</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P28" s="1">
         <v>10</v>
@@ -2450,7 +2447,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="4">
         <v>8250000</v>
@@ -2480,7 +2477,7 @@
         <v>8892000</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P29" s="1">
         <v>10</v>
@@ -2493,7 +2490,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F30" s="9">
         <v>9925000</v>
@@ -2523,7 +2520,7 @@
         <v>9956000</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P30" s="1">
         <v>10</v>
@@ -2537,7 +2534,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="4">
         <v>11600000</v>
@@ -2567,7 +2564,7 @@
         <v>11020000</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P31" s="1">
         <v>10</v>
@@ -2580,7 +2577,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="9">
         <v>13950000</v>
@@ -2610,7 +2607,7 @@
         <v>12230000</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P32" s="1">
         <v>10</v>
@@ -2623,7 +2620,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="4">
         <v>16300000</v>
@@ -2653,7 +2650,7 @@
         <v>13440000</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P33" s="1">
         <v>10</v>
@@ -2666,7 +2663,7 @@
         <v>29</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="9">
         <v>19625000</v>
@@ -2696,7 +2693,7 @@
         <v>14805000</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P34" s="1">
         <v>10</v>
@@ -2709,7 +2706,7 @@
         <v>30</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F35" s="4">
         <v>22950000</v>
@@ -2739,7 +2736,7 @@
         <v>16170000</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" s="1">
         <v>10</v>
@@ -2752,7 +2749,7 @@
         <v>31</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F36" s="9">
         <v>27612500</v>
@@ -2782,7 +2779,7 @@
         <v>17699000</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P36" s="1">
         <v>10</v>
@@ -2795,7 +2792,7 @@
         <v>32</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="4">
         <v>32275000</v>
@@ -2825,7 +2822,7 @@
         <v>19228000</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P37" s="1">
         <v>10</v>
@@ -2838,7 +2835,7 @@
         <v>33</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="9">
         <v>38837500</v>
@@ -2868,7 +2865,7 @@
         <v>20930000</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P38" s="1">
         <v>10</v>
@@ -2881,7 +2878,7 @@
         <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F39" s="4">
         <v>45400000</v>
@@ -2911,7 +2908,7 @@
         <v>22632000</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P39" s="1">
         <v>10</v>
@@ -2924,7 +2921,7 @@
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="9">
         <v>54637500</v>
@@ -2954,7 +2951,7 @@
         <v>24516000</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P40" s="1">
         <v>10</v>
@@ -2967,7 +2964,7 @@
         <v>36</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F41" s="4">
         <v>63875000</v>
@@ -2997,7 +2994,7 @@
         <v>26400000</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P41" s="1">
         <v>10</v>
@@ -3010,7 +3007,7 @@
         <v>37</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F42" s="9">
         <v>76850000</v>
@@ -3040,7 +3037,7 @@
         <v>28475000</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P42" s="1">
         <v>10</v>
@@ -3053,7 +3050,7 @@
         <v>38</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="4">
         <v>89825000</v>
@@ -3083,7 +3080,7 @@
         <v>30550000</v>
       </c>
       <c r="O43" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P43" s="1">
         <v>10</v>
@@ -3096,7 +3093,7 @@
         <v>39</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F44" s="9">
         <v>108087500</v>
@@ -3126,7 +3123,7 @@
         <v>32825000</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P44" s="1">
         <v>10</v>
@@ -3139,7 +3136,7 @@
         <v>40</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F45" s="4">
         <v>126350000</v>
@@ -3169,7 +3166,7 @@
         <v>35100000</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P45" s="1">
         <v>10</v>
@@ -3182,7 +3179,7 @@
         <v>41</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F46" s="9">
         <v>152037500</v>
@@ -3212,7 +3209,7 @@
         <v>37584000</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P46" s="1">
         <v>10</v>
@@ -3225,7 +3222,7 @@
         <v>42</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F47" s="4">
         <v>177725000</v>
@@ -3255,7 +3252,7 @@
         <v>40068000</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P47" s="1">
         <v>10</v>
@@ -3268,7 +3265,7 @@
         <v>43</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F48" s="9">
         <v>213862500</v>
@@ -3298,7 +3295,7 @@
         <v>42770000</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P48" s="1">
         <v>10</v>
@@ -3311,7 +3308,7 @@
         <v>44</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F49" s="4">
         <v>250000000</v>
@@ -3341,7 +3338,7 @@
         <v>45472000</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P49" s="1">
         <v>10</v>
@@ -3354,7 +3351,7 @@
         <v>45</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F50" s="9">
         <v>300812500</v>
@@ -3384,7 +3381,7 @@
         <v>48401000</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P50" s="1">
         <v>10</v>
@@ -3396,7 +3393,7 @@
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F51" s="4">
         <v>351625000</v>
@@ -3426,7 +3423,7 @@
         <v>51330000</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P51" s="1">
         <v>10</v>
@@ -3439,7 +3436,7 @@
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F52" s="9">
         <v>423100000</v>
@@ -3469,7 +3466,7 @@
         <v>54495000</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P52" s="1">
         <v>10</v>
@@ -3482,7 +3479,7 @@
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F53" s="4">
         <v>494575000</v>
@@ -3512,7 +3509,7 @@
         <v>57660000</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P53" s="1">
         <v>10</v>
@@ -3525,7 +3522,7 @@
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F54" s="9">
         <v>595100000</v>
@@ -3555,7 +3552,7 @@
         <v>61070000</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P54" s="1">
         <v>10</v>
@@ -3570,7 +3567,7 @@
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55" s="4">
         <v>695625000</v>
@@ -3600,7 +3597,7 @@
         <v>64480000</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P55" s="1">
         <v>10</v>
@@ -3613,7 +3610,7 @@
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F56" s="9">
         <v>837025000</v>
@@ -3643,7 +3640,7 @@
         <v>68144000</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P56" s="1">
         <v>10</v>
@@ -3656,7 +3653,7 @@
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F57" s="4">
         <v>978425000</v>
@@ -3686,7 +3683,7 @@
         <v>71808000</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P57" s="1">
         <v>10</v>
@@ -3699,7 +3696,7 @@
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F58" s="9">
         <v>1177300000</v>
@@ -3729,7 +3726,7 @@
         <v>75735000</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P58" s="1">
         <v>10</v>
@@ -3742,7 +3739,7 @@
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F59" s="4">
         <v>1376175000</v>
@@ -3772,7 +3769,7 @@
         <v>79662000</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P59" s="1">
         <v>10</v>
@@ -3785,7 +3782,7 @@
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F60" s="9">
         <v>1655912500</v>
@@ -3815,7 +3812,7 @@
         <v>83861000</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P60" s="1">
         <v>10</v>
@@ -3828,7 +3825,7 @@
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61" s="4">
         <v>1935650000</v>
@@ -3858,7 +3855,7 @@
         <v>88060000</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P61" s="1">
         <v>10</v>
@@ -3871,7 +3868,7 @@
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F62" s="9">
         <v>2329100000</v>
@@ -3901,7 +3898,7 @@
         <v>92540000</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P62" s="1">
         <v>10</v>
@@ -3914,7 +3911,7 @@
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F63" s="4">
         <v>2722550000</v>
@@ -3944,7 +3941,7 @@
         <v>97020000</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P63" s="1">
         <v>10</v>
@@ -3957,7 +3954,7 @@
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F64" s="9">
         <v>3275950000</v>
@@ -3987,7 +3984,7 @@
         <v>101790000</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P64" s="1">
         <v>10</v>
@@ -4000,7 +3997,7 @@
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F65" s="4">
         <v>3829350000</v>
@@ -4030,7 +4027,7 @@
         <v>106560000</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P65" s="1">
         <v>10</v>
@@ -4043,7 +4040,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" s="9">
         <v>4607712500</v>
@@ -4073,7 +4070,7 @@
         <v>114700000</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P66" s="1">
         <v>10</v>
@@ -4086,7 +4083,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" s="4">
         <v>5386075000</v>
@@ -4116,7 +4113,7 @@
         <v>122840000</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P67" s="1">
         <v>10</v>
@@ -4129,7 +4126,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" s="9">
         <v>6480875000</v>
@@ -4159,7 +4156,7 @@
         <v>131596000</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P68" s="1">
         <v>10</v>
@@ -4172,7 +4169,7 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" s="4">
         <v>7575675000</v>
@@ -4202,7 +4199,7 @@
         <v>140352000</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P69" s="1">
         <v>10</v>
@@ -4215,7 +4212,7 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" s="9">
         <v>9115525000</v>
@@ -4245,7 +4242,7 @@
         <v>149740000</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P70" s="1">
         <v>10</v>
@@ -4258,7 +4255,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F71" s="4">
         <v>10655375000</v>
@@ -4288,7 +4285,7 @@
         <v>159130000</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P71" s="1">
         <v>10</v>
@@ -4301,7 +4298,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F72" s="9">
         <v>12821237500</v>
@@ -4331,7 +4328,7 @@
         <v>169170000</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P72" s="1">
         <v>10</v>
@@ -4344,7 +4341,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F73" s="4">
         <v>14987100000</v>
@@ -4374,7 +4371,7 @@
         <v>179216000</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P73" s="1">
         <v>10</v>
@@ -4387,7 +4384,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F74" s="9">
         <v>18033425000</v>
@@ -4417,7 +4414,7 @@
         <v>189928000</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P74" s="1">
         <v>10</v>
@@ -4430,7 +4427,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F75" s="4">
         <v>21079750000</v>
@@ -4460,7 +4457,7 @@
         <v>200640000</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P75" s="1">
         <v>10</v>
@@ -4473,7 +4470,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F76" s="9">
         <v>25364512500</v>
@@ -4503,7 +4500,7 @@
         <v>216156000</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P76" s="1">
         <v>10</v>
@@ -4516,7 +4513,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F77" s="4">
         <v>29649275000</v>
@@ -4546,7 +4543,7 @@
         <v>231672000</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P77" s="1">
         <v>10</v>
@@ -4559,7 +4556,7 @@
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F78" s="9">
         <v>35675887500</v>
@@ -4587,7 +4584,7 @@
         <v>248247000</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P78" s="1">
         <v>10</v>
@@ -4600,7 +4597,7 @@
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F79" s="4">
         <v>41702500000</v>
@@ -4630,7 +4627,7 @@
         <v>264822000</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P79" s="1">
         <v>10</v>
@@ -4643,7 +4640,7 @@
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F80" s="9">
         <v>50179100000</v>
@@ -4673,7 +4670,7 @@
         <v>282483000</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P80" s="1">
         <v>10</v>
@@ -4686,7 +4683,7 @@
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F81" s="4">
         <v>58655700000</v>
@@ -4716,7 +4713,7 @@
         <v>300144000</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P81" s="1">
         <v>10</v>
@@ -4730,7 +4727,7 @@
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F82" s="9">
         <v>70578275000</v>
@@ -4760,7 +4757,7 @@
         <v>318910000</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P82" s="1">
         <v>10</v>
@@ -4773,7 +4770,7 @@
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F83" s="4">
         <v>82500850000</v>
@@ -4803,7 +4800,7 @@
         <v>337690000</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P83" s="1">
         <v>10</v>
@@ -4816,7 +4813,7 @@
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F84" s="9">
         <v>99270275000</v>
@@ -4846,7 +4843,7 @@
         <v>357600000</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P84" s="1">
         <v>10</v>
@@ -4859,7 +4856,7 @@
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F85" s="4">
         <v>116039700000</v>
@@ -4889,7 +4886,7 @@
         <v>377520000</v>
       </c>
       <c r="O85" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P85" s="1">
         <v>10</v>
@@ -4902,7 +4899,7 @@
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F86" s="9">
         <v>139626362500</v>
@@ -4932,7 +4929,7 @@
         <v>398600000</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P86" s="1">
         <v>10</v>
@@ -4945,7 +4942,7 @@
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F87" s="4">
         <v>163213025000</v>
@@ -4975,7 +4972,7 @@
         <v>419680000</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P87" s="1">
         <v>10</v>
@@ -4988,7 +4985,7 @@
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F88" s="9">
         <v>196388287500</v>
@@ -5018,7 +5015,7 @@
         <v>441956000</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P88" s="1">
         <v>10</v>
@@ -5031,7 +5028,7 @@
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F89" s="4">
         <v>229563550000</v>
@@ -5061,7 +5058,7 @@
         <v>464232000</v>
       </c>
       <c r="O89" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P89" s="1">
         <v>10</v>
@@ -5074,7 +5071,7 @@
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F90" s="9">
         <v>276225475000</v>
@@ -5104,7 +5101,7 @@
         <v>487728000</v>
       </c>
       <c r="O90" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P90" s="1">
         <v>10</v>
@@ -5117,7 +5114,7 @@
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F91" s="4">
         <v>322887400000</v>
@@ -5147,7 +5144,7 @@
         <v>511224000</v>
       </c>
       <c r="O91" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P91" s="1">
         <v>10</v>
@@ -5160,7 +5157,7 @@
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F92" s="9">
         <v>388518662500</v>
@@ -5190,7 +5187,7 @@
         <v>535968000</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P92" s="1">
         <v>10</v>
@@ -5203,7 +5200,7 @@
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F93" s="4">
         <v>454149925000</v>
@@ -5233,7 +5230,7 @@
         <v>560712000</v>
       </c>
       <c r="O93" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P93" s="1">
         <v>10</v>
@@ -5248,7 +5245,7 @@
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F94" s="9">
         <v>546462087500</v>
@@ -5278,7 +5275,7 @@
         <v>586731000</v>
       </c>
       <c r="O94" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P94" s="1">
         <v>10</v>
@@ -5291,7 +5288,7 @@
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F95" s="4">
         <v>638774250000</v>
@@ -5321,7 +5318,7 @@
         <v>612750000</v>
       </c>
       <c r="O95" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P95" s="1">
         <v>10</v>
@@ -5334,7 +5331,7 @@
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F96" s="9">
         <v>768613800000</v>
@@ -5364,7 +5361,7 @@
         <v>641183600</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P96" s="1">
         <v>10</v>
@@ -5377,7 +5374,7 @@
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F97" s="4">
         <v>898453350000</v>
@@ -5407,7 +5404,7 @@
         <v>669617200</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P97" s="1">
         <v>10</v>
@@ -5420,7 +5417,7 @@
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F98" s="9">
         <v>1081076250000</v>
@@ -5450,7 +5447,7 @@
         <v>700689800</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P98" s="1">
         <v>10</v>
@@ -5463,7 +5460,7 @@
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F99" s="4">
         <v>1263699150000</v>
@@ -5493,7 +5490,7 @@
         <v>731762400</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P99" s="1">
         <v>10</v>
@@ -5506,7 +5503,7 @@
       </c>
       <c r="D100" s="1"/>
       <c r="E100" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F100" s="9">
         <v>1520563250000</v>
@@ -5536,7 +5533,7 @@
         <v>765718800</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P100" s="1">
         <v>10</v>
@@ -5549,7 +5546,7 @@
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F101" s="4">
         <v>1777427350000</v>
@@ -5579,7 +5576,7 @@
         <v>799675200</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P101" s="1">
         <v>10</v>
@@ -5592,7 +5589,7 @@
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F102" s="9">
         <v>2138713675000</v>
@@ -5622,7 +5619,7 @@
         <v>836783000</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P102" s="1">
         <v>10</v>
@@ -5635,7 +5632,7 @@
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F103" s="4">
         <v>2500000000000</v>
@@ -5665,7 +5662,7 @@
         <v>873890800</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P103" s="1">
         <v>10</v>
@@ -5678,7 +5675,7 @@
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F104" s="9">
         <v>3008159100000</v>
@@ -5708,7 +5705,7 @@
         <v>914442400</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P104" s="1">
         <v>10</v>
@@ -5721,7 +5718,7 @@
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F105" s="10">
         <v>3516318200000</v>
@@ -5751,7 +5748,7 @@
         <v>954994000</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P105" s="1">
         <v>10</v>
@@ -5777,7 +5774,7 @@
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F107" s="10">
         <v>70000000000</v>
@@ -5807,7 +5804,7 @@
         <v>100000000</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P107" s="1">
         <v>7</v>
@@ -5818,7 +5815,7 @@
         <v>102</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F108" s="10">
         <v>75000000000</v>
@@ -5852,7 +5849,7 @@
         <v>200000000</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P108" s="1">
         <v>7</v>
@@ -5863,7 +5860,7 @@
         <v>103</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F109" s="10">
         <v>80000000000</v>
@@ -5897,7 +5894,7 @@
         <v>300000000</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P109" s="1">
         <v>7</v>
@@ -5908,7 +5905,7 @@
         <v>104</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F110" s="10">
         <v>86000000000</v>
@@ -5942,7 +5939,7 @@
         <v>400000000</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P110" s="1">
         <v>7</v>
@@ -5953,7 +5950,7 @@
         <v>105</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F111" s="10">
         <v>92000000000</v>
@@ -5987,7 +5984,7 @@
         <v>500000000</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P111" s="1">
         <v>7</v>
@@ -5998,7 +5995,7 @@
         <v>106</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F112" s="10">
         <v>99000000000</v>
@@ -6032,7 +6029,7 @@
         <v>600000000</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P112" s="1">
         <v>7</v>
@@ -6043,7 +6040,7 @@
         <v>107</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F113" s="10">
         <v>100000000000</v>
@@ -6077,7 +6074,7 @@
         <v>700000000</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P113" s="1">
         <v>7</v>
@@ -6088,7 +6085,7 @@
         <v>108</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F114" s="10">
         <v>110000000000</v>
@@ -6122,7 +6119,7 @@
         <v>800000000</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P114" s="1">
         <v>7</v>
@@ -6133,7 +6130,7 @@
         <v>109</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F115" s="10">
         <v>120000000000</v>
@@ -6167,7 +6164,7 @@
         <v>900000000</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P115" s="1">
         <v>7</v>
@@ -6178,7 +6175,7 @@
         <v>110</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F116" s="10">
         <v>130000000000</v>
@@ -6212,7 +6209,7 @@
         <v>1000000000</v>
       </c>
       <c r="O116" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P116" s="1">
         <v>7</v>
@@ -6223,7 +6220,7 @@
         <v>111</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F117" s="10">
         <v>140000000000</v>
@@ -6257,7 +6254,7 @@
         <v>1100000000</v>
       </c>
       <c r="O117" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P117" s="1">
         <v>7</v>
@@ -6268,7 +6265,7 @@
         <v>112</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F118" s="10">
         <v>150000000000</v>
@@ -6302,7 +6299,7 @@
         <v>1200000000</v>
       </c>
       <c r="O118" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P118" s="1">
         <v>7</v>
@@ -6313,7 +6310,7 @@
         <v>113</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F119" s="10">
         <v>160000000000</v>
@@ -6347,7 +6344,7 @@
         <v>1300000000</v>
       </c>
       <c r="O119" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P119" s="1">
         <v>7</v>
@@ -6358,7 +6355,7 @@
         <v>114</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F120" s="10">
         <v>170000000000</v>
@@ -6392,7 +6389,7 @@
         <v>1400000000</v>
       </c>
       <c r="O120" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P120" s="1">
         <v>7</v>
@@ -6403,7 +6400,7 @@
         <v>115</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F121" s="10">
         <v>180000000000</v>
@@ -6437,7 +6434,7 @@
         <v>1500000000</v>
       </c>
       <c r="O121" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P121" s="1">
         <v>7</v>
@@ -6448,7 +6445,7 @@
         <v>116</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F122" s="10">
         <v>190000000000</v>
@@ -6482,7 +6479,7 @@
         <v>1600000000</v>
       </c>
       <c r="O122" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P122" s="1">
         <v>7</v>
@@ -6493,7 +6490,7 @@
         <v>117</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F123" s="10">
         <v>210000000000</v>
@@ -6527,7 +6524,7 @@
         <v>1700000000</v>
       </c>
       <c r="O123" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P123" s="1">
         <v>7</v>
@@ -6538,7 +6535,7 @@
         <v>118</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F124" s="10">
         <v>220000000000</v>
@@ -6572,7 +6569,7 @@
         <v>1800000000</v>
       </c>
       <c r="O124" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P124" s="1">
         <v>7</v>
@@ -6583,7 +6580,7 @@
         <v>119</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F125" s="10">
         <v>240000000000</v>
@@ -6617,7 +6614,7 @@
         <v>1900000000</v>
       </c>
       <c r="O125" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P125" s="1">
         <v>7</v>
@@ -6628,7 +6625,7 @@
         <v>120</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F126" s="10">
         <v>260000000000</v>
@@ -6662,7 +6659,7 @@
         <v>2000000000</v>
       </c>
       <c r="O126" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P126" s="1">
         <v>7</v>
@@ -6673,7 +6670,7 @@
         <v>121</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F127" s="10">
         <v>280000000000</v>
@@ -6707,7 +6704,7 @@
         <v>2100000000</v>
       </c>
       <c r="O127" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P127" s="1">
         <v>7</v>
@@ -6718,7 +6715,7 @@
         <v>122</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F128" s="10">
         <v>300000000000</v>
@@ -6752,7 +6749,7 @@
         <v>2200000000</v>
       </c>
       <c r="O128" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P128" s="1">
         <v>7</v>
@@ -6763,7 +6760,7 @@
         <v>123</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F129" s="10">
         <v>320000000000</v>
@@ -6797,7 +6794,7 @@
         <v>2300000000</v>
       </c>
       <c r="O129" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P129" s="1">
         <v>7</v>
@@ -6808,7 +6805,7 @@
         <v>124</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F130" s="10">
         <v>340000000000</v>
@@ -6842,7 +6839,7 @@
         <v>2400000000</v>
       </c>
       <c r="O130" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P130" s="1">
         <v>7</v>
@@ -6853,7 +6850,7 @@
         <v>125</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F131" s="10">
         <v>370000000000</v>
@@ -6887,7 +6884,7 @@
         <v>2500000000</v>
       </c>
       <c r="O131" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P131" s="1">
         <v>7</v>
@@ -6898,7 +6895,7 @@
         <v>126</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F132" s="10">
         <v>400000000000</v>
@@ -6932,7 +6929,7 @@
         <v>2600000000</v>
       </c>
       <c r="O132" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P132" s="1">
         <v>7</v>
@@ -6943,7 +6940,7 @@
         <v>127</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F133" s="4">
         <v>420000000000</v>
@@ -6977,7 +6974,7 @@
         <v>2700000000</v>
       </c>
       <c r="O133" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P133" s="1">
         <v>7</v>
@@ -6988,7 +6985,7 @@
         <v>128</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F134" s="4">
         <v>460000000000</v>
@@ -7022,7 +7019,7 @@
         <v>2800000000</v>
       </c>
       <c r="O134" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P134" s="1">
         <v>7</v>
@@ -7033,7 +7030,7 @@
         <v>129</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F135" s="4">
         <v>490000000000</v>
@@ -7067,7 +7064,7 @@
         <v>2900000000</v>
       </c>
       <c r="O135" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P135" s="1">
         <v>7</v>
@@ -7078,7 +7075,7 @@
         <v>130</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F136" s="4">
         <v>520000000000</v>
@@ -7112,7 +7109,7 @@
         <v>3000000000</v>
       </c>
       <c r="O136" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P136" s="1">
         <v>7</v>
@@ -7123,7 +7120,7 @@
         <v>131</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F137" s="4">
         <v>560000000000</v>
@@ -7157,7 +7154,7 @@
         <v>3100000000</v>
       </c>
       <c r="O137" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P137" s="1">
         <v>7</v>
@@ -7168,7 +7165,7 @@
         <v>132</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F138" s="4">
         <v>600000000000</v>
@@ -7202,7 +7199,7 @@
         <v>3200000000</v>
       </c>
       <c r="O138" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P138" s="1">
         <v>7</v>
@@ -7213,7 +7210,7 @@
         <v>133</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F139" s="4">
         <v>650000000000</v>
@@ -7247,7 +7244,7 @@
         <v>3300000000</v>
       </c>
       <c r="O139" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P139" s="1">
         <v>7</v>
@@ -7258,7 +7255,7 @@
         <v>134</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F140" s="4">
         <v>700000000000</v>
@@ -7292,7 +7289,7 @@
         <v>3400000000</v>
       </c>
       <c r="O140" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P140" s="1">
         <v>7</v>
@@ -7303,7 +7300,7 @@
         <v>135</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F141" s="4">
         <v>750000000000</v>
@@ -7337,7 +7334,7 @@
         <v>3500000000</v>
       </c>
       <c r="O141" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P141" s="1">
         <v>7</v>
@@ -7348,7 +7345,7 @@
         <v>136</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F142" s="4">
         <v>800000000000</v>
@@ -7382,7 +7379,7 @@
         <v>3600000000</v>
       </c>
       <c r="O142" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P142" s="1">
         <v>7</v>
@@ -7393,7 +7390,7 @@
         <v>137</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F143" s="4">
         <v>860000000000</v>
@@ -7427,7 +7424,7 @@
         <v>3700000000</v>
       </c>
       <c r="O143" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P143" s="1">
         <v>7</v>
@@ -7438,7 +7435,7 @@
         <v>138</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F144" s="4">
         <v>920000000000</v>
@@ -7472,7 +7469,7 @@
         <v>3800000000</v>
       </c>
       <c r="O144" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P144" s="1">
         <v>7</v>
@@ -7483,7 +7480,7 @@
         <v>139</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F145" s="4">
         <v>990000000000</v>
@@ -7517,7 +7514,7 @@
         <v>3900000000</v>
       </c>
       <c r="O145" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P145" s="1">
         <v>7</v>
@@ -7528,7 +7525,7 @@
         <v>140</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F146" s="4">
         <v>1000000000000</v>
@@ -7562,7 +7559,7 @@
         <v>4000000000</v>
       </c>
       <c r="O146" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P146" s="1">
         <v>7</v>
@@ -7573,7 +7570,7 @@
         <v>141</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F147" s="4">
         <v>1100000000000</v>
@@ -7607,7 +7604,7 @@
         <v>4100000000</v>
       </c>
       <c r="O147" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P147" s="1">
         <v>7</v>
@@ -7618,7 +7615,7 @@
         <v>142</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F148" s="4">
         <v>1200000000000</v>
@@ -7652,7 +7649,7 @@
         <v>4200000000</v>
       </c>
       <c r="O148" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P148" s="1">
         <v>7</v>
@@ -7663,7 +7660,7 @@
         <v>143</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F149" s="4">
         <v>1300000000000</v>
@@ -7697,7 +7694,7 @@
         <v>4300000000</v>
       </c>
       <c r="O149" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P149" s="1">
         <v>7</v>
@@ -7708,7 +7705,7 @@
         <v>144</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F150" s="4">
         <v>1400000000000</v>
@@ -7742,7 +7739,7 @@
         <v>4400000000</v>
       </c>
       <c r="O150" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P150" s="1">
         <v>7</v>
@@ -7753,7 +7750,7 @@
         <v>145</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F151" s="4">
         <v>1500000000000</v>
@@ -7787,7 +7784,7 @@
         <v>4500000000</v>
       </c>
       <c r="O151" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P151" s="1">
         <v>7</v>
@@ -7798,7 +7795,7 @@
         <v>146</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F152" s="4">
         <v>1600000000000</v>
@@ -7832,7 +7829,7 @@
         <v>4600000000</v>
       </c>
       <c r="O152" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P152" s="1">
         <v>7</v>
@@ -7843,7 +7840,7 @@
         <v>147</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F153" s="4">
         <v>1700000000000</v>
@@ -7877,7 +7874,7 @@
         <v>4700000000</v>
       </c>
       <c r="O153" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P153" s="1">
         <v>7</v>
@@ -7888,7 +7885,7 @@
         <v>148</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F154" s="4">
         <v>1800000000000</v>
@@ -7922,7 +7919,7 @@
         <v>4800000000</v>
       </c>
       <c r="O154" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P154" s="1">
         <v>7</v>
@@ -7933,7 +7930,7 @@
         <v>149</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F155" s="4">
         <v>1900000000000</v>
@@ -7967,7 +7964,7 @@
         <v>4900000000</v>
       </c>
       <c r="O155" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P155" s="1">
         <v>7</v>
@@ -7978,7 +7975,7 @@
         <v>150</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F156" s="4">
         <v>2100000000000</v>
@@ -8012,7 +8009,7 @@
         <v>5000000000</v>
       </c>
       <c r="O156" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P156" s="1">
         <v>7</v>
@@ -8023,7 +8020,7 @@
         <v>151</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F157" s="4">
         <v>2200000000000</v>
@@ -8057,7 +8054,7 @@
         <v>5100000000</v>
       </c>
       <c r="O157" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P157" s="1">
         <v>7</v>
@@ -8068,7 +8065,7 @@
         <v>152</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F158" s="4">
         <v>2400000000000</v>
@@ -8102,7 +8099,7 @@
         <v>5200000000</v>
       </c>
       <c r="O158" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P158" s="1">
         <v>7</v>
@@ -8113,7 +8110,7 @@
         <v>153</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F159" s="4">
         <v>2600000000000</v>
@@ -8147,7 +8144,7 @@
         <v>5300000000</v>
       </c>
       <c r="O159" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P159" s="1">
         <v>7</v>
@@ -8158,7 +8155,7 @@
         <v>154</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F160" s="4">
         <v>2800000000000</v>
@@ -8192,7 +8189,7 @@
         <v>5400000000</v>
       </c>
       <c r="O160" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P160" s="1">
         <v>7</v>
@@ -8203,7 +8200,7 @@
         <v>155</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F161" s="4">
         <v>3000000000000</v>
@@ -8237,7 +8234,7 @@
         <v>5500000000</v>
       </c>
       <c r="O161" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P161" s="1">
         <v>7</v>
@@ -8248,7 +8245,7 @@
         <v>156</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F162" s="4">
         <v>3200000000000</v>
@@ -8282,7 +8279,7 @@
         <v>5600000000</v>
       </c>
       <c r="O162" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P162" s="1">
         <v>7</v>
@@ -8293,7 +8290,7 @@
         <v>157</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F163" s="4">
         <v>3400000000000</v>
@@ -8327,7 +8324,7 @@
         <v>5700000000</v>
       </c>
       <c r="O163" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P163" s="1">
         <v>7</v>
@@ -8338,7 +8335,7 @@
         <v>158</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F164" s="4">
         <v>3700000000000</v>
@@ -8372,7 +8369,7 @@
         <v>5800000000</v>
       </c>
       <c r="O164" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P164" s="1">
         <v>7</v>
@@ -8383,7 +8380,7 @@
         <v>159</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F165" s="4">
         <v>4000000000000</v>
@@ -8417,7 +8414,7 @@
         <v>5900000000</v>
       </c>
       <c r="O165" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P165" s="1">
         <v>7</v>
@@ -8428,7 +8425,7 @@
         <v>160</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F166" s="4">
         <v>4200000000000</v>
@@ -8462,7 +8459,7 @@
         <v>6000000000</v>
       </c>
       <c r="O166" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P166" s="1">
         <v>7</v>
@@ -8473,7 +8470,7 @@
         <v>161</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F167" s="4">
         <v>4600000000000</v>
@@ -8507,7 +8504,7 @@
         <v>6100000000</v>
       </c>
       <c r="O167" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P167" s="1">
         <v>7</v>
@@ -8518,7 +8515,7 @@
         <v>162</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F168" s="4">
         <v>4900000000000</v>
@@ -8552,7 +8549,7 @@
         <v>6200000000</v>
       </c>
       <c r="O168" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P168" s="1">
         <v>7</v>
@@ -8563,7 +8560,7 @@
         <v>163</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F169" s="4">
         <v>5200000000000</v>
@@ -8597,7 +8594,7 @@
         <v>6300000000</v>
       </c>
       <c r="O169" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P169" s="1">
         <v>7</v>
@@ -8608,7 +8605,7 @@
         <v>164</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F170" s="4">
         <v>5600000000000</v>
@@ -8642,7 +8639,7 @@
         <v>6400000000</v>
       </c>
       <c r="O170" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P170" s="1">
         <v>7</v>
@@ -8653,7 +8650,7 @@
         <v>165</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F171" s="4">
         <v>6000000000000</v>
@@ -8687,7 +8684,7 @@
         <v>6500000000</v>
       </c>
       <c r="O171" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P171" s="1">
         <v>7</v>
@@ -8698,7 +8695,7 @@
         <v>166</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F172" s="4">
         <v>6500000000000</v>
@@ -8732,7 +8729,7 @@
         <v>6600000000</v>
       </c>
       <c r="O172" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P172" s="1">
         <v>7</v>
@@ -8743,7 +8740,7 @@
         <v>167</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F173" s="4">
         <v>7000000000000</v>
@@ -8777,7 +8774,7 @@
         <v>6700000000</v>
       </c>
       <c r="O173" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P173" s="1">
         <v>7</v>
@@ -8788,7 +8785,7 @@
         <v>168</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F174" s="4">
         <v>7500000000000</v>
@@ -8822,7 +8819,7 @@
         <v>6800000000</v>
       </c>
       <c r="O174" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P174" s="1">
         <v>7</v>
@@ -8833,7 +8830,7 @@
         <v>169</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F175" s="4">
         <v>8000000000000</v>
@@ -8867,7 +8864,7 @@
         <v>6900000000</v>
       </c>
       <c r="O175" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P175" s="1">
         <v>7</v>
@@ -8878,7 +8875,7 @@
         <v>170</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F176" s="4">
         <v>8600000000000</v>
@@ -8912,7 +8909,7 @@
         <v>7000000000</v>
       </c>
       <c r="O176" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P176" s="1">
         <v>7</v>
@@ -8923,7 +8920,7 @@
         <v>171</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F177" s="4">
         <v>9200000000000</v>
@@ -8957,7 +8954,7 @@
         <v>7100000000</v>
       </c>
       <c r="O177" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P177" s="1">
         <v>7</v>
@@ -8968,7 +8965,7 @@
         <v>172</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F178" s="4">
         <v>9900000000000</v>
@@ -9002,7 +8999,7 @@
         <v>7200000000</v>
       </c>
       <c r="O178" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P178" s="1">
         <v>7</v>
@@ -9013,7 +9010,7 @@
         <v>173</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F179" s="4">
         <v>10000000000000</v>
@@ -9047,7 +9044,7 @@
         <v>7300000000</v>
       </c>
       <c r="O179" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P179" s="1">
         <v>7</v>
@@ -9058,7 +9055,7 @@
         <v>174</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F180" s="4">
         <v>11000000000000</v>
@@ -9092,7 +9089,7 @@
         <v>7400000000</v>
       </c>
       <c r="O180" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P180" s="1">
         <v>7</v>
@@ -9103,7 +9100,7 @@
         <v>175</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F181" s="4">
         <v>12000000000000</v>
@@ -9137,7 +9134,7 @@
         <v>7500000000</v>
       </c>
       <c r="O181" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P181" s="1">
         <v>7</v>
@@ -9148,7 +9145,7 @@
         <v>176</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F182" s="4">
         <v>13000000000000</v>
@@ -9182,7 +9179,7 @@
         <v>7600000000</v>
       </c>
       <c r="O182" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P182" s="1">
         <v>7</v>
@@ -9193,7 +9190,7 @@
         <v>177</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F183" s="4">
         <v>14000000000000</v>
@@ -9227,7 +9224,7 @@
         <v>7700000000</v>
       </c>
       <c r="O183" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P183" s="1">
         <v>7</v>
@@ -9238,7 +9235,7 @@
         <v>178</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F184" s="4">
         <v>15000000000000</v>
@@ -9272,7 +9269,7 @@
         <v>7800000000</v>
       </c>
       <c r="O184" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P184" s="1">
         <v>7</v>
@@ -9283,7 +9280,7 @@
         <v>179</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F185" s="4">
         <v>16000000000000</v>
@@ -9317,7 +9314,7 @@
         <v>7900000000</v>
       </c>
       <c r="O185" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P185" s="1">
         <v>7</v>
@@ -9328,7 +9325,7 @@
         <v>180</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F186" s="4">
         <v>17000000000000</v>
@@ -9362,7 +9359,7 @@
         <v>8000000000</v>
       </c>
       <c r="O186" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P186" s="1">
         <v>7</v>
@@ -9373,7 +9370,7 @@
         <v>181</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F187" s="4">
         <v>18000000000000</v>
@@ -9407,7 +9404,7 @@
         <v>8100000000</v>
       </c>
       <c r="O187" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P187" s="1">
         <v>7</v>
@@ -9418,7 +9415,7 @@
         <v>182</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F188" s="4">
         <v>19000000000000</v>
@@ -9452,7 +9449,7 @@
         <v>8200000000</v>
       </c>
       <c r="O188" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P188" s="1">
         <v>7</v>
@@ -9463,7 +9460,7 @@
         <v>183</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F189" s="4">
         <v>21000000000000</v>
@@ -9497,7 +9494,7 @@
         <v>8300000000</v>
       </c>
       <c r="O189" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P189" s="1">
         <v>7</v>
@@ -9508,7 +9505,7 @@
         <v>184</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F190" s="4">
         <v>22000000000000</v>
@@ -9542,7 +9539,7 @@
         <v>8400000000</v>
       </c>
       <c r="O190" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P190" s="1">
         <v>7</v>
@@ -9553,7 +9550,7 @@
         <v>185</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F191" s="4">
         <v>24000000000000</v>
@@ -9587,7 +9584,7 @@
         <v>8500000000</v>
       </c>
       <c r="O191" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P191" s="1">
         <v>7</v>
@@ -9598,7 +9595,7 @@
         <v>186</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F192" s="4">
         <v>26000000000000</v>
@@ -9632,7 +9629,7 @@
         <v>8600000000</v>
       </c>
       <c r="O192" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P192" s="1">
         <v>7</v>
@@ -9643,7 +9640,7 @@
         <v>187</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F193" s="4">
         <v>28000000000000</v>
@@ -9677,7 +9674,7 @@
         <v>8700000000</v>
       </c>
       <c r="O193" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P193" s="1">
         <v>7</v>
@@ -9688,7 +9685,7 @@
         <v>188</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F194" s="4">
         <v>30000000000000</v>
@@ -9722,7 +9719,7 @@
         <v>8800000000</v>
       </c>
       <c r="O194" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P194" s="1">
         <v>7</v>
@@ -9733,7 +9730,7 @@
         <v>189</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F195" s="4">
         <v>32000000000000</v>
@@ -9767,7 +9764,7 @@
         <v>8900000000</v>
       </c>
       <c r="O195" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P195" s="1">
         <v>7</v>
@@ -9778,7 +9775,7 @@
         <v>190</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F196" s="4">
         <v>34000000000000</v>
@@ -9812,7 +9809,7 @@
         <v>9000000000</v>
       </c>
       <c r="O196" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P196" s="1">
         <v>7</v>
@@ -9823,7 +9820,7 @@
         <v>191</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F197" s="4">
         <v>37000000000000</v>
@@ -9857,7 +9854,7 @@
         <v>9100000000</v>
       </c>
       <c r="O197" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P197" s="1">
         <v>7</v>
@@ -9868,7 +9865,7 @@
         <v>192</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F198" s="4">
         <v>40000000000000</v>
@@ -9902,7 +9899,7 @@
         <v>9200000000</v>
       </c>
       <c r="O198" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P198" s="1">
         <v>7</v>
@@ -9913,7 +9910,7 @@
         <v>193</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F199" s="4">
         <v>42000000000000</v>
@@ -9947,7 +9944,7 @@
         <v>9300000000</v>
       </c>
       <c r="O199" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P199" s="1">
         <v>7</v>
@@ -9958,7 +9955,7 @@
         <v>194</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F200" s="4">
         <v>46000000000000</v>
@@ -9992,7 +9989,7 @@
         <v>9400000000</v>
       </c>
       <c r="O200" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P200" s="1">
         <v>7</v>
@@ -10003,7 +10000,7 @@
         <v>195</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F201" s="4">
         <v>49000000000000</v>
@@ -10037,7 +10034,7 @@
         <v>9500000000</v>
       </c>
       <c r="O201" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P201" s="1">
         <v>7</v>
@@ -10048,7 +10045,7 @@
         <v>196</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F202" s="4">
         <v>52000000000000</v>
@@ -10082,7 +10079,7 @@
         <v>9600000000</v>
       </c>
       <c r="O202" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P202" s="1">
         <v>7</v>
@@ -10093,7 +10090,7 @@
         <v>197</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F203" s="4">
         <v>56000000000000</v>
@@ -10127,7 +10124,7 @@
         <v>9700000000</v>
       </c>
       <c r="O203" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P203" s="1">
         <v>7</v>
@@ -10138,7 +10135,7 @@
         <v>198</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F204" s="4">
         <v>60000000000000</v>
@@ -10172,7 +10169,7 @@
         <v>9800000000</v>
       </c>
       <c r="O204" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P204" s="1">
         <v>7</v>
@@ -10183,7 +10180,7 @@
         <v>199</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F205" s="4">
         <v>65000000000000</v>
@@ -10217,7 +10214,7 @@
         <v>9900000000</v>
       </c>
       <c r="O205" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P205" s="1">
         <v>7</v>
@@ -10229,7 +10226,7 @@
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F206" s="4">
         <v>70000000000000</v>
@@ -10263,7 +10260,7 @@
         <v>10000000000</v>
       </c>
       <c r="O206" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P206" s="1">
         <v>7</v>
